--- a/hz杭州成交周报.xlsx
+++ b/hz杭州成交周报.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="290">
   <si>
     <t>第年</t>
   </si>
@@ -850,6 +850,30 @@
   </si>
   <si>
     <t>805</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>1161</t>
+  </si>
+  <si>
+    <t>1836</t>
+  </si>
+  <si>
+    <t>987</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>1502</t>
+  </si>
+  <si>
+    <t>1606</t>
+  </si>
+  <si>
+    <t>862</t>
   </si>
   <si>
     <t>姓名</t>
@@ -887,7 +911,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -904,6 +928,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1388,16 +1419,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1406,125 +1434,129 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3207,15 +3239,15 @@
   <wpswe:properties>
     <wpswe:property key="DiscardFirstCodeChange" value="0"/>
     <wpswe:property key="autoSnapshot" value="0"/>
-    <wpswe:property key="dschart" value="{&quot;dschart_data&quot;:{&quot;blockId&quot;:&quot;161243067189875081&quot;,&quot;chart_type&quot;:&quot;线形图&quot;,&quot;classifty_type&quot;:[&quot;趋势类&quot;],&quot;dataSrc&quot;:{&quot;data&quot;:[[[&quot;第周&quot;,&quot;新房成交&quot;,&quot;二手房成交&quot;,&quot;涨价房源&quot;],[&quot;40&quot;,&quot;4665&quot;,&quot;1177&quot;,&quot;180&quot;],[&quot;41&quot;,&quot;662&quot;,&quot;404&quot;,&quot;130&quot;],[&quot;42&quot;,&quot;2162&quot;,&quot;1294&quot;,&quot;214&quot;],[&quot;43&quot;,&quot;2285&quot;,&quot;1195&quot;,&quot;170&quot;],[&quot;44&quot;,&quot;3768&quot;,&quot;1204&quot;,&quot;210&quot;],[&quot;45&quot;,&quot;2916&quot;,&quot;1188&quot;,&quot;213&quot;],[&quot;46&quot;,&quot;2079&quot;,&quot;1145&quot;,&quot;248&quot;],[&quot;47&quot;,&quot;2510&quot;,&quot;1155&quot;,&quot;289&quot;],[&quot;48&quot;,&quot;2382&quot;,&quot;1388&quot;,&quot;313&quot;],[&quot;49&quot;,&quot;3044&quot;,&quot;1350&quot;,&quot;409&quot;],[&quot;50&quot;,&quot;2282&quot;,&quot;1243&quot;,&quot;355&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;52&quot;,&quot;1721&quot;,&quot;1228&quot;,&quot;286&quot;],[&quot;53&quot;,&quot;1721&quot;,&quot;1228&quot;,&quot;286&quot;],[&quot;02&quot;,&quot;1721&quot;,&quot;1228&quot;,&quot;286&quot;],[&quot;03&quot;,&quot;3939&quot;,&quot;1112&quot;,&quot;247&quot;],[&quot;04&quot;,&quot;1575&quot;,&quot;292&quot;,&quot;92&quot;],[&quot;05&quot;,&quot;348&quot;,&quot;108&quot;,&quot;73&quot;],[&quot;06&quot;,&quot;1591&quot;,&quot;921&quot;,&quot;735&quot;],[&quot;07&quot;,&quot;2031&quot;,&quot;1283&quot;,&quot;737&quot;],[&quot;08&quot;,&quot;1999&quot;,&quot;1740&quot;,&quot;959&quot;],[&quot;09&quot;,&quot;3065&quot;,&quot;2421&quot;,&quot;901&quot;],[&quot;10&quot;,&quot;2650&quot;,&quot;2449&quot;,&quot;1029&quot;],[&quot;11&quot;,&quot;2694&quot;,&quot;2436&quot;,&quot;733&quot;],[&quot;12&quot;,&quot;2643&quot;,&quot;2336&quot;,&quot;573&quot;],[&quot;13&quot;,&quot;2649&quot;,&quot;2248&quot;,&quot;480&quot;],[&quot;14&quot;,&quot;3091&quot;,&quot;2040&quot;,&quot;2174&quot;],[&quot;15&quot;,&quot;3497&quot;,&quot;1474&quot;,&quot;1491&quot;],[&quot;16&quot;,&quot;3227&quot;,&quot;2008&quot;,&quot;1071&quot;],[&quot;17&quot;,&quot;2732&quot;,&quot;1920&quot;,&quot;798&quot;],[&quot;18&quot;,&quot;2359&quot;,&quot;1352&quot;,&quot;787&quot;],[&quot;19&quot;,&quot;1773&quot;,&quot;884&quot;,&quot;563&quot;],[&quot;22&quot;,&quot;2293&quot;,&quot;2375&quot;,&quot;2582&quot;],[&quot;24&quot;,&quot;1774&quot;,&quot;1041&quot;,&quot;2587&quot;],[&quot;25&quot;,&quot;1561&quot;,&quot;1022&quot;,&quot;2408&quot;],[&quot;26&quot;,&quot;1524&quot;,&quot;927&quot;,&quot;1499&quot;],[&quot;28&quot;,&quot;1323&quot;,&quot;835&quot;,&quot;2194&quot;],[&quot;29&quot;,&quot;1369&quot;,&quot;1041&quot;,&quot;363&quot;],[&quot;30&quot;,&quot;1117&quot;,&quot;994&quot;,&quot;253&quot;],[&quot;31&quot;,&quot;1795&quot;,&quot;1035&quot;,&quot;238&quot;],[&quot;33&quot;,&quot;847&quot;,&quot;999&quot;,&quot;275&quot;],[&quot;34&quot;,&quot;789&quot;,&quot;1077&quot;,&quot;289&quot;],[&quot;35&quot;,&quot;1857&quot;,&quot;1116&quot;,&quot;228&quot;],[&quot;36&quot;,&quot;2774&quot;,&quot;905&quot;,&quot;290&quot;],[&quot;37&quot;,&quot;1113&quot;,&quot;938&quot;,&quot;378&quot;],[&quot;38&quot;,&quot;1548&quot;,&quot;1098&quot;,&quot;465&quot;],[&quot;39&quot;,&quot;1773&quot;,&quot;902&quot;,&quot;299&quot;],[&quot;41&quot;,&quot;513&quot;,&quot;382&quot;,&quot;177&quot;],[&quot;42&quot;,&quot;962&quot;,&quot;1240&quot;,&quot;236&quot;],[&quot;43&quot;,&quot;1162&quot;,&quot;1329&quot;,&quot;622&quot;],[&quot;44&quot;,&quot;2509&quot;,&quot;2037&quot;,&quot;476&quot;],[&quot;45&quot;,&quot;2960&quot;,&quot;1963&quot;,&quot;665&quot;],[&quot;46&quot;,&quot;1471&quot;,&quot;1938&quot;,&quot;450&quot;],[&quot;47&quot;,&quot;1547&quot;,&quot;1714&quot;,&quot;338&quot;],[&quot;48&quot;,&quot;1992&quot;,&quot;1711&quot;,&quot;420&quot;],[&quot;49&quot;,&quot;2217&quot;,&quot;1595&quot;,&quot;670&quot;],[&quot;50&quot;,&quot;1765&quot;,&quot;1480&quot;,&quot;339&quot;],[&quot;51&quot;,&quot;2463&quot;,&quot;1443&quot;,&quot;203&quot;],[&quot;52&quot;,&quot;4130&quot;,&quot;1305&quot;,&quot;576&quot;],[&quot;52&quot;,&quot;3338&quot;,&quot;1357&quot;,&quot;260&quot;],[&quot;01&quot;,&quot;990&quot;,&quot;611&quot;,&quot;531&quot;],[&quot;02&quot;,&quot;318&quot;,&quot;513&quot;,&quot;396&quot;],[&quot;03&quot;,&quot;1367&quot;,&quot;1401&quot;,&quot;1022&quot;],[&quot;04&quot;,&quot;1143&quot;,&quot;1270&quot;,&quot;493&quot;],[&quot;05&quot;,&quot;620&quot;,&quot;985&quot;,&quot;211&quot;],[&quot;06&quot;,&quot;453&quot;,&quot;131&quot;,&quot;28&quot;],[&quot;08&quot;,&quot;449&quot;,&quot;547&quot;,&quot;908&quot;],[&quot;09&quot;,&quot;1083&quot;,&quot;1000&quot;,&quot;775&quot;],[&quot;10&quot;,&quot;537&quot;,&quot;1303&quot;,&quot;810&quot;],[&quot;11&quot;,&quot;761&quot;,&quot;1489&quot;,&quot;951&quot;],[&quot;12&quot;,&quot;1518&quot;,&quot;1910&quot;,&quot;1035&quot;],[&quot;13&quot;,&quot;3513&quot;,&quot;2129&quot;,&quot;767&quot;],[&quot;14&quot;,&quot;413&quot;,&quot;565&quot;,&quot;499&quot;],[&quot;15&quot;,&quot;1110&quot;,&quot;2152&quot;,&quot;597&quot;],[&quot;16&quot;,&quot;1266&quot;,&quot;1881&quot;,&quot;595&quot;],[&quot;17&quot;,&quot;909&quot;,&quot;1314&quot;,&quot;628&quot;],[&quot;18&quot;,&quot;747&quot;,&quot;406&quot;,&quot;517&quot;],[&quot;19&quot;,&quot;1044&quot;,&quot;1456&quot;,&quot;805&quot;]]],&quot;dataType&quot;:&quot;cross-table&quot;,&quot;download&quot;:false,&quot;srcType&quot;:&quot;local&quot;,&quot;url&quot;:&quot;&quot;},&quot;function_type&quot;:[&quot;折线图&quot;],&quot;gif&quot;:&quot;//web.docer.wpscdn.cn/docer/ds-page/v2/images/5948734748594536789.gif?imageView2/2/w/500/quality/90&quot;,&quot;isFree&quot;:&quot;0&quot;,&quot;label&quot;:&quot;&lt;d-smoothline-chart&gt;&quot;,&quot;position&quot;:{&quot;left&quot;:0,&quot;top&quot;:0},&quot;projectId&quot;:&quot;5948734748594536789&quot;,&quot;props&quot;:{&quot;animation&quot;:{&quot;duration&quot;:&quot;1.8&quot;,&quot;easeStyle&quot;:&quot;&quot;,&quot;endPause&quot;:&quot;1&quot;,&quot;moveOptions&quot;:[&quot;依次绘制&quot;,&quot;同时绘制&quot;,&quot;穿针引线&quot;],&quot;moveStyle&quot;:&quot;依次绘制&quot;,&quot;startDelay&quot;:&quot;0&quot;,&quot;transition&quot;:true},&quot;axis&quot;:{&quot;grid&quot;:{&quot;color&quot;:&quot;#e9e9e9&quot;,&quot;gridLineWidth&quot;:&quot;1&quot;,&quot;lineStyle&quot;:&quot;dashline&quot;,&quot;show&quot;:&quot;x&quot;},&quot;x&quot;:{&quot;axisColor&quot;:&quot;#bfbfbf&quot;,&quot;axisLineWidth&quot;:&quot;1&quot;,&quot;axisShow&quot;:true,&quot;labelAngle&quot;:&quot;0&quot;,&quot;labelDirection&quot;:&quot;自动&quot;,&quot;labelDirectionOptions&quot;:[&quot;自动&quot;,&quot;横排&quot;,&quot;竖排&quot;],&quot;labelShow&quot;:true,&quot;name&quot;:&quot;&quot;},&quot;y&quot;:{&quot;axisColor&quot;:&quot;#bfbfbf&quot;,&quot;axisLineWidth&quot;:&quot;1&quot;,&quot;axisShow&quot;:false,&quot;labelShow&quot;:true,&quot;labelSuffix&quot;:&quot;&quot;,&quot;name&quot;:&quot;&quot;,&quot;range&quot;:[],&quot;stepOfLabel&quot;:null}},&quot;backgroundColor&quot;:&quot;&quot;,&quot;colors&quot;:{&quot;colorControlers&quot;:[&quot;multiple&quot;],&quot;list&quot;:[0,1,2],&quot;type&quot;:&quot;multiple&quot;},&quot;display&quot;:{&quot;endPointBorderColor&quot;:&quot;#FFFFFF&quot;,&quot;endPointBorderWidth&quot;:&quot;0&quot;,&quot;endPointFillColor&quot;:null,&quot;endPointRadius&quot;:&quot;0&quot;,&quot;lineWidth&quot;:&quot;2&quot;},&quot;font&quot;:{&quot;color&quot;:&quot;#545454&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;},&quot;label&quot;:{&quot;display&quot;:false,&quot;positionChoice&quot;:&quot;上面&quot;,&quot;positionOptions&quot;:[&quot;上面&quot;,&quot;下面&quot;],&quot;suffix&quot;:&quot;&quot;,&quot;textLabel&quot;:{&quot;color&quot;:&quot;#545454&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;}},&quot;legend&quot;:{&quot;color&quot;:[&quot;#545454&quot;],&quot;fontFamily&quot;:[&quot;黑体&quot;],&quot;fontSize&quot;:&quot;14&quot;,&quot;lineHeight&quot;:&quot;15&quot;,&quot;show&quot;:true,&quot;style&quot;:&quot;&quot;,&quot;styleOptions&quot;:[],&quot;xPosition&quot;:&quot;center&quot;,&quot;yPosition&quot;:&quot;bottom&quot;},&quot;logoDisplay&quot;:{&quot;bottomLineHeight&quot;:&quot;15&quot;,&quot;imgHeight&quot;:&quot;32&quot;,&quot;imgUrl&quot;:&quot;https://ss1.dydata.io/newchartLogo.png&quot;,&quot;show&quot;:true,&quot;topLineHeight&quot;:&quot;11&quot;},&quot;map&quot;:[[{&quot;allowType&quot;:[&quot;string&quot;],&quot;configurable&quot;:false,&quot;function&quot;:&quot;objCol&quot;,&quot;index&quot;:0,&quot;isLegend&quot;:false,&quot;name&quot;:&quot;X轴对象&quot;},{&quot;allowType&quot;:[&quot;number&quot;],&quot;configurable&quot;:true,&quot;function&quot;:&quot;vCol&quot;,&quot;index&quot;:1,&quot;isLegend&quot;:false,&quot;name&quot;:&quot;数值列&quot;},{&quot;allowType&quot;:[&quot;number&quot;],&quot;configurable&quot;:true,&quot;function&quot;:&quot;vCol&quot;,&quot;index&quot;:2,&quot;isLegend&quot;:false,&quot;name&quot;:&quot;数值列&quot;},{&quot;allowType&quot;:[&quot;number&quot;],&quot;configurable&quot;:true,&quot;function&quot;:&quot;vCol&quot;,&quot;index&quot;:3,&quot;isLegend&quot;:false,&quot;name&quot;:&quot;数值列&quot;}]],&quot;numberFormat&quot;:{&quot;decimalPlaces&quot;:null,&quot;style&quot;:&quot;1000.00&quot;},&quot;paddings&quot;:{&quot;bottom&quot;:&quot;33&quot;,&quot;chartBottom&quot;:&quot;5&quot;,&quot;left&quot;:&quot;24&quot;,&quot;right&quot;:&quot;24&quot;,&quot;top&quot;:&quot;24&quot;},&quot;publishDisplay&quot;:{&quot;color&quot;:&quot;#878787&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;,&quot;show&quot;:true,&quot;text&quot;:&quot;镝数出品&quot;},&quot;shadow&quot;:{&quot;display&quot;:false,&quot;shadowAngle&quot;:&quot;45&quot;,&quot;shadowBlur&quot;:&quot;5&quot;,&quot;shadowColor&quot;:&quot;#c6c6c6&quot;,&quot;shadowOpacity&quot;:&quot;100&quot;,&quot;shadowRadius&quot;:&quot;3&quot;},&quot;size&quot;:{&quot;height&quot;:635,&quot;ratio&quot;:null,&quot;rotate&quot;:0,&quot;width&quot;:1735.0000000000002},&quot;sourceDisplay&quot;:{&quot;color&quot;:&quot;#878787&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;,&quot;show&quot;:false,&quot;text&quot;:&quot;数据来源：示例数据&quot;,&quot;topLineHeight&quot;:&quot;15&quot;,&quot;xPosition&quot;:&quot;left&quot;,&quot;yPosition&quot;:&quot;bottom&quot;},&quot;titleDisplay&quot;:{&quot;color&quot;:&quot;#4c4c4c&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;36&quot;,&quot;lineHeight&quot;:&quot;10&quot;,&quot;show&quot;:false,&quot;text&quot;:&quot;2010-2016年一线城市房价变迁&quot;,&quot;totalHeight&quot;:&quot;39&quot;,&quot;xPosition&quot;:&quot;left&quot;,&quot;yPosition&quot;:&quot;top&quot;},&quot;tooltip&quot;:true,&quot;unitDisplay&quot;:{&quot;bottomLineHeight&quot;:&quot;15&quot;,&quot;color&quot;:&quot;#878787&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;,&quot;show&quot;:false,&quot;text&quot;:&quot;单位：元&quot;,&quot;xPosition&quot;:&quot;left&quot;,&quot;yPosition&quot;:&quot;top&quot;},&quot;watermarkDisplay&quot;:{&quot;imgHeight&quot;:&quot;80&quot;,&quot;imgUrl&quot;:&quot;https://ss1.dydata.io/newchartWatermark.png&quot;,&quot;imgWidth&quot;:&quot;80&quot;,&quot;show&quot;:false}},&quot;templateId&quot;:&quot;5948734748594536789&quot;,&quot;templateSwitch&quot;:&quot;cross&quot;,&quot;theme&quot;:{&quot;axis&quot;:{&quot;color&quot;:&quot;#a1a1a1&quot;},&quot;backgroundColor&quot;:&quot;#FFFFFF&quot;,&quot;colors&quot;:[&quot;#5AAEF3&quot;,&quot;#62D9AD&quot;,&quot;#5B6E96&quot;,&quot;#a8dffa&quot;,&quot;#ffdc4c&quot;,&quot;#FF974C&quot;,&quot;#E65A56&quot;,&quot;#6D61E4&quot;,&quot;#4A6FE2&quot;,&quot;#6D9AE7&quot;,&quot;#23C2DB&quot;,&quot;#D4EC59&quot;,&quot;#FFE88E&quot;,&quot;#FEB64D&quot;,&quot;#FB6E6C&quot;],&quot;fonts&quot;:{&quot;accessoryColor&quot;:&quot;#878787&quot;,&quot;color&quot;:&quot;#545454&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;},&quot;grid&quot;:{&quot;color&quot;:&quot;#ccc&quot;},&quot;name&quot;:&quot;默认主题&quot;,&quot;price&quot;:&quot;0.0&quot;,&quot;shapeColor&quot;:1,&quot;themeId&quot;:&quot;18&quot;,&quot;titleFont&quot;:{&quot;color&quot;:&quot;#4c4c4c&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;36&quot;}},&quot;thumb&quot;:&quot;//web.docer.wpscdn.cn/docer/ds-page/v2/images/smoothline.4DBEA3F2.jpg?imageView2/2/w/500/quality/90&quot;,&quot;title&quot;:&quot;曲线折线图&quot;,&quot;type&quot;:&quot;chart&quot;},&quot;dschart_id&quot;:&quot;5948734748594536789&quot;,&quot;flag&quot;:&quot;1002&quot;,&quot;id&quot;:&quot;48&quot;}"/>
+    <wpswe:property key="dschart" value="{&quot;dschart_data&quot;:{&quot;blockId&quot;:&quot;161243067189875081&quot;,&quot;chart_type&quot;:&quot;线形图&quot;,&quot;classifty_type&quot;:[&quot;趋势类&quot;],&quot;dataSrc&quot;:{&quot;data&quot;:[[[&quot;第周&quot;,&quot;新房成交&quot;,&quot;二手房成交&quot;,&quot;涨价房源&quot;],[&quot;40&quot;,&quot;4665&quot;,&quot;1177&quot;,&quot;180&quot;],[&quot;41&quot;,&quot;662&quot;,&quot;404&quot;,&quot;130&quot;],[&quot;42&quot;,&quot;2162&quot;,&quot;1294&quot;,&quot;214&quot;],[&quot;43&quot;,&quot;2285&quot;,&quot;1195&quot;,&quot;170&quot;],[&quot;44&quot;,&quot;3768&quot;,&quot;1204&quot;,&quot;210&quot;],[&quot;45&quot;,&quot;2916&quot;,&quot;1188&quot;,&quot;213&quot;],[&quot;46&quot;,&quot;2079&quot;,&quot;1145&quot;,&quot;248&quot;],[&quot;47&quot;,&quot;2510&quot;,&quot;1155&quot;,&quot;289&quot;],[&quot;48&quot;,&quot;2382&quot;,&quot;1388&quot;,&quot;313&quot;],[&quot;49&quot;,&quot;3044&quot;,&quot;1350&quot;,&quot;409&quot;],[&quot;50&quot;,&quot;2282&quot;,&quot;1243&quot;,&quot;355&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;52&quot;,&quot;1721&quot;,&quot;1228&quot;,&quot;286&quot;],[&quot;53&quot;,&quot;1721&quot;,&quot;1228&quot;,&quot;286&quot;],[&quot;02&quot;,&quot;1721&quot;,&quot;1228&quot;,&quot;286&quot;],[&quot;03&quot;,&quot;3939&quot;,&quot;1112&quot;,&quot;247&quot;],[&quot;04&quot;,&quot;1575&quot;,&quot;292&quot;,&quot;92&quot;],[&quot;05&quot;,&quot;348&quot;,&quot;108&quot;,&quot;73&quot;],[&quot;06&quot;,&quot;1591&quot;,&quot;921&quot;,&quot;735&quot;],[&quot;07&quot;,&quot;2031&quot;,&quot;1283&quot;,&quot;737&quot;],[&quot;08&quot;,&quot;1999&quot;,&quot;1740&quot;,&quot;959&quot;],[&quot;09&quot;,&quot;3065&quot;,&quot;2421&quot;,&quot;901&quot;],[&quot;10&quot;,&quot;2650&quot;,&quot;2449&quot;,&quot;1029&quot;],[&quot;11&quot;,&quot;2694&quot;,&quot;2436&quot;,&quot;733&quot;],[&quot;12&quot;,&quot;2643&quot;,&quot;2336&quot;,&quot;573&quot;],[&quot;13&quot;,&quot;2649&quot;,&quot;2248&quot;,&quot;480&quot;],[&quot;14&quot;,&quot;3091&quot;,&quot;2040&quot;,&quot;2174&quot;],[&quot;15&quot;,&quot;3497&quot;,&quot;1474&quot;,&quot;1491&quot;],[&quot;16&quot;,&quot;3227&quot;,&quot;2008&quot;,&quot;1071&quot;],[&quot;17&quot;,&quot;2732&quot;,&quot;1920&quot;,&quot;798&quot;],[&quot;18&quot;,&quot;2359&quot;,&quot;1352&quot;,&quot;787&quot;],[&quot;19&quot;,&quot;1773&quot;,&quot;884&quot;,&quot;563&quot;],[&quot;22&quot;,&quot;2293&quot;,&quot;2375&quot;,&quot;2582&quot;],[&quot;24&quot;,&quot;1774&quot;,&quot;1041&quot;,&quot;2587&quot;],[&quot;25&quot;,&quot;1561&quot;,&quot;1022&quot;,&quot;2408&quot;],[&quot;26&quot;,&quot;1524&quot;,&quot;927&quot;,&quot;1499&quot;],[&quot;28&quot;,&quot;1323&quot;,&quot;835&quot;,&quot;2194&quot;],[&quot;29&quot;,&quot;1369&quot;,&quot;1041&quot;,&quot;363&quot;],[&quot;30&quot;,&quot;1117&quot;,&quot;994&quot;,&quot;253&quot;],[&quot;31&quot;,&quot;1795&quot;,&quot;1035&quot;,&quot;238&quot;],[&quot;33&quot;,&quot;847&quot;,&quot;999&quot;,&quot;275&quot;],[&quot;34&quot;,&quot;789&quot;,&quot;1077&quot;,&quot;289&quot;],[&quot;35&quot;,&quot;1857&quot;,&quot;1116&quot;,&quot;228&quot;],[&quot;36&quot;,&quot;2774&quot;,&quot;905&quot;,&quot;290&quot;],[&quot;37&quot;,&quot;1113&quot;,&quot;938&quot;,&quot;378&quot;],[&quot;38&quot;,&quot;1548&quot;,&quot;1098&quot;,&quot;465&quot;],[&quot;39&quot;,&quot;1773&quot;,&quot;902&quot;,&quot;299&quot;],[&quot;41&quot;,&quot;513&quot;,&quot;382&quot;,&quot;177&quot;],[&quot;42&quot;,&quot;962&quot;,&quot;1240&quot;,&quot;236&quot;],[&quot;43&quot;,&quot;1162&quot;,&quot;1329&quot;,&quot;622&quot;],[&quot;44&quot;,&quot;2509&quot;,&quot;2037&quot;,&quot;476&quot;],[&quot;45&quot;,&quot;2960&quot;,&quot;1963&quot;,&quot;665&quot;],[&quot;46&quot;,&quot;1471&quot;,&quot;1938&quot;,&quot;450&quot;],[&quot;47&quot;,&quot;1547&quot;,&quot;1714&quot;,&quot;338&quot;],[&quot;48&quot;,&quot;1992&quot;,&quot;1711&quot;,&quot;420&quot;],[&quot;49&quot;,&quot;2217&quot;,&quot;1595&quot;,&quot;670&quot;],[&quot;50&quot;,&quot;1765&quot;,&quot;1480&quot;,&quot;339&quot;],[&quot;51&quot;,&quot;2463&quot;,&quot;1443&quot;,&quot;203&quot;],[&quot;52&quot;,&quot;4130&quot;,&quot;1305&quot;,&quot;576&quot;],[&quot;52&quot;,&quot;3338&quot;,&quot;1357&quot;,&quot;260&quot;],[&quot;01&quot;,&quot;990&quot;,&quot;611&quot;,&quot;531&quot;],[&quot;02&quot;,&quot;318&quot;,&quot;513&quot;,&quot;396&quot;],[&quot;03&quot;,&quot;1367&quot;,&quot;1401&quot;,&quot;1022&quot;],[&quot;04&quot;,&quot;1143&quot;,&quot;1270&quot;,&quot;493&quot;],[&quot;05&quot;,&quot;620&quot;,&quot;985&quot;,&quot;211&quot;],[&quot;06&quot;,&quot;453&quot;,&quot;131&quot;,&quot;28&quot;],[&quot;08&quot;,&quot;449&quot;,&quot;547&quot;,&quot;908&quot;],[&quot;09&quot;,&quot;1083&quot;,&quot;1000&quot;,&quot;775&quot;],[&quot;10&quot;,&quot;537&quot;,&quot;1303&quot;,&quot;810&quot;],[&quot;11&quot;,&quot;761&quot;,&quot;1489&quot;,&quot;951&quot;],[&quot;12&quot;,&quot;1518&quot;,&quot;1910&quot;,&quot;1035&quot;],[&quot;13&quot;,&quot;3513&quot;,&quot;2129&quot;,&quot;767&quot;],[&quot;14&quot;,&quot;413&quot;,&quot;565&quot;,&quot;499&quot;],[&quot;15&quot;,&quot;1110&quot;,&quot;2152&quot;,&quot;597&quot;],[&quot;16&quot;,&quot;1266&quot;,&quot;1881&quot;,&quot;595&quot;],[&quot;17&quot;,&quot;909&quot;,&quot;1314&quot;,&quot;628&quot;],[&quot;18&quot;,&quot;747&quot;,&quot;406&quot;,&quot;517&quot;],[&quot;19&quot;,&quot;1044&quot;,&quot;1456&quot;,&quot;805&quot;],[&quot;20&quot;,&quot;1161&quot;,&quot;1836&quot;,&quot;987&quot;],[&quot;21&quot;,&quot;1502&quot;,&quot;1606&quot;,&quot;862&quot;]]],&quot;dataType&quot;:&quot;cross-table&quot;,&quot;download&quot;:false,&quot;srcType&quot;:&quot;local&quot;,&quot;url&quot;:&quot;&quot;},&quot;function_type&quot;:[&quot;折线图&quot;],&quot;gif&quot;:&quot;//web.docer.wpscdn.cn/docer/ds-page/v2/images/5948734748594536789.gif?imageView2/2/w/500/quality/90&quot;,&quot;isFree&quot;:&quot;0&quot;,&quot;label&quot;:&quot;&lt;d-smoothline-chart&gt;&quot;,&quot;position&quot;:{&quot;left&quot;:0,&quot;top&quot;:0},&quot;projectId&quot;:&quot;5948734748594536789&quot;,&quot;props&quot;:{&quot;animation&quot;:{&quot;duration&quot;:&quot;1.8&quot;,&quot;easeStyle&quot;:&quot;&quot;,&quot;endPause&quot;:&quot;1&quot;,&quot;moveOptions&quot;:[&quot;依次绘制&quot;,&quot;同时绘制&quot;,&quot;穿针引线&quot;],&quot;moveStyle&quot;:&quot;依次绘制&quot;,&quot;startDelay&quot;:&quot;0&quot;,&quot;transition&quot;:true},&quot;axis&quot;:{&quot;grid&quot;:{&quot;color&quot;:&quot;#e9e9e9&quot;,&quot;gridLineWidth&quot;:&quot;1&quot;,&quot;lineStyle&quot;:&quot;dashline&quot;,&quot;show&quot;:&quot;x&quot;},&quot;x&quot;:{&quot;axisColor&quot;:&quot;#bfbfbf&quot;,&quot;axisLineWidth&quot;:&quot;1&quot;,&quot;axisShow&quot;:true,&quot;labelAngle&quot;:&quot;0&quot;,&quot;labelDirection&quot;:&quot;自动&quot;,&quot;labelDirectionOptions&quot;:[&quot;自动&quot;,&quot;横排&quot;,&quot;竖排&quot;],&quot;labelShow&quot;:true,&quot;name&quot;:&quot;&quot;},&quot;y&quot;:{&quot;axisColor&quot;:&quot;#bfbfbf&quot;,&quot;axisLineWidth&quot;:&quot;1&quot;,&quot;axisShow&quot;:false,&quot;labelShow&quot;:true,&quot;labelSuffix&quot;:&quot;&quot;,&quot;name&quot;:&quot;&quot;,&quot;range&quot;:[],&quot;stepOfLabel&quot;:null}},&quot;backgroundColor&quot;:&quot;&quot;,&quot;colors&quot;:{&quot;colorControlers&quot;:[&quot;multiple&quot;],&quot;list&quot;:[0,1,2],&quot;type&quot;:&quot;multiple&quot;},&quot;display&quot;:{&quot;endPointBorderColor&quot;:&quot;#FFFFFF&quot;,&quot;endPointBorderWidth&quot;:&quot;0&quot;,&quot;endPointFillColor&quot;:null,&quot;endPointRadius&quot;:&quot;0&quot;,&quot;lineWidth&quot;:&quot;2&quot;},&quot;font&quot;:{&quot;color&quot;:&quot;#545454&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;},&quot;label&quot;:{&quot;display&quot;:false,&quot;positionChoice&quot;:&quot;上面&quot;,&quot;positionOptions&quot;:[&quot;上面&quot;,&quot;下面&quot;],&quot;suffix&quot;:&quot;&quot;,&quot;textLabel&quot;:{&quot;color&quot;:&quot;#545454&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;}},&quot;legend&quot;:{&quot;color&quot;:[&quot;#545454&quot;],&quot;fontFamily&quot;:[&quot;黑体&quot;],&quot;fontSize&quot;:&quot;14&quot;,&quot;lineHeight&quot;:&quot;15&quot;,&quot;show&quot;:true,&quot;style&quot;:&quot;&quot;,&quot;styleOptions&quot;:[],&quot;xPosition&quot;:&quot;center&quot;,&quot;yPosition&quot;:&quot;bottom&quot;},&quot;logoDisplay&quot;:{&quot;bottomLineHeight&quot;:&quot;15&quot;,&quot;imgHeight&quot;:&quot;32&quot;,&quot;imgUrl&quot;:&quot;https://ss1.dydata.io/newchartLogo.png&quot;,&quot;show&quot;:true,&quot;topLineHeight&quot;:&quot;11&quot;},&quot;map&quot;:[[{&quot;allowType&quot;:[&quot;string&quot;],&quot;configurable&quot;:false,&quot;function&quot;:&quot;objCol&quot;,&quot;index&quot;:0,&quot;isLegend&quot;:false,&quot;name&quot;:&quot;X轴对象&quot;},{&quot;allowType&quot;:[&quot;number&quot;],&quot;configurable&quot;:true,&quot;function&quot;:&quot;vCol&quot;,&quot;index&quot;:1,&quot;isLegend&quot;:false,&quot;name&quot;:&quot;数值列&quot;},{&quot;allowType&quot;:[&quot;number&quot;],&quot;configurable&quot;:true,&quot;function&quot;:&quot;vCol&quot;,&quot;index&quot;:2,&quot;isLegend&quot;:false,&quot;name&quot;:&quot;数值列&quot;},{&quot;allowType&quot;:[&quot;number&quot;],&quot;configurable&quot;:true,&quot;function&quot;:&quot;vCol&quot;,&quot;index&quot;:3,&quot;isLegend&quot;:false,&quot;name&quot;:&quot;数值列&quot;}]],&quot;numberFormat&quot;:{&quot;decimalPlaces&quot;:null,&quot;style&quot;:&quot;1000.00&quot;},&quot;paddings&quot;:{&quot;bottom&quot;:&quot;33&quot;,&quot;chartBottom&quot;:&quot;5&quot;,&quot;left&quot;:&quot;24&quot;,&quot;right&quot;:&quot;24&quot;,&quot;top&quot;:&quot;24&quot;},&quot;publishDisplay&quot;:{&quot;color&quot;:&quot;#878787&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;,&quot;show&quot;:true,&quot;text&quot;:&quot;镝数出品&quot;},&quot;shadow&quot;:{&quot;display&quot;:false,&quot;shadowAngle&quot;:&quot;45&quot;,&quot;shadowBlur&quot;:&quot;5&quot;,&quot;shadowColor&quot;:&quot;#c6c6c6&quot;,&quot;shadowOpacity&quot;:&quot;100&quot;,&quot;shadowRadius&quot;:&quot;3&quot;},&quot;size&quot;:{&quot;height&quot;:635,&quot;ratio&quot;:null,&quot;rotate&quot;:0,&quot;width&quot;:1735.0000000000002},&quot;sourceDisplay&quot;:{&quot;color&quot;:&quot;#878787&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;,&quot;show&quot;:false,&quot;text&quot;:&quot;数据来源：示例数据&quot;,&quot;topLineHeight&quot;:&quot;15&quot;,&quot;xPosition&quot;:&quot;left&quot;,&quot;yPosition&quot;:&quot;bottom&quot;},&quot;titleDisplay&quot;:{&quot;color&quot;:&quot;#4c4c4c&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;36&quot;,&quot;lineHeight&quot;:&quot;10&quot;,&quot;show&quot;:false,&quot;text&quot;:&quot;2010-2016年一线城市房价变迁&quot;,&quot;totalHeight&quot;:&quot;39&quot;,&quot;xPosition&quot;:&quot;left&quot;,&quot;yPosition&quot;:&quot;top&quot;},&quot;tooltip&quot;:true,&quot;unitDisplay&quot;:{&quot;bottomLineHeight&quot;:&quot;15&quot;,&quot;color&quot;:&quot;#878787&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;,&quot;show&quot;:false,&quot;text&quot;:&quot;单位：元&quot;,&quot;xPosition&quot;:&quot;left&quot;,&quot;yPosition&quot;:&quot;top&quot;},&quot;watermarkDisplay&quot;:{&quot;imgHeight&quot;:&quot;80&quot;,&quot;imgUrl&quot;:&quot;https://ss1.dydata.io/newchartWatermark.png&quot;,&quot;imgWidth&quot;:&quot;80&quot;,&quot;show&quot;:false}},&quot;templateId&quot;:&quot;5948734748594536789&quot;,&quot;templateSwitch&quot;:&quot;cross&quot;,&quot;theme&quot;:{&quot;axis&quot;:{&quot;color&quot;:&quot;#a1a1a1&quot;},&quot;backgroundColor&quot;:&quot;#FFFFFF&quot;,&quot;colors&quot;:[&quot;#5AAEF3&quot;,&quot;#62D9AD&quot;,&quot;#5B6E96&quot;,&quot;#a8dffa&quot;,&quot;#ffdc4c&quot;,&quot;#FF974C&quot;,&quot;#E65A56&quot;,&quot;#6D61E4&quot;,&quot;#4A6FE2&quot;,&quot;#6D9AE7&quot;,&quot;#23C2DB&quot;,&quot;#D4EC59&quot;,&quot;#FFE88E&quot;,&quot;#FEB64D&quot;,&quot;#FB6E6C&quot;],&quot;fonts&quot;:{&quot;accessoryColor&quot;:&quot;#878787&quot;,&quot;color&quot;:&quot;#545454&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;},&quot;grid&quot;:{&quot;color&quot;:&quot;#ccc&quot;},&quot;name&quot;:&quot;默认主题&quot;,&quot;price&quot;:&quot;0.0&quot;,&quot;shapeColor&quot;:1,&quot;themeId&quot;:&quot;18&quot;,&quot;titleFont&quot;:{&quot;color&quot;:&quot;#4c4c4c&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;36&quot;}},&quot;thumb&quot;:&quot;//web.docer.wpscdn.cn/docer/ds-page/v2/images/smoothline.4DBEA3F2.jpg?imageView2/2/w/500/quality/90&quot;,&quot;title&quot;:&quot;曲线折线图&quot;,&quot;type&quot;:&quot;chart&quot;},&quot;dschart_id&quot;:&quot;5948734748594536789&quot;,&quot;id&quot;:&quot;48&quot;}"/>
     <wpswe:property key="isUseCommonErrorPage" value="false"/>
     <wpswe:property key="loadingImage" value="res:/icons/DsWebShapeDefaultPage.svg"/>
   </wpswe:properties>
   <wpswe:watchingCache>
     <wpswe:dataRange>
       <wpswe:key>data_source</wpswe:key>
-      <wpswe:context>Sheet1!$B$1:$E$89</wpswe:context>
-      <wpswe:count>89</wpswe:count>
+      <wpswe:context>Sheet1!$B$1:$E$91</wpswe:context>
+      <wpswe:count>91</wpswe:count>
       <wpswe:cells wpswe:idx="0">
         <wpswe:count>4</wpswe:count>
         <wpswe:formatCode>General</wpswe:formatCode>
@@ -4638,6 +4670,38 @@
         </wpswe:cell>
         <wpswe:cell wpswe:idx="3">
           <wpswe:value>805</wpswe:value>
+        </wpswe:cell>
+      </wpswe:cells>
+      <wpswe:cells wpswe:idx="89">
+        <wpswe:count>4</wpswe:count>
+        <wpswe:formatCode>General</wpswe:formatCode>
+        <wpswe:cell wpswe:idx="0">
+          <wpswe:value>20</wpswe:value>
+        </wpswe:cell>
+        <wpswe:cell wpswe:idx="1">
+          <wpswe:value>1161</wpswe:value>
+        </wpswe:cell>
+        <wpswe:cell wpswe:idx="2">
+          <wpswe:value>1836</wpswe:value>
+        </wpswe:cell>
+        <wpswe:cell wpswe:idx="3">
+          <wpswe:value>987</wpswe:value>
+        </wpswe:cell>
+      </wpswe:cells>
+      <wpswe:cells wpswe:idx="90">
+        <wpswe:count>4</wpswe:count>
+        <wpswe:formatCode>General</wpswe:formatCode>
+        <wpswe:cell wpswe:idx="0">
+          <wpswe:value>21</wpswe:value>
+        </wpswe:cell>
+        <wpswe:cell wpswe:idx="1">
+          <wpswe:value>1502</wpswe:value>
+        </wpswe:cell>
+        <wpswe:cell wpswe:idx="2">
+          <wpswe:value>1606</wpswe:value>
+        </wpswe:cell>
+        <wpswe:cell wpswe:idx="3">
+          <wpswe:value>862</wpswe:value>
         </wpswe:cell>
       </wpswe:cells>
     </wpswe:dataRange>
@@ -4770,10 +4834,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M89"/>
+  <dimension ref="A1:M91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="M74" sqref="M74"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="AF51" sqref="AF51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6380,6 +6444,40 @@
       </c>
       <c r="E89" s="2" t="s">
         <v>273</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="2">
+        <v>2024</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="2">
+        <v>2024</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -6405,21 +6503,21 @@
   <sheetData>
     <row r="1" spans="2:8">
       <c r="B1" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="C1" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="D1" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="H1" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="2:8">
       <c r="B2" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -6428,12 +6526,12 @@
         <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -6444,7 +6542,7 @@
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="C4">
         <v>5</v>

--- a/hz杭州成交周报.xlsx
+++ b/hz杭州成交周报.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="305">
   <si>
     <t>第年</t>
   </si>
@@ -36,868 +36,913 @@
     <t>第周</t>
   </si>
   <si>
+    <t>新房成交量</t>
+  </si>
+  <si>
+    <t>二手房成交量</t>
+  </si>
+  <si>
+    <t>涨价房源</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>4665</t>
+  </si>
+  <si>
+    <t>1177</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>662</t>
+  </si>
+  <si>
+    <t>404</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>2162</t>
+  </si>
+  <si>
+    <t>1294</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>2285</t>
+  </si>
+  <si>
+    <t>1195</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>3768</t>
+  </si>
+  <si>
+    <t>1204</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>2916</t>
+  </si>
+  <si>
+    <t>1188</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>2079</t>
+  </si>
+  <si>
+    <t>1145</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>2510</t>
+  </si>
+  <si>
+    <t>1155</t>
+  </si>
+  <si>
+    <t>289</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>2382</t>
+  </si>
+  <si>
+    <t>1388</t>
+  </si>
+  <si>
+    <t>313</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>3044</t>
+  </si>
+  <si>
+    <t>1350</t>
+  </si>
+  <si>
+    <t>409</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>2282</t>
+  </si>
+  <si>
+    <t>1243</t>
+  </si>
+  <si>
+    <t>355</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>2266</t>
+  </si>
+  <si>
+    <t>2115</t>
+  </si>
+  <si>
+    <t>375</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>1721</t>
+  </si>
+  <si>
+    <t>1228</t>
+  </si>
+  <si>
+    <t>286</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>3939</t>
+  </si>
+  <si>
+    <t>1112</t>
+  </si>
+  <si>
+    <t>247</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>1575</t>
+  </si>
+  <si>
+    <t>292</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>348</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>1591</t>
+  </si>
+  <si>
+    <t>921</t>
+  </si>
+  <si>
+    <t>735</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>2031</t>
+  </si>
+  <si>
+    <t>1283</t>
+  </si>
+  <si>
+    <t>737</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>1740</t>
+  </si>
+  <si>
+    <t>959</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>3065</t>
+  </si>
+  <si>
+    <t>2421</t>
+  </si>
+  <si>
+    <t>901</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2650</t>
+  </si>
+  <si>
+    <t>2449</t>
+  </si>
+  <si>
+    <t>1029</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2694</t>
+  </si>
+  <si>
+    <t>2436</t>
+  </si>
+  <si>
+    <t>733</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>2643</t>
+  </si>
+  <si>
+    <t>2336</t>
+  </si>
+  <si>
+    <t>573</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>2649</t>
+  </si>
+  <si>
+    <t>2248</t>
+  </si>
+  <si>
+    <t>480</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>3091</t>
+  </si>
+  <si>
+    <t>2040</t>
+  </si>
+  <si>
+    <t>2174</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>3497</t>
+  </si>
+  <si>
+    <t>1474</t>
+  </si>
+  <si>
+    <t>1491</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>3227</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>1071</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>2732</t>
+  </si>
+  <si>
+    <t>1920</t>
+  </si>
+  <si>
+    <t>798</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>2359</t>
+  </si>
+  <si>
+    <t>1352</t>
+  </si>
+  <si>
+    <t>787</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>1773</t>
+  </si>
+  <si>
+    <t>884</t>
+  </si>
+  <si>
+    <t>563</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>2293</t>
+  </si>
+  <si>
+    <t>2375</t>
+  </si>
+  <si>
+    <t>2582</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>1774</t>
+  </si>
+  <si>
+    <t>1041</t>
+  </si>
+  <si>
+    <t>2587</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>1561</t>
+  </si>
+  <si>
+    <t>1022</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>1524</t>
+  </si>
+  <si>
+    <t>927</t>
+  </si>
+  <si>
+    <t>1499</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>1323</t>
+  </si>
+  <si>
+    <t>835</t>
+  </si>
+  <si>
+    <t>2194</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>1369</t>
+  </si>
+  <si>
+    <t>363</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>1117</t>
+  </si>
+  <si>
+    <t>994</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>1795</t>
+  </si>
+  <si>
+    <t>1035</t>
+  </si>
+  <si>
+    <t>238</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>847</t>
+  </si>
+  <si>
+    <t>999</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>789</t>
+  </si>
+  <si>
+    <t>1077</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>1857</t>
+  </si>
+  <si>
+    <t>1116</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>2774</t>
+  </si>
+  <si>
+    <t>905</t>
+  </si>
+  <si>
+    <t>290</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>1113</t>
+  </si>
+  <si>
+    <t>938</t>
+  </si>
+  <si>
+    <t>378</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>1548</t>
+  </si>
+  <si>
+    <t>1098</t>
+  </si>
+  <si>
+    <t>465</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>902</t>
+  </si>
+  <si>
+    <t>299</t>
+  </si>
+  <si>
+    <t>513</t>
+  </si>
+  <si>
+    <t>382</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>962</t>
+  </si>
+  <si>
+    <t>1240</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>1162</t>
+  </si>
+  <si>
+    <t>1329</t>
+  </si>
+  <si>
+    <t>622</t>
+  </si>
+  <si>
+    <t>2509</t>
+  </si>
+  <si>
+    <t>2037</t>
+  </si>
+  <si>
+    <t>476</t>
+  </si>
+  <si>
+    <t>2960</t>
+  </si>
+  <si>
+    <t>1963</t>
+  </si>
+  <si>
+    <t>665</t>
+  </si>
+  <si>
+    <t>1471</t>
+  </si>
+  <si>
+    <t>1938</t>
+  </si>
+  <si>
+    <t>450</t>
+  </si>
+  <si>
+    <t>1547</t>
+  </si>
+  <si>
+    <t>1714</t>
+  </si>
+  <si>
+    <t>338</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>420</t>
+  </si>
+  <si>
+    <t>2217</t>
+  </si>
+  <si>
+    <t>1595</t>
+  </si>
+  <si>
+    <t>670</t>
+  </si>
+  <si>
+    <t>1765</t>
+  </si>
+  <si>
+    <t>1480</t>
+  </si>
+  <si>
+    <t>339</t>
+  </si>
+  <si>
+    <t>2463</t>
+  </si>
+  <si>
+    <t>1443</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>4130</t>
+  </si>
+  <si>
+    <t>1305</t>
+  </si>
+  <si>
+    <t>576</t>
+  </si>
+  <si>
+    <t>3338</t>
+  </si>
+  <si>
+    <t>1357</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>990</t>
+  </si>
+  <si>
+    <t>611</t>
+  </si>
+  <si>
+    <t>531</t>
+  </si>
+  <si>
+    <t>318</t>
+  </si>
+  <si>
+    <t>396</t>
+  </si>
+  <si>
+    <t>1367</t>
+  </si>
+  <si>
+    <t>1401</t>
+  </si>
+  <si>
+    <t>1143</t>
+  </si>
+  <si>
+    <t>1270</t>
+  </si>
+  <si>
+    <t>493</t>
+  </si>
+  <si>
+    <t>620</t>
+  </si>
+  <si>
+    <t>985</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>453</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>449</t>
+  </si>
+  <si>
+    <t>547</t>
+  </si>
+  <si>
+    <t>908</t>
+  </si>
+  <si>
+    <t>1083</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>775</t>
+  </si>
+  <si>
+    <t>537</t>
+  </si>
+  <si>
+    <t>1303</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>761</t>
+  </si>
+  <si>
+    <t>1489</t>
+  </si>
+  <si>
+    <t>951</t>
+  </si>
+  <si>
+    <t>1518</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>3513</t>
+  </si>
+  <si>
+    <t>2129</t>
+  </si>
+  <si>
+    <t>767</t>
+  </si>
+  <si>
+    <t>413</t>
+  </si>
+  <si>
+    <t>565</t>
+  </si>
+  <si>
+    <t>499</t>
+  </si>
+  <si>
+    <t>1110</t>
+  </si>
+  <si>
+    <t>2152</t>
+  </si>
+  <si>
+    <t>597</t>
+  </si>
+  <si>
+    <t>1266</t>
+  </si>
+  <si>
+    <t>1881</t>
+  </si>
+  <si>
+    <t>595</t>
+  </si>
+  <si>
+    <t>909</t>
+  </si>
+  <si>
+    <t>1314</t>
+  </si>
+  <si>
+    <t>628</t>
+  </si>
+  <si>
+    <t>747</t>
+  </si>
+  <si>
+    <t>406</t>
+  </si>
+  <si>
+    <t>517</t>
+  </si>
+  <si>
+    <t>1044</t>
+  </si>
+  <si>
+    <t>1456</t>
+  </si>
+  <si>
+    <t>805</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>1161</t>
+  </si>
+  <si>
+    <t>1836</t>
+  </si>
+  <si>
+    <t>987</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>1502</t>
+  </si>
+  <si>
+    <t>1606</t>
+  </si>
+  <si>
+    <t>862</t>
+  </si>
+  <si>
+    <t>2098</t>
+  </si>
+  <si>
+    <t>1889</t>
+  </si>
+  <si>
+    <t>712</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>1280</t>
+  </si>
+  <si>
+    <t>1780</t>
+  </si>
+  <si>
+    <t>777</t>
+  </si>
+  <si>
+    <t>1312</t>
+  </si>
+  <si>
+    <t>1604</t>
+  </si>
+  <si>
+    <t>673</t>
+  </si>
+  <si>
+    <t>1927</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>615</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>分数</t>
+  </si>
+  <si>
+    <t>年龄</t>
+  </si>
+  <si>
+    <t>竖行是系列</t>
+  </si>
+  <si>
+    <t>张三</t>
+  </si>
+  <si>
+    <t>横行是类别</t>
+  </si>
+  <si>
+    <t>李四</t>
+  </si>
+  <si>
+    <t>王五</t>
+  </si>
+  <si>
     <t>新房成交</t>
   </si>
   <si>
     <t>二手房成交</t>
-  </si>
-  <si>
-    <t>涨价房源</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>4665</t>
-  </si>
-  <si>
-    <t>1177</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>662</t>
-  </si>
-  <si>
-    <t>404</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>2162</t>
-  </si>
-  <si>
-    <t>1294</t>
-  </si>
-  <si>
-    <t>214</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>2285</t>
-  </si>
-  <si>
-    <t>1195</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>3768</t>
-  </si>
-  <si>
-    <t>1204</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>2916</t>
-  </si>
-  <si>
-    <t>1188</t>
-  </si>
-  <si>
-    <t>213</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>2079</t>
-  </si>
-  <si>
-    <t>1145</t>
-  </si>
-  <si>
-    <t>248</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>2510</t>
-  </si>
-  <si>
-    <t>1155</t>
-  </si>
-  <si>
-    <t>289</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>2382</t>
-  </si>
-  <si>
-    <t>1388</t>
-  </si>
-  <si>
-    <t>313</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>3044</t>
-  </si>
-  <si>
-    <t>1350</t>
-  </si>
-  <si>
-    <t>409</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>2282</t>
-  </si>
-  <si>
-    <t>1243</t>
-  </si>
-  <si>
-    <t>355</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>2266</t>
-  </si>
-  <si>
-    <t>2115</t>
-  </si>
-  <si>
-    <t>375</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>1721</t>
-  </si>
-  <si>
-    <t>1228</t>
-  </si>
-  <si>
-    <t>286</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>3939</t>
-  </si>
-  <si>
-    <t>1112</t>
-  </si>
-  <si>
-    <t>247</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>1575</t>
-  </si>
-  <si>
-    <t>292</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>348</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>1591</t>
-  </si>
-  <si>
-    <t>921</t>
-  </si>
-  <si>
-    <t>735</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>2031</t>
-  </si>
-  <si>
-    <t>1283</t>
-  </si>
-  <si>
-    <t>737</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>1740</t>
-  </si>
-  <si>
-    <t>959</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>3065</t>
-  </si>
-  <si>
-    <t>2421</t>
-  </si>
-  <si>
-    <t>901</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>2650</t>
-  </si>
-  <si>
-    <t>2449</t>
-  </si>
-  <si>
-    <t>1029</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>2694</t>
-  </si>
-  <si>
-    <t>2436</t>
-  </si>
-  <si>
-    <t>733</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>2643</t>
-  </si>
-  <si>
-    <t>2336</t>
-  </si>
-  <si>
-    <t>573</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>2649</t>
-  </si>
-  <si>
-    <t>2248</t>
-  </si>
-  <si>
-    <t>480</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>3091</t>
-  </si>
-  <si>
-    <t>2040</t>
-  </si>
-  <si>
-    <t>2174</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>3497</t>
-  </si>
-  <si>
-    <t>1474</t>
-  </si>
-  <si>
-    <t>1491</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>3227</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>1071</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>2732</t>
-  </si>
-  <si>
-    <t>1920</t>
-  </si>
-  <si>
-    <t>798</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>2359</t>
-  </si>
-  <si>
-    <t>1352</t>
-  </si>
-  <si>
-    <t>787</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>1773</t>
-  </si>
-  <si>
-    <t>884</t>
-  </si>
-  <si>
-    <t>563</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>2293</t>
-  </si>
-  <si>
-    <t>2375</t>
-  </si>
-  <si>
-    <t>2582</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>1774</t>
-  </si>
-  <si>
-    <t>1041</t>
-  </si>
-  <si>
-    <t>2587</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>1561</t>
-  </si>
-  <si>
-    <t>1022</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>1524</t>
-  </si>
-  <si>
-    <t>927</t>
-  </si>
-  <si>
-    <t>1499</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>1323</t>
-  </si>
-  <si>
-    <t>835</t>
-  </si>
-  <si>
-    <t>2194</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>1369</t>
-  </si>
-  <si>
-    <t>363</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>1117</t>
-  </si>
-  <si>
-    <t>994</t>
-  </si>
-  <si>
-    <t>253</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>1795</t>
-  </si>
-  <si>
-    <t>1035</t>
-  </si>
-  <si>
-    <t>238</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>847</t>
-  </si>
-  <si>
-    <t>999</t>
-  </si>
-  <si>
-    <t>275</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>789</t>
-  </si>
-  <si>
-    <t>1077</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>1857</t>
-  </si>
-  <si>
-    <t>1116</t>
-  </si>
-  <si>
-    <t>228</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>2774</t>
-  </si>
-  <si>
-    <t>905</t>
-  </si>
-  <si>
-    <t>290</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>1113</t>
-  </si>
-  <si>
-    <t>938</t>
-  </si>
-  <si>
-    <t>378</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>1548</t>
-  </si>
-  <si>
-    <t>1098</t>
-  </si>
-  <si>
-    <t>465</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>902</t>
-  </si>
-  <si>
-    <t>299</t>
-  </si>
-  <si>
-    <t>513</t>
-  </si>
-  <si>
-    <t>382</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>962</t>
-  </si>
-  <si>
-    <t>1240</t>
-  </si>
-  <si>
-    <t>236</t>
-  </si>
-  <si>
-    <t>1162</t>
-  </si>
-  <si>
-    <t>1329</t>
-  </si>
-  <si>
-    <t>622</t>
-  </si>
-  <si>
-    <t>2509</t>
-  </si>
-  <si>
-    <t>2037</t>
-  </si>
-  <si>
-    <t>476</t>
-  </si>
-  <si>
-    <t>2960</t>
-  </si>
-  <si>
-    <t>1963</t>
-  </si>
-  <si>
-    <t>665</t>
-  </si>
-  <si>
-    <t>1471</t>
-  </si>
-  <si>
-    <t>1938</t>
-  </si>
-  <si>
-    <t>450</t>
-  </si>
-  <si>
-    <t>1547</t>
-  </si>
-  <si>
-    <t>1714</t>
-  </si>
-  <si>
-    <t>338</t>
-  </si>
-  <si>
-    <t>1992</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>420</t>
-  </si>
-  <si>
-    <t>2217</t>
-  </si>
-  <si>
-    <t>1595</t>
-  </si>
-  <si>
-    <t>670</t>
-  </si>
-  <si>
-    <t>1765</t>
-  </si>
-  <si>
-    <t>1480</t>
-  </si>
-  <si>
-    <t>339</t>
-  </si>
-  <si>
-    <t>2463</t>
-  </si>
-  <si>
-    <t>1443</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>4130</t>
-  </si>
-  <si>
-    <t>1305</t>
-  </si>
-  <si>
-    <t>576</t>
-  </si>
-  <si>
-    <t>3338</t>
-  </si>
-  <si>
-    <t>1357</t>
-  </si>
-  <si>
-    <t>260</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>990</t>
-  </si>
-  <si>
-    <t>611</t>
-  </si>
-  <si>
-    <t>531</t>
-  </si>
-  <si>
-    <t>318</t>
-  </si>
-  <si>
-    <t>396</t>
-  </si>
-  <si>
-    <t>1367</t>
-  </si>
-  <si>
-    <t>1401</t>
-  </si>
-  <si>
-    <t>1143</t>
-  </si>
-  <si>
-    <t>1270</t>
-  </si>
-  <si>
-    <t>493</t>
-  </si>
-  <si>
-    <t>620</t>
-  </si>
-  <si>
-    <t>985</t>
-  </si>
-  <si>
-    <t>211</t>
-  </si>
-  <si>
-    <t>453</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>449</t>
-  </si>
-  <si>
-    <t>547</t>
-  </si>
-  <si>
-    <t>908</t>
-  </si>
-  <si>
-    <t>1083</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>775</t>
-  </si>
-  <si>
-    <t>537</t>
-  </si>
-  <si>
-    <t>1303</t>
-  </si>
-  <si>
-    <t>810</t>
-  </si>
-  <si>
-    <t>761</t>
-  </si>
-  <si>
-    <t>1489</t>
-  </si>
-  <si>
-    <t>951</t>
-  </si>
-  <si>
-    <t>1518</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>3513</t>
-  </si>
-  <si>
-    <t>2129</t>
-  </si>
-  <si>
-    <t>767</t>
-  </si>
-  <si>
-    <t>413</t>
-  </si>
-  <si>
-    <t>565</t>
-  </si>
-  <si>
-    <t>499</t>
-  </si>
-  <si>
-    <t>1110</t>
-  </si>
-  <si>
-    <t>2152</t>
-  </si>
-  <si>
-    <t>597</t>
-  </si>
-  <si>
-    <t>1266</t>
-  </si>
-  <si>
-    <t>1881</t>
-  </si>
-  <si>
-    <t>595</t>
-  </si>
-  <si>
-    <t>909</t>
-  </si>
-  <si>
-    <t>1314</t>
-  </si>
-  <si>
-    <t>628</t>
-  </si>
-  <si>
-    <t>747</t>
-  </si>
-  <si>
-    <t>406</t>
-  </si>
-  <si>
-    <t>517</t>
-  </si>
-  <si>
-    <t>1044</t>
-  </si>
-  <si>
-    <t>1456</t>
-  </si>
-  <si>
-    <t>805</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>1161</t>
-  </si>
-  <si>
-    <t>1836</t>
-  </si>
-  <si>
-    <t>987</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>1502</t>
-  </si>
-  <si>
-    <t>1606</t>
-  </si>
-  <si>
-    <t>862</t>
-  </si>
-  <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>分数</t>
-  </si>
-  <si>
-    <t>年龄</t>
-  </si>
-  <si>
-    <t>竖行是系列</t>
-  </si>
-  <si>
-    <t>张三</t>
-  </si>
-  <si>
-    <t>横行是类别</t>
-  </si>
-  <si>
-    <t>李四</t>
-  </si>
-  <si>
-    <t>王五</t>
   </si>
 </sst>
 </file>
@@ -1549,13 +1594,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -2594,15 +2640,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>292735</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:colOff>6985</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>354965</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>154940</xdr:rowOff>
+      <xdr:colOff>69215</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>59690</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2617,7 +2663,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3721735" y="6108700"/>
+          <a:off x="3435985" y="698500"/>
           <a:ext cx="16521430" cy="6047740"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3239,15 +3285,16 @@
   <wpswe:properties>
     <wpswe:property key="DiscardFirstCodeChange" value="0"/>
     <wpswe:property key="autoSnapshot" value="0"/>
-    <wpswe:property key="dschart" value="{&quot;dschart_data&quot;:{&quot;blockId&quot;:&quot;161243067189875081&quot;,&quot;chart_type&quot;:&quot;线形图&quot;,&quot;classifty_type&quot;:[&quot;趋势类&quot;],&quot;dataSrc&quot;:{&quot;data&quot;:[[[&quot;第周&quot;,&quot;新房成交&quot;,&quot;二手房成交&quot;,&quot;涨价房源&quot;],[&quot;40&quot;,&quot;4665&quot;,&quot;1177&quot;,&quot;180&quot;],[&quot;41&quot;,&quot;662&quot;,&quot;404&quot;,&quot;130&quot;],[&quot;42&quot;,&quot;2162&quot;,&quot;1294&quot;,&quot;214&quot;],[&quot;43&quot;,&quot;2285&quot;,&quot;1195&quot;,&quot;170&quot;],[&quot;44&quot;,&quot;3768&quot;,&quot;1204&quot;,&quot;210&quot;],[&quot;45&quot;,&quot;2916&quot;,&quot;1188&quot;,&quot;213&quot;],[&quot;46&quot;,&quot;2079&quot;,&quot;1145&quot;,&quot;248&quot;],[&quot;47&quot;,&quot;2510&quot;,&quot;1155&quot;,&quot;289&quot;],[&quot;48&quot;,&quot;2382&quot;,&quot;1388&quot;,&quot;313&quot;],[&quot;49&quot;,&quot;3044&quot;,&quot;1350&quot;,&quot;409&quot;],[&quot;50&quot;,&quot;2282&quot;,&quot;1243&quot;,&quot;355&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;52&quot;,&quot;1721&quot;,&quot;1228&quot;,&quot;286&quot;],[&quot;53&quot;,&quot;1721&quot;,&quot;1228&quot;,&quot;286&quot;],[&quot;02&quot;,&quot;1721&quot;,&quot;1228&quot;,&quot;286&quot;],[&quot;03&quot;,&quot;3939&quot;,&quot;1112&quot;,&quot;247&quot;],[&quot;04&quot;,&quot;1575&quot;,&quot;292&quot;,&quot;92&quot;],[&quot;05&quot;,&quot;348&quot;,&quot;108&quot;,&quot;73&quot;],[&quot;06&quot;,&quot;1591&quot;,&quot;921&quot;,&quot;735&quot;],[&quot;07&quot;,&quot;2031&quot;,&quot;1283&quot;,&quot;737&quot;],[&quot;08&quot;,&quot;1999&quot;,&quot;1740&quot;,&quot;959&quot;],[&quot;09&quot;,&quot;3065&quot;,&quot;2421&quot;,&quot;901&quot;],[&quot;10&quot;,&quot;2650&quot;,&quot;2449&quot;,&quot;1029&quot;],[&quot;11&quot;,&quot;2694&quot;,&quot;2436&quot;,&quot;733&quot;],[&quot;12&quot;,&quot;2643&quot;,&quot;2336&quot;,&quot;573&quot;],[&quot;13&quot;,&quot;2649&quot;,&quot;2248&quot;,&quot;480&quot;],[&quot;14&quot;,&quot;3091&quot;,&quot;2040&quot;,&quot;2174&quot;],[&quot;15&quot;,&quot;3497&quot;,&quot;1474&quot;,&quot;1491&quot;],[&quot;16&quot;,&quot;3227&quot;,&quot;2008&quot;,&quot;1071&quot;],[&quot;17&quot;,&quot;2732&quot;,&quot;1920&quot;,&quot;798&quot;],[&quot;18&quot;,&quot;2359&quot;,&quot;1352&quot;,&quot;787&quot;],[&quot;19&quot;,&quot;1773&quot;,&quot;884&quot;,&quot;563&quot;],[&quot;22&quot;,&quot;2293&quot;,&quot;2375&quot;,&quot;2582&quot;],[&quot;24&quot;,&quot;1774&quot;,&quot;1041&quot;,&quot;2587&quot;],[&quot;25&quot;,&quot;1561&quot;,&quot;1022&quot;,&quot;2408&quot;],[&quot;26&quot;,&quot;1524&quot;,&quot;927&quot;,&quot;1499&quot;],[&quot;28&quot;,&quot;1323&quot;,&quot;835&quot;,&quot;2194&quot;],[&quot;29&quot;,&quot;1369&quot;,&quot;1041&quot;,&quot;363&quot;],[&quot;30&quot;,&quot;1117&quot;,&quot;994&quot;,&quot;253&quot;],[&quot;31&quot;,&quot;1795&quot;,&quot;1035&quot;,&quot;238&quot;],[&quot;33&quot;,&quot;847&quot;,&quot;999&quot;,&quot;275&quot;],[&quot;34&quot;,&quot;789&quot;,&quot;1077&quot;,&quot;289&quot;],[&quot;35&quot;,&quot;1857&quot;,&quot;1116&quot;,&quot;228&quot;],[&quot;36&quot;,&quot;2774&quot;,&quot;905&quot;,&quot;290&quot;],[&quot;37&quot;,&quot;1113&quot;,&quot;938&quot;,&quot;378&quot;],[&quot;38&quot;,&quot;1548&quot;,&quot;1098&quot;,&quot;465&quot;],[&quot;39&quot;,&quot;1773&quot;,&quot;902&quot;,&quot;299&quot;],[&quot;41&quot;,&quot;513&quot;,&quot;382&quot;,&quot;177&quot;],[&quot;42&quot;,&quot;962&quot;,&quot;1240&quot;,&quot;236&quot;],[&quot;43&quot;,&quot;1162&quot;,&quot;1329&quot;,&quot;622&quot;],[&quot;44&quot;,&quot;2509&quot;,&quot;2037&quot;,&quot;476&quot;],[&quot;45&quot;,&quot;2960&quot;,&quot;1963&quot;,&quot;665&quot;],[&quot;46&quot;,&quot;1471&quot;,&quot;1938&quot;,&quot;450&quot;],[&quot;47&quot;,&quot;1547&quot;,&quot;1714&quot;,&quot;338&quot;],[&quot;48&quot;,&quot;1992&quot;,&quot;1711&quot;,&quot;420&quot;],[&quot;49&quot;,&quot;2217&quot;,&quot;1595&quot;,&quot;670&quot;],[&quot;50&quot;,&quot;1765&quot;,&quot;1480&quot;,&quot;339&quot;],[&quot;51&quot;,&quot;2463&quot;,&quot;1443&quot;,&quot;203&quot;],[&quot;52&quot;,&quot;4130&quot;,&quot;1305&quot;,&quot;576&quot;],[&quot;52&quot;,&quot;3338&quot;,&quot;1357&quot;,&quot;260&quot;],[&quot;01&quot;,&quot;990&quot;,&quot;611&quot;,&quot;531&quot;],[&quot;02&quot;,&quot;318&quot;,&quot;513&quot;,&quot;396&quot;],[&quot;03&quot;,&quot;1367&quot;,&quot;1401&quot;,&quot;1022&quot;],[&quot;04&quot;,&quot;1143&quot;,&quot;1270&quot;,&quot;493&quot;],[&quot;05&quot;,&quot;620&quot;,&quot;985&quot;,&quot;211&quot;],[&quot;06&quot;,&quot;453&quot;,&quot;131&quot;,&quot;28&quot;],[&quot;08&quot;,&quot;449&quot;,&quot;547&quot;,&quot;908&quot;],[&quot;09&quot;,&quot;1083&quot;,&quot;1000&quot;,&quot;775&quot;],[&quot;10&quot;,&quot;537&quot;,&quot;1303&quot;,&quot;810&quot;],[&quot;11&quot;,&quot;761&quot;,&quot;1489&quot;,&quot;951&quot;],[&quot;12&quot;,&quot;1518&quot;,&quot;1910&quot;,&quot;1035&quot;],[&quot;13&quot;,&quot;3513&quot;,&quot;2129&quot;,&quot;767&quot;],[&quot;14&quot;,&quot;413&quot;,&quot;565&quot;,&quot;499&quot;],[&quot;15&quot;,&quot;1110&quot;,&quot;2152&quot;,&quot;597&quot;],[&quot;16&quot;,&quot;1266&quot;,&quot;1881&quot;,&quot;595&quot;],[&quot;17&quot;,&quot;909&quot;,&quot;1314&quot;,&quot;628&quot;],[&quot;18&quot;,&quot;747&quot;,&quot;406&quot;,&quot;517&quot;],[&quot;19&quot;,&quot;1044&quot;,&quot;1456&quot;,&quot;805&quot;],[&quot;20&quot;,&quot;1161&quot;,&quot;1836&quot;,&quot;987&quot;],[&quot;21&quot;,&quot;1502&quot;,&quot;1606&quot;,&quot;862&quot;]]],&quot;dataType&quot;:&quot;cross-table&quot;,&quot;download&quot;:false,&quot;srcType&quot;:&quot;local&quot;,&quot;url&quot;:&quot;&quot;},&quot;function_type&quot;:[&quot;折线图&quot;],&quot;gif&quot;:&quot;//web.docer.wpscdn.cn/docer/ds-page/v2/images/5948734748594536789.gif?imageView2/2/w/500/quality/90&quot;,&quot;isFree&quot;:&quot;0&quot;,&quot;label&quot;:&quot;&lt;d-smoothline-chart&gt;&quot;,&quot;position&quot;:{&quot;left&quot;:0,&quot;top&quot;:0},&quot;projectId&quot;:&quot;5948734748594536789&quot;,&quot;props&quot;:{&quot;animation&quot;:{&quot;duration&quot;:&quot;1.8&quot;,&quot;easeStyle&quot;:&quot;&quot;,&quot;endPause&quot;:&quot;1&quot;,&quot;moveOptions&quot;:[&quot;依次绘制&quot;,&quot;同时绘制&quot;,&quot;穿针引线&quot;],&quot;moveStyle&quot;:&quot;依次绘制&quot;,&quot;startDelay&quot;:&quot;0&quot;,&quot;transition&quot;:true},&quot;axis&quot;:{&quot;grid&quot;:{&quot;color&quot;:&quot;#e9e9e9&quot;,&quot;gridLineWidth&quot;:&quot;1&quot;,&quot;lineStyle&quot;:&quot;dashline&quot;,&quot;show&quot;:&quot;x&quot;},&quot;x&quot;:{&quot;axisColor&quot;:&quot;#bfbfbf&quot;,&quot;axisLineWidth&quot;:&quot;1&quot;,&quot;axisShow&quot;:true,&quot;labelAngle&quot;:&quot;0&quot;,&quot;labelDirection&quot;:&quot;自动&quot;,&quot;labelDirectionOptions&quot;:[&quot;自动&quot;,&quot;横排&quot;,&quot;竖排&quot;],&quot;labelShow&quot;:true,&quot;name&quot;:&quot;&quot;},&quot;y&quot;:{&quot;axisColor&quot;:&quot;#bfbfbf&quot;,&quot;axisLineWidth&quot;:&quot;1&quot;,&quot;axisShow&quot;:false,&quot;labelShow&quot;:true,&quot;labelSuffix&quot;:&quot;&quot;,&quot;name&quot;:&quot;&quot;,&quot;range&quot;:[],&quot;stepOfLabel&quot;:null}},&quot;backgroundColor&quot;:&quot;&quot;,&quot;colors&quot;:{&quot;colorControlers&quot;:[&quot;multiple&quot;],&quot;list&quot;:[0,1,2],&quot;type&quot;:&quot;multiple&quot;},&quot;display&quot;:{&quot;endPointBorderColor&quot;:&quot;#FFFFFF&quot;,&quot;endPointBorderWidth&quot;:&quot;0&quot;,&quot;endPointFillColor&quot;:null,&quot;endPointRadius&quot;:&quot;0&quot;,&quot;lineWidth&quot;:&quot;2&quot;},&quot;font&quot;:{&quot;color&quot;:&quot;#545454&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;},&quot;label&quot;:{&quot;display&quot;:false,&quot;positionChoice&quot;:&quot;上面&quot;,&quot;positionOptions&quot;:[&quot;上面&quot;,&quot;下面&quot;],&quot;suffix&quot;:&quot;&quot;,&quot;textLabel&quot;:{&quot;color&quot;:&quot;#545454&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;}},&quot;legend&quot;:{&quot;color&quot;:[&quot;#545454&quot;],&quot;fontFamily&quot;:[&quot;黑体&quot;],&quot;fontSize&quot;:&quot;14&quot;,&quot;lineHeight&quot;:&quot;15&quot;,&quot;show&quot;:true,&quot;style&quot;:&quot;&quot;,&quot;styleOptions&quot;:[],&quot;xPosition&quot;:&quot;center&quot;,&quot;yPosition&quot;:&quot;bottom&quot;},&quot;logoDisplay&quot;:{&quot;bottomLineHeight&quot;:&quot;15&quot;,&quot;imgHeight&quot;:&quot;32&quot;,&quot;imgUrl&quot;:&quot;https://ss1.dydata.io/newchartLogo.png&quot;,&quot;show&quot;:true,&quot;topLineHeight&quot;:&quot;11&quot;},&quot;map&quot;:[[{&quot;allowType&quot;:[&quot;string&quot;],&quot;configurable&quot;:false,&quot;function&quot;:&quot;objCol&quot;,&quot;index&quot;:0,&quot;isLegend&quot;:false,&quot;name&quot;:&quot;X轴对象&quot;},{&quot;allowType&quot;:[&quot;number&quot;],&quot;configurable&quot;:true,&quot;function&quot;:&quot;vCol&quot;,&quot;index&quot;:1,&quot;isLegend&quot;:false,&quot;name&quot;:&quot;数值列&quot;},{&quot;allowType&quot;:[&quot;number&quot;],&quot;configurable&quot;:true,&quot;function&quot;:&quot;vCol&quot;,&quot;index&quot;:2,&quot;isLegend&quot;:false,&quot;name&quot;:&quot;数值列&quot;},{&quot;allowType&quot;:[&quot;number&quot;],&quot;configurable&quot;:true,&quot;function&quot;:&quot;vCol&quot;,&quot;index&quot;:3,&quot;isLegend&quot;:false,&quot;name&quot;:&quot;数值列&quot;}]],&quot;numberFormat&quot;:{&quot;decimalPlaces&quot;:null,&quot;style&quot;:&quot;1000.00&quot;},&quot;paddings&quot;:{&quot;bottom&quot;:&quot;33&quot;,&quot;chartBottom&quot;:&quot;5&quot;,&quot;left&quot;:&quot;24&quot;,&quot;right&quot;:&quot;24&quot;,&quot;top&quot;:&quot;24&quot;},&quot;publishDisplay&quot;:{&quot;color&quot;:&quot;#878787&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;,&quot;show&quot;:true,&quot;text&quot;:&quot;镝数出品&quot;},&quot;shadow&quot;:{&quot;display&quot;:false,&quot;shadowAngle&quot;:&quot;45&quot;,&quot;shadowBlur&quot;:&quot;5&quot;,&quot;shadowColor&quot;:&quot;#c6c6c6&quot;,&quot;shadowOpacity&quot;:&quot;100&quot;,&quot;shadowRadius&quot;:&quot;3&quot;},&quot;size&quot;:{&quot;height&quot;:635,&quot;ratio&quot;:null,&quot;rotate&quot;:0,&quot;width&quot;:1735.0000000000002},&quot;sourceDisplay&quot;:{&quot;color&quot;:&quot;#878787&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;,&quot;show&quot;:false,&quot;text&quot;:&quot;数据来源：示例数据&quot;,&quot;topLineHeight&quot;:&quot;15&quot;,&quot;xPosition&quot;:&quot;left&quot;,&quot;yPosition&quot;:&quot;bottom&quot;},&quot;titleDisplay&quot;:{&quot;color&quot;:&quot;#4c4c4c&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;36&quot;,&quot;lineHeight&quot;:&quot;10&quot;,&quot;show&quot;:false,&quot;text&quot;:&quot;2010-2016年一线城市房价变迁&quot;,&quot;totalHeight&quot;:&quot;39&quot;,&quot;xPosition&quot;:&quot;left&quot;,&quot;yPosition&quot;:&quot;top&quot;},&quot;tooltip&quot;:true,&quot;unitDisplay&quot;:{&quot;bottomLineHeight&quot;:&quot;15&quot;,&quot;color&quot;:&quot;#878787&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;,&quot;show&quot;:false,&quot;text&quot;:&quot;单位：元&quot;,&quot;xPosition&quot;:&quot;left&quot;,&quot;yPosition&quot;:&quot;top&quot;},&quot;watermarkDisplay&quot;:{&quot;imgHeight&quot;:&quot;80&quot;,&quot;imgUrl&quot;:&quot;https://ss1.dydata.io/newchartWatermark.png&quot;,&quot;imgWidth&quot;:&quot;80&quot;,&quot;show&quot;:false}},&quot;templateId&quot;:&quot;5948734748594536789&quot;,&quot;templateSwitch&quot;:&quot;cross&quot;,&quot;theme&quot;:{&quot;axis&quot;:{&quot;color&quot;:&quot;#a1a1a1&quot;},&quot;backgroundColor&quot;:&quot;#FFFFFF&quot;,&quot;colors&quot;:[&quot;#5AAEF3&quot;,&quot;#62D9AD&quot;,&quot;#5B6E96&quot;,&quot;#a8dffa&quot;,&quot;#ffdc4c&quot;,&quot;#FF974C&quot;,&quot;#E65A56&quot;,&quot;#6D61E4&quot;,&quot;#4A6FE2&quot;,&quot;#6D9AE7&quot;,&quot;#23C2DB&quot;,&quot;#D4EC59&quot;,&quot;#FFE88E&quot;,&quot;#FEB64D&quot;,&quot;#FB6E6C&quot;],&quot;fonts&quot;:{&quot;accessoryColor&quot;:&quot;#878787&quot;,&quot;color&quot;:&quot;#545454&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;},&quot;grid&quot;:{&quot;color&quot;:&quot;#ccc&quot;},&quot;name&quot;:&quot;默认主题&quot;,&quot;price&quot;:&quot;0.0&quot;,&quot;shapeColor&quot;:1,&quot;themeId&quot;:&quot;18&quot;,&quot;titleFont&quot;:{&quot;color&quot;:&quot;#4c4c4c&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;36&quot;}},&quot;thumb&quot;:&quot;//web.docer.wpscdn.cn/docer/ds-page/v2/images/smoothline.4DBEA3F2.jpg?imageView2/2/w/500/quality/90&quot;,&quot;title&quot;:&quot;曲线折线图&quot;,&quot;type&quot;:&quot;chart&quot;},&quot;dschart_id&quot;:&quot;5948734748594536789&quot;,&quot;id&quot;:&quot;48&quot;}"/>
+    <wpswe:property key="dschart" value="{&quot;dschart_data&quot;:{&quot;blockId&quot;:&quot;161243067189875081&quot;,&quot;chart_type&quot;:&quot;线形图&quot;,&quot;classifty_type&quot;:[&quot;趋势类&quot;],&quot;dataSrc&quot;:{&quot;data&quot;:[[[&quot;第周&quot;,&quot;新房成交量&quot;,&quot;二手房成交量&quot;,&quot;涨价房源&quot;],[&quot;40&quot;,&quot;4665&quot;,&quot;1177&quot;,&quot;180&quot;],[&quot;41&quot;,&quot;662&quot;,&quot;404&quot;,&quot;130&quot;],[&quot;42&quot;,&quot;2162&quot;,&quot;1294&quot;,&quot;214&quot;],[&quot;43&quot;,&quot;2285&quot;,&quot;1195&quot;,&quot;170&quot;],[&quot;44&quot;,&quot;3768&quot;,&quot;1204&quot;,&quot;210&quot;],[&quot;45&quot;,&quot;2916&quot;,&quot;1188&quot;,&quot;213&quot;],[&quot;46&quot;,&quot;2079&quot;,&quot;1145&quot;,&quot;248&quot;],[&quot;47&quot;,&quot;2510&quot;,&quot;1155&quot;,&quot;289&quot;],[&quot;48&quot;,&quot;2382&quot;,&quot;1388&quot;,&quot;313&quot;],[&quot;49&quot;,&quot;3044&quot;,&quot;1350&quot;,&quot;409&quot;],[&quot;50&quot;,&quot;2282&quot;,&quot;1243&quot;,&quot;355&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;52&quot;,&quot;1721&quot;,&quot;1228&quot;,&quot;286&quot;],[&quot;53&quot;,&quot;1721&quot;,&quot;1228&quot;,&quot;286&quot;],[&quot;02&quot;,&quot;1721&quot;,&quot;1228&quot;,&quot;286&quot;],[&quot;03&quot;,&quot;3939&quot;,&quot;1112&quot;,&quot;247&quot;],[&quot;04&quot;,&quot;1575&quot;,&quot;292&quot;,&quot;92&quot;],[&quot;05&quot;,&quot;348&quot;,&quot;108&quot;,&quot;73&quot;],[&quot;06&quot;,&quot;1591&quot;,&quot;921&quot;,&quot;735&quot;],[&quot;07&quot;,&quot;2031&quot;,&quot;1283&quot;,&quot;737&quot;],[&quot;08&quot;,&quot;1999&quot;,&quot;1740&quot;,&quot;959&quot;],[&quot;09&quot;,&quot;3065&quot;,&quot;2421&quot;,&quot;901&quot;],[&quot;10&quot;,&quot;2650&quot;,&quot;2449&quot;,&quot;1029&quot;],[&quot;11&quot;,&quot;2694&quot;,&quot;2436&quot;,&quot;733&quot;],[&quot;12&quot;,&quot;2643&quot;,&quot;2336&quot;,&quot;573&quot;],[&quot;13&quot;,&quot;2649&quot;,&quot;2248&quot;,&quot;480&quot;],[&quot;14&quot;,&quot;3091&quot;,&quot;2040&quot;,&quot;2174&quot;],[&quot;15&quot;,&quot;3497&quot;,&quot;1474&quot;,&quot;1491&quot;],[&quot;16&quot;,&quot;3227&quot;,&quot;2008&quot;,&quot;1071&quot;],[&quot;17&quot;,&quot;2732&quot;,&quot;1920&quot;,&quot;798&quot;],[&quot;18&quot;,&quot;2359&quot;,&quot;1352&quot;,&quot;787&quot;],[&quot;19&quot;,&quot;1773&quot;,&quot;884&quot;,&quot;563&quot;],[&quot;22&quot;,&quot;2293&quot;,&quot;2375&quot;,&quot;2582&quot;],[&quot;24&quot;,&quot;1774&quot;,&quot;1041&quot;,&quot;2587&quot;],[&quot;25&quot;,&quot;1561&quot;,&quot;1022&quot;,&quot;2408&quot;],[&quot;26&quot;,&quot;1524&quot;,&quot;927&quot;,&quot;1499&quot;],[&quot;28&quot;,&quot;1323&quot;,&quot;835&quot;,&quot;2194&quot;],[&quot;29&quot;,&quot;1369&quot;,&quot;1041&quot;,&quot;363&quot;],[&quot;30&quot;,&quot;1117&quot;,&quot;994&quot;,&quot;253&quot;],[&quot;31&quot;,&quot;1795&quot;,&quot;1035&quot;,&quot;238&quot;],[&quot;33&quot;,&quot;847&quot;,&quot;999&quot;,&quot;275&quot;],[&quot;34&quot;,&quot;789&quot;,&quot;1077&quot;,&quot;289&quot;],[&quot;35&quot;,&quot;1857&quot;,&quot;1116&quot;,&quot;228&quot;],[&quot;36&quot;,&quot;2774&quot;,&quot;905&quot;,&quot;290&quot;],[&quot;37&quot;,&quot;1113&quot;,&quot;938&quot;,&quot;378&quot;],[&quot;38&quot;,&quot;1548&quot;,&quot;1098&quot;,&quot;465&quot;],[&quot;39&quot;,&quot;1773&quot;,&quot;902&quot;,&quot;299&quot;],[&quot;41&quot;,&quot;513&quot;,&quot;382&quot;,&quot;177&quot;],[&quot;42&quot;,&quot;962&quot;,&quot;1240&quot;,&quot;236&quot;],[&quot;43&quot;,&quot;1162&quot;,&quot;1329&quot;,&quot;622&quot;],[&quot;44&quot;,&quot;2509&quot;,&quot;2037&quot;,&quot;476&quot;],[&quot;45&quot;,&quot;2960&quot;,&quot;1963&quot;,&quot;665&quot;],[&quot;46&quot;,&quot;1471&quot;,&quot;1938&quot;,&quot;450&quot;],[&quot;47&quot;,&quot;1547&quot;,&quot;1714&quot;,&quot;338&quot;],[&quot;48&quot;,&quot;1992&quot;,&quot;1711&quot;,&quot;420&quot;],[&quot;49&quot;,&quot;2217&quot;,&quot;1595&quot;,&quot;670&quot;],[&quot;50&quot;,&quot;1765&quot;,&quot;1480&quot;,&quot;339&quot;],[&quot;51&quot;,&quot;2463&quot;,&quot;1443&quot;,&quot;203&quot;],[&quot;52&quot;,&quot;4130&quot;,&quot;1305&quot;,&quot;576&quot;],[&quot;52&quot;,&quot;3338&quot;,&quot;1357&quot;,&quot;260&quot;],[&quot;01&quot;,&quot;990&quot;,&quot;611&quot;,&quot;531&quot;],[&quot;02&quot;,&quot;318&quot;,&quot;513&quot;,&quot;396&quot;],[&quot;03&quot;,&quot;1367&quot;,&quot;1401&quot;,&quot;1022&quot;],[&quot;04&quot;,&quot;1143&quot;,&quot;1270&quot;,&quot;493&quot;],[&quot;05&quot;,&quot;620&quot;,&quot;985&quot;,&quot;211&quot;],[&quot;06&quot;,&quot;453&quot;,&quot;131&quot;,&quot;28&quot;],[&quot;08&quot;,&quot;449&quot;,&quot;547&quot;,&quot;908&quot;],[&quot;09&quot;,&quot;1083&quot;,&quot;1000&quot;,&quot;775&quot;],[&quot;10&quot;,&quot;537&quot;,&quot;1303&quot;,&quot;810&quot;],[&quot;11&quot;,&quot;761&quot;,&quot;1489&quot;,&quot;951&quot;],[&quot;12&quot;,&quot;1518&quot;,&quot;1910&quot;,&quot;1035&quot;],[&quot;13&quot;,&quot;3513&quot;,&quot;2129&quot;,&quot;767&quot;],[&quot;14&quot;,&quot;413&quot;,&quot;565&quot;,&quot;499&quot;],[&quot;15&quot;,&quot;1110&quot;,&quot;2152&quot;,&quot;597&quot;],[&quot;16&quot;,&quot;1266&quot;,&quot;1881&quot;,&quot;595&quot;],[&quot;17&quot;,&quot;909&quot;,&quot;1314&quot;,&quot;628&quot;],[&quot;18&quot;,&quot;747&quot;,&quot;406&quot;,&quot;517&quot;],[&quot;19&quot;,&quot;1044&quot;,&quot;1456&quot;,&quot;805&quot;],[&quot;20&quot;,&quot;1161&quot;,&quot;1836&quot;,&quot;987&quot;],[&quot;21&quot;,&quot;1502&quot;,&quot;1606&quot;,&quot;862&quot;],[&quot;22&quot;,&quot;2098&quot;,&quot;1889&quot;,&quot;712&quot;],[&quot;23&quot;,&quot;1280&quot;,&quot;1780&quot;,&quot;777&quot;],[&quot;24&quot;,&quot;1312&quot;,&quot;1604&quot;,&quot;673&quot;],[&quot;25&quot;,&quot;1927&quot;,&quot;1994&quot;,&quot;615&quot;]]],&quot;dataType&quot;:&quot;cross-table&quot;,&quot;download&quot;:false,&quot;srcType&quot;:&quot;local&quot;,&quot;url&quot;:&quot;&quot;},&quot;function_type&quot;:[&quot;折线图&quot;],&quot;gif&quot;:&quot;//web.docer.wpscdn.cn/docer/ds-page/v2/images/5948734748594536789.gif?imageView2/2/w/500/quality/90&quot;,&quot;isFree&quot;:&quot;0&quot;,&quot;label&quot;:&quot;&lt;d-smoothline-chart&gt;&quot;,&quot;position&quot;:{&quot;left&quot;:0,&quot;top&quot;:0},&quot;projectId&quot;:&quot;5948734748594536789&quot;,&quot;props&quot;:{&quot;animation&quot;:{&quot;duration&quot;:&quot;1.8&quot;,&quot;easeStyle&quot;:&quot;&quot;,&quot;endPause&quot;:&quot;1&quot;,&quot;moveOptions&quot;:[&quot;依次绘制&quot;,&quot;同时绘制&quot;,&quot;穿针引线&quot;],&quot;moveStyle&quot;:&quot;依次绘制&quot;,&quot;startDelay&quot;:&quot;0&quot;,&quot;transition&quot;:true},&quot;axis&quot;:{&quot;grid&quot;:{&quot;color&quot;:&quot;#e9e9e9&quot;,&quot;gridLineWidth&quot;:&quot;1&quot;,&quot;lineStyle&quot;:&quot;dashline&quot;,&quot;show&quot;:&quot;x&quot;},&quot;x&quot;:{&quot;axisColor&quot;:&quot;#bfbfbf&quot;,&quot;axisLineWidth&quot;:&quot;1&quot;,&quot;axisShow&quot;:true,&quot;labelAngle&quot;:&quot;0&quot;,&quot;labelDirection&quot;:&quot;自动&quot;,&quot;labelDirectionOptions&quot;:[&quot;自动&quot;,&quot;横排&quot;,&quot;竖排&quot;],&quot;labelShow&quot;:true,&quot;name&quot;:&quot;&quot;},&quot;y&quot;:{&quot;axisColor&quot;:&quot;#bfbfbf&quot;,&quot;axisLineWidth&quot;:&quot;1&quot;,&quot;axisShow&quot;:false,&quot;labelShow&quot;:true,&quot;labelSuffix&quot;:&quot;&quot;,&quot;name&quot;:&quot;&quot;,&quot;range&quot;:[],&quot;stepOfLabel&quot;:null}},&quot;backgroundColor&quot;:&quot;&quot;,&quot;colors&quot;:{&quot;colorControlers&quot;:[&quot;multiple&quot;],&quot;list&quot;:[0,1,2],&quot;type&quot;:&quot;multiple&quot;},&quot;display&quot;:{&quot;endPointBorderColor&quot;:&quot;#FFFFFF&quot;,&quot;endPointBorderWidth&quot;:&quot;0&quot;,&quot;endPointFillColor&quot;:null,&quot;endPointRadius&quot;:&quot;0&quot;,&quot;lineWidth&quot;:&quot;2&quot;},&quot;font&quot;:{&quot;color&quot;:&quot;#545454&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;},&quot;label&quot;:{&quot;display&quot;:false,&quot;positionChoice&quot;:&quot;上面&quot;,&quot;positionOptions&quot;:[&quot;上面&quot;,&quot;下面&quot;],&quot;suffix&quot;:&quot;&quot;,&quot;textLabel&quot;:{&quot;color&quot;:&quot;#545454&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;}},&quot;legend&quot;:{&quot;color&quot;:[&quot;#545454&quot;],&quot;fontFamily&quot;:[&quot;黑体&quot;],&quot;fontSize&quot;:&quot;14&quot;,&quot;lineHeight&quot;:&quot;15&quot;,&quot;show&quot;:true,&quot;style&quot;:&quot;&quot;,&quot;styleOptions&quot;:[],&quot;xPosition&quot;:&quot;center&quot;,&quot;yPosition&quot;:&quot;bottom&quot;},&quot;logoDisplay&quot;:{&quot;bottomLineHeight&quot;:&quot;15&quot;,&quot;imgHeight&quot;:&quot;32&quot;,&quot;imgUrl&quot;:&quot;https://ss1.dydata.io/newchartLogo.png&quot;,&quot;show&quot;:true,&quot;topLineHeight&quot;:&quot;11&quot;},&quot;map&quot;:[[{&quot;allowType&quot;:[&quot;string&quot;],&quot;configurable&quot;:false,&quot;function&quot;:&quot;objCol&quot;,&quot;index&quot;:0,&quot;isLegend&quot;:false,&quot;name&quot;:&quot;X轴对象&quot;},{&quot;allowType&quot;:[&quot;number&quot;],&quot;configurable&quot;:true,&quot;function&quot;:&quot;vCol&quot;,&quot;index&quot;:1,&quot;isLegend&quot;:false,&quot;name&quot;:&quot;数值列&quot;},{&quot;allowType&quot;:[&quot;number&quot;],&quot;configurable&quot;:true,&quot;function&quot;:&quot;vCol&quot;,&quot;index&quot;:2,&quot;isLegend&quot;:false,&quot;name&quot;:&quot;数值列&quot;},{&quot;allowType&quot;:[&quot;number&quot;],&quot;configurable&quot;:true,&quot;function&quot;:&quot;vCol&quot;,&quot;index&quot;:3,&quot;isLegend&quot;:false,&quot;name&quot;:&quot;数值列&quot;}]],&quot;numberFormat&quot;:{&quot;decimalPlaces&quot;:null,&quot;style&quot;:&quot;1000.00&quot;},&quot;paddings&quot;:{&quot;bottom&quot;:&quot;33&quot;,&quot;chartBottom&quot;:&quot;5&quot;,&quot;left&quot;:&quot;24&quot;,&quot;right&quot;:&quot;24&quot;,&quot;top&quot;:&quot;24&quot;},&quot;publishDisplay&quot;:{&quot;color&quot;:&quot;#878787&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;,&quot;show&quot;:true,&quot;text&quot;:&quot;镝数出品&quot;},&quot;shadow&quot;:{&quot;display&quot;:false,&quot;shadowAngle&quot;:&quot;45&quot;,&quot;shadowBlur&quot;:&quot;5&quot;,&quot;shadowColor&quot;:&quot;#c6c6c6&quot;,&quot;shadowOpacity&quot;:&quot;100&quot;,&quot;shadowRadius&quot;:&quot;3&quot;},&quot;size&quot;:{&quot;height&quot;:635,&quot;ratio&quot;:null,&quot;rotate&quot;:0,&quot;width&quot;:1735.0000000000002},&quot;sourceDisplay&quot;:{&quot;color&quot;:&quot;#878787&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;,&quot;show&quot;:false,&quot;text&quot;:&quot;数据来源：示例数据&quot;,&quot;topLineHeight&quot;:&quot;15&quot;,&quot;xPosition&quot;:&quot;left&quot;,&quot;yPosition&quot;:&quot;bottom&quot;},&quot;titleDisplay&quot;:{&quot;color&quot;:&quot;#4c4c4c&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;36&quot;,&quot;lineHeight&quot;:&quot;10&quot;,&quot;show&quot;:false,&quot;text&quot;:&quot;2010-2016年一线城市房价变迁&quot;,&quot;totalHeight&quot;:&quot;39&quot;,&quot;xPosition&quot;:&quot;left&quot;,&quot;yPosition&quot;:&quot;top&quot;},&quot;tooltip&quot;:true,&quot;unitDisplay&quot;:{&quot;bottomLineHeight&quot;:&quot;15&quot;,&quot;color&quot;:&quot;#878787&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;,&quot;show&quot;:false,&quot;text&quot;:&quot;单位：元&quot;,&quot;xPosition&quot;:&quot;left&quot;,&quot;yPosition&quot;:&quot;top&quot;},&quot;watermarkDisplay&quot;:{&quot;imgHeight&quot;:&quot;80&quot;,&quot;imgUrl&quot;:&quot;https://ss1.dydata.io/newchartWatermark.png&quot;,&quot;imgWidth&quot;:&quot;80&quot;,&quot;show&quot;:false}},&quot;templateId&quot;:&quot;5948734748594536789&quot;,&quot;templateSwitch&quot;:&quot;cross&quot;,&quot;theme&quot;:{&quot;axis&quot;:{&quot;color&quot;:&quot;#a1a1a1&quot;},&quot;backgroundColor&quot;:&quot;#FFFFFF&quot;,&quot;colors&quot;:[&quot;#5AAEF3&quot;,&quot;#62D9AD&quot;,&quot;#5B6E96&quot;,&quot;#a8dffa&quot;,&quot;#ffdc4c&quot;,&quot;#FF974C&quot;,&quot;#E65A56&quot;,&quot;#6D61E4&quot;,&quot;#4A6FE2&quot;,&quot;#6D9AE7&quot;,&quot;#23C2DB&quot;,&quot;#D4EC59&quot;,&quot;#FFE88E&quot;,&quot;#FEB64D&quot;,&quot;#FB6E6C&quot;],&quot;fonts&quot;:{&quot;accessoryColor&quot;:&quot;#878787&quot;,&quot;color&quot;:&quot;#545454&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;},&quot;grid&quot;:{&quot;color&quot;:&quot;#ccc&quot;},&quot;name&quot;:&quot;默认主题&quot;,&quot;price&quot;:&quot;0.0&quot;,&quot;shapeColor&quot;:1,&quot;themeId&quot;:&quot;18&quot;,&quot;titleFont&quot;:{&quot;color&quot;:&quot;#4c4c4c&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;36&quot;}},&quot;thumb&quot;:&quot;//web.docer.wpscdn.cn/docer/ds-page/v2/images/smoothline.4DBEA3F2.jpg?imageView2/2/w/500/quality/90&quot;,&quot;title&quot;:&quot;曲线折线图&quot;,&quot;type&quot;:&quot;chart&quot;},&quot;dschart_id&quot;:&quot;5948734748594536789&quot;,&quot;id&quot;:&quot;48&quot;}"/>
     <wpswe:property key="isUseCommonErrorPage" value="false"/>
     <wpswe:property key="loadingImage" value="res:/icons/DsWebShapeDefaultPage.svg"/>
   </wpswe:properties>
   <wpswe:watchingCache>
+    <wpswe:linkPath>E:\03.SRC\Python\GetData\hz杭州成交周报.xlsx</wpswe:linkPath>
     <wpswe:dataRange>
       <wpswe:key>data_source</wpswe:key>
-      <wpswe:context>Sheet1!$B$1:$E$91</wpswe:context>
-      <wpswe:count>91</wpswe:count>
+      <wpswe:context>Sheet1!$B$1:$E$95</wpswe:context>
+      <wpswe:count>95</wpswe:count>
       <wpswe:cells wpswe:idx="0">
         <wpswe:count>4</wpswe:count>
         <wpswe:formatCode>General</wpswe:formatCode>
@@ -3255,10 +3302,10 @@
           <wpswe:value>第周</wpswe:value>
         </wpswe:cell>
         <wpswe:cell wpswe:idx="1">
-          <wpswe:value>新房成交</wpswe:value>
-        </wpswe:cell>
-        <wpswe:cell wpswe:idx="2">
-          <wpswe:value>二手房成交</wpswe:value>
+          <wpswe:value>新房成交量</wpswe:value>
+        </wpswe:cell>
+        <wpswe:cell wpswe:idx="2">
+          <wpswe:value>二手房成交量</wpswe:value>
         </wpswe:cell>
         <wpswe:cell wpswe:idx="3">
           <wpswe:value>涨价房源</wpswe:value>
@@ -4702,11 +4749,76 @@
         </wpswe:cell>
         <wpswe:cell wpswe:idx="3">
           <wpswe:value>862</wpswe:value>
+        </wpswe:cell>
+      </wpswe:cells>
+      <wpswe:cells wpswe:idx="91">
+        <wpswe:count>4</wpswe:count>
+        <wpswe:formatCode>General</wpswe:formatCode>
+        <wpswe:cell wpswe:idx="0">
+          <wpswe:value>22</wpswe:value>
+        </wpswe:cell>
+        <wpswe:cell wpswe:idx="1">
+          <wpswe:value>2098</wpswe:value>
+        </wpswe:cell>
+        <wpswe:cell wpswe:idx="2">
+          <wpswe:value>1889</wpswe:value>
+        </wpswe:cell>
+        <wpswe:cell wpswe:idx="3">
+          <wpswe:value>712</wpswe:value>
+        </wpswe:cell>
+      </wpswe:cells>
+      <wpswe:cells wpswe:idx="92">
+        <wpswe:count>4</wpswe:count>
+        <wpswe:formatCode>General</wpswe:formatCode>
+        <wpswe:cell wpswe:idx="0">
+          <wpswe:value>23</wpswe:value>
+        </wpswe:cell>
+        <wpswe:cell wpswe:idx="1">
+          <wpswe:value>1280</wpswe:value>
+        </wpswe:cell>
+        <wpswe:cell wpswe:idx="2">
+          <wpswe:value>1780</wpswe:value>
+        </wpswe:cell>
+        <wpswe:cell wpswe:idx="3">
+          <wpswe:value>777</wpswe:value>
+        </wpswe:cell>
+      </wpswe:cells>
+      <wpswe:cells wpswe:idx="93">
+        <wpswe:count>4</wpswe:count>
+        <wpswe:formatCode>General</wpswe:formatCode>
+        <wpswe:cell wpswe:idx="0">
+          <wpswe:value>24</wpswe:value>
+        </wpswe:cell>
+        <wpswe:cell wpswe:idx="1">
+          <wpswe:value>1312</wpswe:value>
+        </wpswe:cell>
+        <wpswe:cell wpswe:idx="2">
+          <wpswe:value>1604</wpswe:value>
+        </wpswe:cell>
+        <wpswe:cell wpswe:idx="3">
+          <wpswe:value>673</wpswe:value>
+        </wpswe:cell>
+      </wpswe:cells>
+      <wpswe:cells wpswe:idx="94">
+        <wpswe:count>4</wpswe:count>
+        <wpswe:formatCode>General</wpswe:formatCode>
+        <wpswe:cell wpswe:idx="0">
+          <wpswe:value>25</wpswe:value>
+        </wpswe:cell>
+        <wpswe:cell wpswe:idx="1">
+          <wpswe:value>1927</wpswe:value>
+        </wpswe:cell>
+        <wpswe:cell wpswe:idx="2">
+          <wpswe:value>1994</wpswe:value>
+        </wpswe:cell>
+        <wpswe:cell wpswe:idx="3">
+          <wpswe:value>615</wpswe:value>
         </wpswe:cell>
       </wpswe:cells>
     </wpswe:dataRange>
   </wpswe:watchingCache>
-  <wpswe:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+  <wpswe:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+  <wpswe:externalData xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   <wpswe:url>https://clientweb.docer.wps.cn//docer-ds/web-shape-1.0.0/?id=48&amp;dschart_id=5948734748594536789&amp;from=insert_Line&amp;productEntry=dropwin&amp;sceneEntry=docrec-48</wpswe:url>
   <wpswe:constantSnapshot>false</wpswe:constantSnapshot>
 </wpswe:webExtension>
@@ -4723,6 +4835,7 @@
     <wpswe:property key="loadingImage" value="res:/icons/DsWebShapeDefaultPage.svg"/>
   </wpswe:properties>
   <wpswe:watchingCache>
+    <wpswe:linkPath>E:\03.SRC\Python\GetData\hz杭州成交周报.xlsx</wpswe:linkPath>
     <wpswe:dataRange>
       <wpswe:key>data_source</wpswe:key>
       <wpswe:context>Sheet2!$B$9:$E$14</wpswe:context>
@@ -4825,7 +4938,8 @@
       </wpswe:cells>
     </wpswe:dataRange>
   </wpswe:watchingCache>
-  <wpswe:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+  <wpswe:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+  <wpswe:externalData xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   <wpswe:url>https://clientweb.docer.wps.cn//docer-ds/web-shape-1.0.0/?id=48&amp;dschart_id=5948734748594536789&amp;from=insert_Line&amp;productEntry=dropwin&amp;sceneEntry=docrec-48</wpswe:url>
   <wpswe:constantSnapshot>false</wpswe:constantSnapshot>
 </wpswe:webExtension>
@@ -4834,10 +4948,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M91"/>
+  <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="AF51" sqref="AF51"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="H111" sqref="H111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6478,6 +6592,74 @@
       </c>
       <c r="E91" s="4" t="s">
         <v>281</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="2">
+        <v>2024</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="2">
+        <v>2024</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="2">
+        <v>2024</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="2">
+        <v>2024</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -6503,21 +6685,21 @@
   <sheetData>
     <row r="1" spans="2:8">
       <c r="B1" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="C1" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="D1" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="H1" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="2:8">
       <c r="B2" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -6526,12 +6708,12 @@
         <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -6542,7 +6724,7 @@
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -6556,10 +6738,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>2</v>
+        <v>303</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>3</v>
+        <v>304</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>4</v>

--- a/hz杭州成交周报.xlsx
+++ b/hz杭州成交周报.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="307">
   <si>
     <t>第年</t>
   </si>
@@ -913,6 +913,12 @@
   </si>
   <si>
     <t>615</t>
+  </si>
+  <si>
+    <t>4747</t>
+  </si>
+  <si>
+    <t>1859</t>
   </si>
   <si>
     <t>姓名</t>
@@ -3285,7 +3291,7 @@
   <wpswe:properties>
     <wpswe:property key="DiscardFirstCodeChange" value="0"/>
     <wpswe:property key="autoSnapshot" value="0"/>
-    <wpswe:property key="dschart" value="{&quot;dschart_data&quot;:{&quot;blockId&quot;:&quot;161243067189875081&quot;,&quot;chart_type&quot;:&quot;线形图&quot;,&quot;classifty_type&quot;:[&quot;趋势类&quot;],&quot;dataSrc&quot;:{&quot;data&quot;:[[[&quot;第周&quot;,&quot;新房成交量&quot;,&quot;二手房成交量&quot;,&quot;涨价房源&quot;],[&quot;40&quot;,&quot;4665&quot;,&quot;1177&quot;,&quot;180&quot;],[&quot;41&quot;,&quot;662&quot;,&quot;404&quot;,&quot;130&quot;],[&quot;42&quot;,&quot;2162&quot;,&quot;1294&quot;,&quot;214&quot;],[&quot;43&quot;,&quot;2285&quot;,&quot;1195&quot;,&quot;170&quot;],[&quot;44&quot;,&quot;3768&quot;,&quot;1204&quot;,&quot;210&quot;],[&quot;45&quot;,&quot;2916&quot;,&quot;1188&quot;,&quot;213&quot;],[&quot;46&quot;,&quot;2079&quot;,&quot;1145&quot;,&quot;248&quot;],[&quot;47&quot;,&quot;2510&quot;,&quot;1155&quot;,&quot;289&quot;],[&quot;48&quot;,&quot;2382&quot;,&quot;1388&quot;,&quot;313&quot;],[&quot;49&quot;,&quot;3044&quot;,&quot;1350&quot;,&quot;409&quot;],[&quot;50&quot;,&quot;2282&quot;,&quot;1243&quot;,&quot;355&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;52&quot;,&quot;1721&quot;,&quot;1228&quot;,&quot;286&quot;],[&quot;53&quot;,&quot;1721&quot;,&quot;1228&quot;,&quot;286&quot;],[&quot;02&quot;,&quot;1721&quot;,&quot;1228&quot;,&quot;286&quot;],[&quot;03&quot;,&quot;3939&quot;,&quot;1112&quot;,&quot;247&quot;],[&quot;04&quot;,&quot;1575&quot;,&quot;292&quot;,&quot;92&quot;],[&quot;05&quot;,&quot;348&quot;,&quot;108&quot;,&quot;73&quot;],[&quot;06&quot;,&quot;1591&quot;,&quot;921&quot;,&quot;735&quot;],[&quot;07&quot;,&quot;2031&quot;,&quot;1283&quot;,&quot;737&quot;],[&quot;08&quot;,&quot;1999&quot;,&quot;1740&quot;,&quot;959&quot;],[&quot;09&quot;,&quot;3065&quot;,&quot;2421&quot;,&quot;901&quot;],[&quot;10&quot;,&quot;2650&quot;,&quot;2449&quot;,&quot;1029&quot;],[&quot;11&quot;,&quot;2694&quot;,&quot;2436&quot;,&quot;733&quot;],[&quot;12&quot;,&quot;2643&quot;,&quot;2336&quot;,&quot;573&quot;],[&quot;13&quot;,&quot;2649&quot;,&quot;2248&quot;,&quot;480&quot;],[&quot;14&quot;,&quot;3091&quot;,&quot;2040&quot;,&quot;2174&quot;],[&quot;15&quot;,&quot;3497&quot;,&quot;1474&quot;,&quot;1491&quot;],[&quot;16&quot;,&quot;3227&quot;,&quot;2008&quot;,&quot;1071&quot;],[&quot;17&quot;,&quot;2732&quot;,&quot;1920&quot;,&quot;798&quot;],[&quot;18&quot;,&quot;2359&quot;,&quot;1352&quot;,&quot;787&quot;],[&quot;19&quot;,&quot;1773&quot;,&quot;884&quot;,&quot;563&quot;],[&quot;22&quot;,&quot;2293&quot;,&quot;2375&quot;,&quot;2582&quot;],[&quot;24&quot;,&quot;1774&quot;,&quot;1041&quot;,&quot;2587&quot;],[&quot;25&quot;,&quot;1561&quot;,&quot;1022&quot;,&quot;2408&quot;],[&quot;26&quot;,&quot;1524&quot;,&quot;927&quot;,&quot;1499&quot;],[&quot;28&quot;,&quot;1323&quot;,&quot;835&quot;,&quot;2194&quot;],[&quot;29&quot;,&quot;1369&quot;,&quot;1041&quot;,&quot;363&quot;],[&quot;30&quot;,&quot;1117&quot;,&quot;994&quot;,&quot;253&quot;],[&quot;31&quot;,&quot;1795&quot;,&quot;1035&quot;,&quot;238&quot;],[&quot;33&quot;,&quot;847&quot;,&quot;999&quot;,&quot;275&quot;],[&quot;34&quot;,&quot;789&quot;,&quot;1077&quot;,&quot;289&quot;],[&quot;35&quot;,&quot;1857&quot;,&quot;1116&quot;,&quot;228&quot;],[&quot;36&quot;,&quot;2774&quot;,&quot;905&quot;,&quot;290&quot;],[&quot;37&quot;,&quot;1113&quot;,&quot;938&quot;,&quot;378&quot;],[&quot;38&quot;,&quot;1548&quot;,&quot;1098&quot;,&quot;465&quot;],[&quot;39&quot;,&quot;1773&quot;,&quot;902&quot;,&quot;299&quot;],[&quot;41&quot;,&quot;513&quot;,&quot;382&quot;,&quot;177&quot;],[&quot;42&quot;,&quot;962&quot;,&quot;1240&quot;,&quot;236&quot;],[&quot;43&quot;,&quot;1162&quot;,&quot;1329&quot;,&quot;622&quot;],[&quot;44&quot;,&quot;2509&quot;,&quot;2037&quot;,&quot;476&quot;],[&quot;45&quot;,&quot;2960&quot;,&quot;1963&quot;,&quot;665&quot;],[&quot;46&quot;,&quot;1471&quot;,&quot;1938&quot;,&quot;450&quot;],[&quot;47&quot;,&quot;1547&quot;,&quot;1714&quot;,&quot;338&quot;],[&quot;48&quot;,&quot;1992&quot;,&quot;1711&quot;,&quot;420&quot;],[&quot;49&quot;,&quot;2217&quot;,&quot;1595&quot;,&quot;670&quot;],[&quot;50&quot;,&quot;1765&quot;,&quot;1480&quot;,&quot;339&quot;],[&quot;51&quot;,&quot;2463&quot;,&quot;1443&quot;,&quot;203&quot;],[&quot;52&quot;,&quot;4130&quot;,&quot;1305&quot;,&quot;576&quot;],[&quot;52&quot;,&quot;3338&quot;,&quot;1357&quot;,&quot;260&quot;],[&quot;01&quot;,&quot;990&quot;,&quot;611&quot;,&quot;531&quot;],[&quot;02&quot;,&quot;318&quot;,&quot;513&quot;,&quot;396&quot;],[&quot;03&quot;,&quot;1367&quot;,&quot;1401&quot;,&quot;1022&quot;],[&quot;04&quot;,&quot;1143&quot;,&quot;1270&quot;,&quot;493&quot;],[&quot;05&quot;,&quot;620&quot;,&quot;985&quot;,&quot;211&quot;],[&quot;06&quot;,&quot;453&quot;,&quot;131&quot;,&quot;28&quot;],[&quot;08&quot;,&quot;449&quot;,&quot;547&quot;,&quot;908&quot;],[&quot;09&quot;,&quot;1083&quot;,&quot;1000&quot;,&quot;775&quot;],[&quot;10&quot;,&quot;537&quot;,&quot;1303&quot;,&quot;810&quot;],[&quot;11&quot;,&quot;761&quot;,&quot;1489&quot;,&quot;951&quot;],[&quot;12&quot;,&quot;1518&quot;,&quot;1910&quot;,&quot;1035&quot;],[&quot;13&quot;,&quot;3513&quot;,&quot;2129&quot;,&quot;767&quot;],[&quot;14&quot;,&quot;413&quot;,&quot;565&quot;,&quot;499&quot;],[&quot;15&quot;,&quot;1110&quot;,&quot;2152&quot;,&quot;597&quot;],[&quot;16&quot;,&quot;1266&quot;,&quot;1881&quot;,&quot;595&quot;],[&quot;17&quot;,&quot;909&quot;,&quot;1314&quot;,&quot;628&quot;],[&quot;18&quot;,&quot;747&quot;,&quot;406&quot;,&quot;517&quot;],[&quot;19&quot;,&quot;1044&quot;,&quot;1456&quot;,&quot;805&quot;],[&quot;20&quot;,&quot;1161&quot;,&quot;1836&quot;,&quot;987&quot;],[&quot;21&quot;,&quot;1502&quot;,&quot;1606&quot;,&quot;862&quot;],[&quot;22&quot;,&quot;2098&quot;,&quot;1889&quot;,&quot;712&quot;],[&quot;23&quot;,&quot;1280&quot;,&quot;1780&quot;,&quot;777&quot;],[&quot;24&quot;,&quot;1312&quot;,&quot;1604&quot;,&quot;673&quot;],[&quot;25&quot;,&quot;1927&quot;,&quot;1994&quot;,&quot;615&quot;]]],&quot;dataType&quot;:&quot;cross-table&quot;,&quot;download&quot;:false,&quot;srcType&quot;:&quot;local&quot;,&quot;url&quot;:&quot;&quot;},&quot;function_type&quot;:[&quot;折线图&quot;],&quot;gif&quot;:&quot;//web.docer.wpscdn.cn/docer/ds-page/v2/images/5948734748594536789.gif?imageView2/2/w/500/quality/90&quot;,&quot;isFree&quot;:&quot;0&quot;,&quot;label&quot;:&quot;&lt;d-smoothline-chart&gt;&quot;,&quot;position&quot;:{&quot;left&quot;:0,&quot;top&quot;:0},&quot;projectId&quot;:&quot;5948734748594536789&quot;,&quot;props&quot;:{&quot;animation&quot;:{&quot;duration&quot;:&quot;1.8&quot;,&quot;easeStyle&quot;:&quot;&quot;,&quot;endPause&quot;:&quot;1&quot;,&quot;moveOptions&quot;:[&quot;依次绘制&quot;,&quot;同时绘制&quot;,&quot;穿针引线&quot;],&quot;moveStyle&quot;:&quot;依次绘制&quot;,&quot;startDelay&quot;:&quot;0&quot;,&quot;transition&quot;:true},&quot;axis&quot;:{&quot;grid&quot;:{&quot;color&quot;:&quot;#e9e9e9&quot;,&quot;gridLineWidth&quot;:&quot;1&quot;,&quot;lineStyle&quot;:&quot;dashline&quot;,&quot;show&quot;:&quot;x&quot;},&quot;x&quot;:{&quot;axisColor&quot;:&quot;#bfbfbf&quot;,&quot;axisLineWidth&quot;:&quot;1&quot;,&quot;axisShow&quot;:true,&quot;labelAngle&quot;:&quot;0&quot;,&quot;labelDirection&quot;:&quot;自动&quot;,&quot;labelDirectionOptions&quot;:[&quot;自动&quot;,&quot;横排&quot;,&quot;竖排&quot;],&quot;labelShow&quot;:true,&quot;name&quot;:&quot;&quot;},&quot;y&quot;:{&quot;axisColor&quot;:&quot;#bfbfbf&quot;,&quot;axisLineWidth&quot;:&quot;1&quot;,&quot;axisShow&quot;:false,&quot;labelShow&quot;:true,&quot;labelSuffix&quot;:&quot;&quot;,&quot;name&quot;:&quot;&quot;,&quot;range&quot;:[],&quot;stepOfLabel&quot;:null}},&quot;backgroundColor&quot;:&quot;&quot;,&quot;colors&quot;:{&quot;colorControlers&quot;:[&quot;multiple&quot;],&quot;list&quot;:[0,1,2],&quot;type&quot;:&quot;multiple&quot;},&quot;display&quot;:{&quot;endPointBorderColor&quot;:&quot;#FFFFFF&quot;,&quot;endPointBorderWidth&quot;:&quot;0&quot;,&quot;endPointFillColor&quot;:null,&quot;endPointRadius&quot;:&quot;0&quot;,&quot;lineWidth&quot;:&quot;2&quot;},&quot;font&quot;:{&quot;color&quot;:&quot;#545454&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;},&quot;label&quot;:{&quot;display&quot;:false,&quot;positionChoice&quot;:&quot;上面&quot;,&quot;positionOptions&quot;:[&quot;上面&quot;,&quot;下面&quot;],&quot;suffix&quot;:&quot;&quot;,&quot;textLabel&quot;:{&quot;color&quot;:&quot;#545454&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;}},&quot;legend&quot;:{&quot;color&quot;:[&quot;#545454&quot;],&quot;fontFamily&quot;:[&quot;黑体&quot;],&quot;fontSize&quot;:&quot;14&quot;,&quot;lineHeight&quot;:&quot;15&quot;,&quot;show&quot;:true,&quot;style&quot;:&quot;&quot;,&quot;styleOptions&quot;:[],&quot;xPosition&quot;:&quot;center&quot;,&quot;yPosition&quot;:&quot;bottom&quot;},&quot;logoDisplay&quot;:{&quot;bottomLineHeight&quot;:&quot;15&quot;,&quot;imgHeight&quot;:&quot;32&quot;,&quot;imgUrl&quot;:&quot;https://ss1.dydata.io/newchartLogo.png&quot;,&quot;show&quot;:true,&quot;topLineHeight&quot;:&quot;11&quot;},&quot;map&quot;:[[{&quot;allowType&quot;:[&quot;string&quot;],&quot;configurable&quot;:false,&quot;function&quot;:&quot;objCol&quot;,&quot;index&quot;:0,&quot;isLegend&quot;:false,&quot;name&quot;:&quot;X轴对象&quot;},{&quot;allowType&quot;:[&quot;number&quot;],&quot;configurable&quot;:true,&quot;function&quot;:&quot;vCol&quot;,&quot;index&quot;:1,&quot;isLegend&quot;:false,&quot;name&quot;:&quot;数值列&quot;},{&quot;allowType&quot;:[&quot;number&quot;],&quot;configurable&quot;:true,&quot;function&quot;:&quot;vCol&quot;,&quot;index&quot;:2,&quot;isLegend&quot;:false,&quot;name&quot;:&quot;数值列&quot;},{&quot;allowType&quot;:[&quot;number&quot;],&quot;configurable&quot;:true,&quot;function&quot;:&quot;vCol&quot;,&quot;index&quot;:3,&quot;isLegend&quot;:false,&quot;name&quot;:&quot;数值列&quot;}]],&quot;numberFormat&quot;:{&quot;decimalPlaces&quot;:null,&quot;style&quot;:&quot;1000.00&quot;},&quot;paddings&quot;:{&quot;bottom&quot;:&quot;33&quot;,&quot;chartBottom&quot;:&quot;5&quot;,&quot;left&quot;:&quot;24&quot;,&quot;right&quot;:&quot;24&quot;,&quot;top&quot;:&quot;24&quot;},&quot;publishDisplay&quot;:{&quot;color&quot;:&quot;#878787&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;,&quot;show&quot;:true,&quot;text&quot;:&quot;镝数出品&quot;},&quot;shadow&quot;:{&quot;display&quot;:false,&quot;shadowAngle&quot;:&quot;45&quot;,&quot;shadowBlur&quot;:&quot;5&quot;,&quot;shadowColor&quot;:&quot;#c6c6c6&quot;,&quot;shadowOpacity&quot;:&quot;100&quot;,&quot;shadowRadius&quot;:&quot;3&quot;},&quot;size&quot;:{&quot;height&quot;:635,&quot;ratio&quot;:null,&quot;rotate&quot;:0,&quot;width&quot;:1735.0000000000002},&quot;sourceDisplay&quot;:{&quot;color&quot;:&quot;#878787&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;,&quot;show&quot;:false,&quot;text&quot;:&quot;数据来源：示例数据&quot;,&quot;topLineHeight&quot;:&quot;15&quot;,&quot;xPosition&quot;:&quot;left&quot;,&quot;yPosition&quot;:&quot;bottom&quot;},&quot;titleDisplay&quot;:{&quot;color&quot;:&quot;#4c4c4c&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;36&quot;,&quot;lineHeight&quot;:&quot;10&quot;,&quot;show&quot;:false,&quot;text&quot;:&quot;2010-2016年一线城市房价变迁&quot;,&quot;totalHeight&quot;:&quot;39&quot;,&quot;xPosition&quot;:&quot;left&quot;,&quot;yPosition&quot;:&quot;top&quot;},&quot;tooltip&quot;:true,&quot;unitDisplay&quot;:{&quot;bottomLineHeight&quot;:&quot;15&quot;,&quot;color&quot;:&quot;#878787&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;,&quot;show&quot;:false,&quot;text&quot;:&quot;单位：元&quot;,&quot;xPosition&quot;:&quot;left&quot;,&quot;yPosition&quot;:&quot;top&quot;},&quot;watermarkDisplay&quot;:{&quot;imgHeight&quot;:&quot;80&quot;,&quot;imgUrl&quot;:&quot;https://ss1.dydata.io/newchartWatermark.png&quot;,&quot;imgWidth&quot;:&quot;80&quot;,&quot;show&quot;:false}},&quot;templateId&quot;:&quot;5948734748594536789&quot;,&quot;templateSwitch&quot;:&quot;cross&quot;,&quot;theme&quot;:{&quot;axis&quot;:{&quot;color&quot;:&quot;#a1a1a1&quot;},&quot;backgroundColor&quot;:&quot;#FFFFFF&quot;,&quot;colors&quot;:[&quot;#5AAEF3&quot;,&quot;#62D9AD&quot;,&quot;#5B6E96&quot;,&quot;#a8dffa&quot;,&quot;#ffdc4c&quot;,&quot;#FF974C&quot;,&quot;#E65A56&quot;,&quot;#6D61E4&quot;,&quot;#4A6FE2&quot;,&quot;#6D9AE7&quot;,&quot;#23C2DB&quot;,&quot;#D4EC59&quot;,&quot;#FFE88E&quot;,&quot;#FEB64D&quot;,&quot;#FB6E6C&quot;],&quot;fonts&quot;:{&quot;accessoryColor&quot;:&quot;#878787&quot;,&quot;color&quot;:&quot;#545454&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;},&quot;grid&quot;:{&quot;color&quot;:&quot;#ccc&quot;},&quot;name&quot;:&quot;默认主题&quot;,&quot;price&quot;:&quot;0.0&quot;,&quot;shapeColor&quot;:1,&quot;themeId&quot;:&quot;18&quot;,&quot;titleFont&quot;:{&quot;color&quot;:&quot;#4c4c4c&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;36&quot;}},&quot;thumb&quot;:&quot;//web.docer.wpscdn.cn/docer/ds-page/v2/images/smoothline.4DBEA3F2.jpg?imageView2/2/w/500/quality/90&quot;,&quot;title&quot;:&quot;曲线折线图&quot;,&quot;type&quot;:&quot;chart&quot;},&quot;dschart_id&quot;:&quot;5948734748594536789&quot;,&quot;id&quot;:&quot;48&quot;}"/>
+    <wpswe:property key="dschart" value="{&quot;dschart_data&quot;:{&quot;blockId&quot;:&quot;161243067189875081&quot;,&quot;chart_type&quot;:&quot;线形图&quot;,&quot;classifty_type&quot;:[&quot;趋势类&quot;],&quot;dataSrc&quot;:{&quot;data&quot;:[[[&quot;第周&quot;,&quot;新房成交量&quot;,&quot;二手房成交量&quot;,&quot;涨价房源&quot;],[&quot;40&quot;,&quot;4665&quot;,&quot;1177&quot;,&quot;180&quot;],[&quot;41&quot;,&quot;662&quot;,&quot;404&quot;,&quot;130&quot;],[&quot;42&quot;,&quot;2162&quot;,&quot;1294&quot;,&quot;214&quot;],[&quot;43&quot;,&quot;2285&quot;,&quot;1195&quot;,&quot;170&quot;],[&quot;44&quot;,&quot;3768&quot;,&quot;1204&quot;,&quot;210&quot;],[&quot;45&quot;,&quot;2916&quot;,&quot;1188&quot;,&quot;213&quot;],[&quot;46&quot;,&quot;2079&quot;,&quot;1145&quot;,&quot;248&quot;],[&quot;47&quot;,&quot;2510&quot;,&quot;1155&quot;,&quot;289&quot;],[&quot;48&quot;,&quot;2382&quot;,&quot;1388&quot;,&quot;313&quot;],[&quot;49&quot;,&quot;3044&quot;,&quot;1350&quot;,&quot;409&quot;],[&quot;50&quot;,&quot;2282&quot;,&quot;1243&quot;,&quot;355&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;52&quot;,&quot;1721&quot;,&quot;1228&quot;,&quot;286&quot;],[&quot;53&quot;,&quot;1721&quot;,&quot;1228&quot;,&quot;286&quot;],[&quot;02&quot;,&quot;1721&quot;,&quot;1228&quot;,&quot;286&quot;],[&quot;03&quot;,&quot;3939&quot;,&quot;1112&quot;,&quot;247&quot;],[&quot;04&quot;,&quot;1575&quot;,&quot;292&quot;,&quot;92&quot;],[&quot;05&quot;,&quot;348&quot;,&quot;108&quot;,&quot;73&quot;],[&quot;06&quot;,&quot;1591&quot;,&quot;921&quot;,&quot;735&quot;],[&quot;07&quot;,&quot;2031&quot;,&quot;1283&quot;,&quot;737&quot;],[&quot;08&quot;,&quot;1999&quot;,&quot;1740&quot;,&quot;959&quot;],[&quot;09&quot;,&quot;3065&quot;,&quot;2421&quot;,&quot;901&quot;],[&quot;10&quot;,&quot;2650&quot;,&quot;2449&quot;,&quot;1029&quot;],[&quot;11&quot;,&quot;2694&quot;,&quot;2436&quot;,&quot;733&quot;],[&quot;12&quot;,&quot;2643&quot;,&quot;2336&quot;,&quot;573&quot;],[&quot;13&quot;,&quot;2649&quot;,&quot;2248&quot;,&quot;480&quot;],[&quot;14&quot;,&quot;3091&quot;,&quot;2040&quot;,&quot;2174&quot;],[&quot;15&quot;,&quot;3497&quot;,&quot;1474&quot;,&quot;1491&quot;],[&quot;16&quot;,&quot;3227&quot;,&quot;2008&quot;,&quot;1071&quot;],[&quot;17&quot;,&quot;2732&quot;,&quot;1920&quot;,&quot;798&quot;],[&quot;18&quot;,&quot;2359&quot;,&quot;1352&quot;,&quot;787&quot;],[&quot;19&quot;,&quot;1773&quot;,&quot;884&quot;,&quot;563&quot;],[&quot;22&quot;,&quot;2293&quot;,&quot;2375&quot;,&quot;2582&quot;],[&quot;24&quot;,&quot;1774&quot;,&quot;1041&quot;,&quot;2587&quot;],[&quot;25&quot;,&quot;1561&quot;,&quot;1022&quot;,&quot;2408&quot;],[&quot;26&quot;,&quot;1524&quot;,&quot;927&quot;,&quot;1499&quot;],[&quot;28&quot;,&quot;1323&quot;,&quot;835&quot;,&quot;2194&quot;],[&quot;29&quot;,&quot;1369&quot;,&quot;1041&quot;,&quot;363&quot;],[&quot;30&quot;,&quot;1117&quot;,&quot;994&quot;,&quot;253&quot;],[&quot;31&quot;,&quot;1795&quot;,&quot;1035&quot;,&quot;238&quot;],[&quot;33&quot;,&quot;847&quot;,&quot;999&quot;,&quot;275&quot;],[&quot;34&quot;,&quot;789&quot;,&quot;1077&quot;,&quot;289&quot;],[&quot;35&quot;,&quot;1857&quot;,&quot;1116&quot;,&quot;228&quot;],[&quot;36&quot;,&quot;2774&quot;,&quot;905&quot;,&quot;290&quot;],[&quot;37&quot;,&quot;1113&quot;,&quot;938&quot;,&quot;378&quot;],[&quot;38&quot;,&quot;1548&quot;,&quot;1098&quot;,&quot;465&quot;],[&quot;39&quot;,&quot;1773&quot;,&quot;902&quot;,&quot;299&quot;],[&quot;41&quot;,&quot;513&quot;,&quot;382&quot;,&quot;177&quot;],[&quot;42&quot;,&quot;962&quot;,&quot;1240&quot;,&quot;236&quot;],[&quot;43&quot;,&quot;1162&quot;,&quot;1329&quot;,&quot;622&quot;],[&quot;44&quot;,&quot;2509&quot;,&quot;2037&quot;,&quot;476&quot;],[&quot;45&quot;,&quot;2960&quot;,&quot;1963&quot;,&quot;665&quot;],[&quot;46&quot;,&quot;1471&quot;,&quot;1938&quot;,&quot;450&quot;],[&quot;47&quot;,&quot;1547&quot;,&quot;1714&quot;,&quot;338&quot;],[&quot;48&quot;,&quot;1992&quot;,&quot;1711&quot;,&quot;420&quot;],[&quot;49&quot;,&quot;2217&quot;,&quot;1595&quot;,&quot;670&quot;],[&quot;50&quot;,&quot;1765&quot;,&quot;1480&quot;,&quot;339&quot;],[&quot;51&quot;,&quot;2463&quot;,&quot;1443&quot;,&quot;203&quot;],[&quot;52&quot;,&quot;4130&quot;,&quot;1305&quot;,&quot;576&quot;],[&quot;52&quot;,&quot;3338&quot;,&quot;1357&quot;,&quot;260&quot;],[&quot;01&quot;,&quot;990&quot;,&quot;611&quot;,&quot;531&quot;],[&quot;02&quot;,&quot;318&quot;,&quot;513&quot;,&quot;396&quot;],[&quot;03&quot;,&quot;1367&quot;,&quot;1401&quot;,&quot;1022&quot;],[&quot;04&quot;,&quot;1143&quot;,&quot;1270&quot;,&quot;493&quot;],[&quot;05&quot;,&quot;620&quot;,&quot;985&quot;,&quot;211&quot;],[&quot;06&quot;,&quot;453&quot;,&quot;131&quot;,&quot;28&quot;],[&quot;08&quot;,&quot;449&quot;,&quot;547&quot;,&quot;908&quot;],[&quot;09&quot;,&quot;1083&quot;,&quot;1000&quot;,&quot;775&quot;],[&quot;10&quot;,&quot;537&quot;,&quot;1303&quot;,&quot;810&quot;],[&quot;11&quot;,&quot;761&quot;,&quot;1489&quot;,&quot;951&quot;],[&quot;12&quot;,&quot;1518&quot;,&quot;1910&quot;,&quot;1035&quot;],[&quot;13&quot;,&quot;3513&quot;,&quot;2129&quot;,&quot;767&quot;],[&quot;14&quot;,&quot;413&quot;,&quot;565&quot;,&quot;499&quot;],[&quot;15&quot;,&quot;1110&quot;,&quot;2152&quot;,&quot;597&quot;],[&quot;16&quot;,&quot;1266&quot;,&quot;1881&quot;,&quot;595&quot;],[&quot;17&quot;,&quot;909&quot;,&quot;1314&quot;,&quot;628&quot;],[&quot;18&quot;,&quot;747&quot;,&quot;406&quot;,&quot;517&quot;],[&quot;19&quot;,&quot;1044&quot;,&quot;1456&quot;,&quot;805&quot;],[&quot;20&quot;,&quot;1161&quot;,&quot;1836&quot;,&quot;987&quot;],[&quot;21&quot;,&quot;1502&quot;,&quot;1606&quot;,&quot;862&quot;],[&quot;22&quot;,&quot;2098&quot;,&quot;1889&quot;,&quot;712&quot;],[&quot;23&quot;,&quot;1280&quot;,&quot;1780&quot;,&quot;777&quot;],[&quot;24&quot;,&quot;1312&quot;,&quot;1604&quot;,&quot;673&quot;],[&quot;25&quot;,&quot;1927&quot;,&quot;1994&quot;,&quot;615&quot;],[&quot;26&quot;,&quot;4747&quot;,&quot;1859&quot;,&quot;595&quot;]]],&quot;dataType&quot;:&quot;cross-table&quot;,&quot;download&quot;:false,&quot;srcType&quot;:&quot;local&quot;,&quot;url&quot;:&quot;&quot;},&quot;function_type&quot;:[&quot;折线图&quot;],&quot;gif&quot;:&quot;//web.docer.wpscdn.cn/docer/ds-page/v2/images/5948734748594536789.gif?imageView2/2/w/500/quality/90&quot;,&quot;isFree&quot;:&quot;0&quot;,&quot;label&quot;:&quot;&lt;d-smoothline-chart&gt;&quot;,&quot;position&quot;:{&quot;left&quot;:0,&quot;top&quot;:0},&quot;projectId&quot;:&quot;5948734748594536789&quot;,&quot;props&quot;:{&quot;animation&quot;:{&quot;duration&quot;:&quot;1.8&quot;,&quot;easeStyle&quot;:&quot;&quot;,&quot;endPause&quot;:&quot;1&quot;,&quot;moveOptions&quot;:[&quot;依次绘制&quot;,&quot;同时绘制&quot;,&quot;穿针引线&quot;],&quot;moveStyle&quot;:&quot;依次绘制&quot;,&quot;startDelay&quot;:&quot;0&quot;,&quot;transition&quot;:true},&quot;axis&quot;:{&quot;grid&quot;:{&quot;color&quot;:&quot;#e9e9e9&quot;,&quot;gridLineWidth&quot;:&quot;1&quot;,&quot;lineStyle&quot;:&quot;dashline&quot;,&quot;show&quot;:&quot;x&quot;},&quot;x&quot;:{&quot;axisColor&quot;:&quot;#bfbfbf&quot;,&quot;axisLineWidth&quot;:&quot;1&quot;,&quot;axisShow&quot;:true,&quot;labelAngle&quot;:&quot;0&quot;,&quot;labelDirection&quot;:&quot;自动&quot;,&quot;labelDirectionOptions&quot;:[&quot;自动&quot;,&quot;横排&quot;,&quot;竖排&quot;],&quot;labelShow&quot;:true,&quot;name&quot;:&quot;&quot;},&quot;y&quot;:{&quot;axisColor&quot;:&quot;#bfbfbf&quot;,&quot;axisLineWidth&quot;:&quot;1&quot;,&quot;axisShow&quot;:false,&quot;labelShow&quot;:true,&quot;labelSuffix&quot;:&quot;&quot;,&quot;name&quot;:&quot;&quot;,&quot;range&quot;:[],&quot;stepOfLabel&quot;:null}},&quot;backgroundColor&quot;:&quot;&quot;,&quot;colors&quot;:{&quot;colorControlers&quot;:[&quot;multiple&quot;],&quot;list&quot;:[0,1,2],&quot;type&quot;:&quot;multiple&quot;},&quot;display&quot;:{&quot;endPointBorderColor&quot;:&quot;#FFFFFF&quot;,&quot;endPointBorderWidth&quot;:&quot;0&quot;,&quot;endPointFillColor&quot;:null,&quot;endPointRadius&quot;:&quot;0&quot;,&quot;lineWidth&quot;:&quot;2&quot;},&quot;font&quot;:{&quot;color&quot;:&quot;#545454&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;},&quot;label&quot;:{&quot;display&quot;:false,&quot;positionChoice&quot;:&quot;上面&quot;,&quot;positionOptions&quot;:[&quot;上面&quot;,&quot;下面&quot;],&quot;suffix&quot;:&quot;&quot;,&quot;textLabel&quot;:{&quot;color&quot;:&quot;#545454&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;}},&quot;legend&quot;:{&quot;color&quot;:[&quot;#545454&quot;],&quot;fontFamily&quot;:[&quot;黑体&quot;],&quot;fontSize&quot;:&quot;14&quot;,&quot;lineHeight&quot;:&quot;15&quot;,&quot;show&quot;:true,&quot;style&quot;:&quot;&quot;,&quot;styleOptions&quot;:[],&quot;xPosition&quot;:&quot;center&quot;,&quot;yPosition&quot;:&quot;bottom&quot;},&quot;logoDisplay&quot;:{&quot;bottomLineHeight&quot;:&quot;15&quot;,&quot;imgHeight&quot;:&quot;32&quot;,&quot;imgUrl&quot;:&quot;https://ss1.dydata.io/newchartLogo.png&quot;,&quot;show&quot;:true,&quot;topLineHeight&quot;:&quot;11&quot;},&quot;map&quot;:[[{&quot;allowType&quot;:[&quot;string&quot;],&quot;configurable&quot;:false,&quot;function&quot;:&quot;objCol&quot;,&quot;index&quot;:0,&quot;isLegend&quot;:false,&quot;name&quot;:&quot;X轴对象&quot;},{&quot;allowType&quot;:[&quot;number&quot;],&quot;configurable&quot;:true,&quot;function&quot;:&quot;vCol&quot;,&quot;index&quot;:1,&quot;isLegend&quot;:false,&quot;name&quot;:&quot;数值列&quot;},{&quot;allowType&quot;:[&quot;number&quot;],&quot;configurable&quot;:true,&quot;function&quot;:&quot;vCol&quot;,&quot;index&quot;:2,&quot;isLegend&quot;:false,&quot;name&quot;:&quot;数值列&quot;},{&quot;allowType&quot;:[&quot;number&quot;],&quot;configurable&quot;:true,&quot;function&quot;:&quot;vCol&quot;,&quot;index&quot;:3,&quot;isLegend&quot;:false,&quot;name&quot;:&quot;数值列&quot;}]],&quot;numberFormat&quot;:{&quot;decimalPlaces&quot;:null,&quot;style&quot;:&quot;1000.00&quot;},&quot;paddings&quot;:{&quot;bottom&quot;:&quot;33&quot;,&quot;chartBottom&quot;:&quot;5&quot;,&quot;left&quot;:&quot;24&quot;,&quot;right&quot;:&quot;24&quot;,&quot;top&quot;:&quot;24&quot;},&quot;publishDisplay&quot;:{&quot;color&quot;:&quot;#878787&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;,&quot;show&quot;:true,&quot;text&quot;:&quot;镝数出品&quot;},&quot;shadow&quot;:{&quot;display&quot;:false,&quot;shadowAngle&quot;:&quot;45&quot;,&quot;shadowBlur&quot;:&quot;5&quot;,&quot;shadowColor&quot;:&quot;#c6c6c6&quot;,&quot;shadowOpacity&quot;:&quot;100&quot;,&quot;shadowRadius&quot;:&quot;3&quot;},&quot;size&quot;:{&quot;height&quot;:635,&quot;ratio&quot;:null,&quot;rotate&quot;:0,&quot;width&quot;:1735.0000000000002},&quot;sourceDisplay&quot;:{&quot;color&quot;:&quot;#878787&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;,&quot;show&quot;:false,&quot;text&quot;:&quot;数据来源：示例数据&quot;,&quot;topLineHeight&quot;:&quot;15&quot;,&quot;xPosition&quot;:&quot;left&quot;,&quot;yPosition&quot;:&quot;bottom&quot;},&quot;titleDisplay&quot;:{&quot;color&quot;:&quot;#4c4c4c&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;36&quot;,&quot;lineHeight&quot;:&quot;10&quot;,&quot;show&quot;:false,&quot;text&quot;:&quot;2010-2016年一线城市房价变迁&quot;,&quot;totalHeight&quot;:&quot;39&quot;,&quot;xPosition&quot;:&quot;left&quot;,&quot;yPosition&quot;:&quot;top&quot;},&quot;tooltip&quot;:true,&quot;unitDisplay&quot;:{&quot;bottomLineHeight&quot;:&quot;15&quot;,&quot;color&quot;:&quot;#878787&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;,&quot;show&quot;:false,&quot;text&quot;:&quot;单位：元&quot;,&quot;xPosition&quot;:&quot;left&quot;,&quot;yPosition&quot;:&quot;top&quot;},&quot;watermarkDisplay&quot;:{&quot;imgHeight&quot;:&quot;80&quot;,&quot;imgUrl&quot;:&quot;https://ss1.dydata.io/newchartWatermark.png&quot;,&quot;imgWidth&quot;:&quot;80&quot;,&quot;show&quot;:false}},&quot;templateId&quot;:&quot;5948734748594536789&quot;,&quot;templateSwitch&quot;:&quot;cross&quot;,&quot;theme&quot;:{&quot;axis&quot;:{&quot;color&quot;:&quot;#a1a1a1&quot;},&quot;backgroundColor&quot;:&quot;#FFFFFF&quot;,&quot;colors&quot;:[&quot;#5AAEF3&quot;,&quot;#62D9AD&quot;,&quot;#5B6E96&quot;,&quot;#a8dffa&quot;,&quot;#ffdc4c&quot;,&quot;#FF974C&quot;,&quot;#E65A56&quot;,&quot;#6D61E4&quot;,&quot;#4A6FE2&quot;,&quot;#6D9AE7&quot;,&quot;#23C2DB&quot;,&quot;#D4EC59&quot;,&quot;#FFE88E&quot;,&quot;#FEB64D&quot;,&quot;#FB6E6C&quot;],&quot;fonts&quot;:{&quot;accessoryColor&quot;:&quot;#878787&quot;,&quot;color&quot;:&quot;#545454&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;},&quot;grid&quot;:{&quot;color&quot;:&quot;#ccc&quot;},&quot;name&quot;:&quot;默认主题&quot;,&quot;price&quot;:&quot;0.0&quot;,&quot;shapeColor&quot;:1,&quot;themeId&quot;:&quot;18&quot;,&quot;titleFont&quot;:{&quot;color&quot;:&quot;#4c4c4c&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;36&quot;}},&quot;thumb&quot;:&quot;//web.docer.wpscdn.cn/docer/ds-page/v2/images/smoothline.4DBEA3F2.jpg?imageView2/2/w/500/quality/90&quot;,&quot;title&quot;:&quot;曲线折线图&quot;,&quot;type&quot;:&quot;chart&quot;},&quot;dschart_id&quot;:&quot;5948734748594536789&quot;,&quot;id&quot;:&quot;48&quot;}"/>
     <wpswe:property key="isUseCommonErrorPage" value="false"/>
     <wpswe:property key="loadingImage" value="res:/icons/DsWebShapeDefaultPage.svg"/>
   </wpswe:properties>
@@ -3293,8 +3299,8 @@
     <wpswe:linkPath>E:\03.SRC\Python\GetData\hz杭州成交周报.xlsx</wpswe:linkPath>
     <wpswe:dataRange>
       <wpswe:key>data_source</wpswe:key>
-      <wpswe:context>Sheet1!$B$1:$E$95</wpswe:context>
-      <wpswe:count>95</wpswe:count>
+      <wpswe:context>Sheet1!$B$1:$E$96</wpswe:context>
+      <wpswe:count>96</wpswe:count>
       <wpswe:cells wpswe:idx="0">
         <wpswe:count>4</wpswe:count>
         <wpswe:formatCode>General</wpswe:formatCode>
@@ -4813,6 +4819,22 @@
         </wpswe:cell>
         <wpswe:cell wpswe:idx="3">
           <wpswe:value>615</wpswe:value>
+        </wpswe:cell>
+      </wpswe:cells>
+      <wpswe:cells wpswe:idx="95">
+        <wpswe:count>4</wpswe:count>
+        <wpswe:formatCode>General</wpswe:formatCode>
+        <wpswe:cell wpswe:idx="0">
+          <wpswe:value>26</wpswe:value>
+        </wpswe:cell>
+        <wpswe:cell wpswe:idx="1">
+          <wpswe:value>4747</wpswe:value>
+        </wpswe:cell>
+        <wpswe:cell wpswe:idx="2">
+          <wpswe:value>1859</wpswe:value>
+        </wpswe:cell>
+        <wpswe:cell wpswe:idx="3">
+          <wpswe:value>595</wpswe:value>
         </wpswe:cell>
       </wpswe:cells>
     </wpswe:dataRange>
@@ -4948,10 +4970,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M95"/>
+  <dimension ref="A1:M96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="H111" sqref="H111"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6598,16 +6620,16 @@
       <c r="A92" s="2">
         <v>2024</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C92" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="D92" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="E92" s="5" t="s">
+      <c r="E92" s="4" t="s">
         <v>284</v>
       </c>
     </row>
@@ -6615,16 +6637,16 @@
       <c r="A93" s="2">
         <v>2024</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="C93" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="D93" s="5" t="s">
+      <c r="D93" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="E93" s="5" t="s">
+      <c r="E93" s="4" t="s">
         <v>288</v>
       </c>
     </row>
@@ -6632,16 +6654,16 @@
       <c r="A94" s="2">
         <v>2024</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="C94" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="D94" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="E94" s="5" t="s">
+      <c r="E94" s="4" t="s">
         <v>291</v>
       </c>
     </row>
@@ -6649,17 +6671,34 @@
       <c r="A95" s="2">
         <v>2024</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="C95" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="D95" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="E95" s="5" t="s">
+      <c r="E95" s="4" t="s">
         <v>294</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="2">
+        <v>2024</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -6678,28 +6717,28 @@
   <dimension ref="B1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J56" sqref="J56"/>
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <sheetData>
     <row r="1" spans="2:8">
       <c r="B1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="2:8">
       <c r="B2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -6708,12 +6747,12 @@
         <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -6724,7 +6763,7 @@
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -6738,10 +6777,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>4</v>

--- a/hz杭州成交周报.xlsx
+++ b/hz杭州成交周报.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="313">
   <si>
     <t>第年</t>
   </si>
@@ -919,6 +919,24 @@
   </si>
   <si>
     <t>1859</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>1307</t>
+  </si>
+  <si>
+    <t>1530</t>
+  </si>
+  <si>
+    <t>1038</t>
+  </si>
+  <si>
+    <t>1090</t>
+  </si>
+  <si>
+    <t>1590</t>
   </si>
   <si>
     <t>姓名</t>
@@ -3291,7 +3309,7 @@
   <wpswe:properties>
     <wpswe:property key="DiscardFirstCodeChange" value="0"/>
     <wpswe:property key="autoSnapshot" value="0"/>
-    <wpswe:property key="dschart" value="{&quot;dschart_data&quot;:{&quot;blockId&quot;:&quot;161243067189875081&quot;,&quot;chart_type&quot;:&quot;线形图&quot;,&quot;classifty_type&quot;:[&quot;趋势类&quot;],&quot;dataSrc&quot;:{&quot;data&quot;:[[[&quot;第周&quot;,&quot;新房成交量&quot;,&quot;二手房成交量&quot;,&quot;涨价房源&quot;],[&quot;40&quot;,&quot;4665&quot;,&quot;1177&quot;,&quot;180&quot;],[&quot;41&quot;,&quot;662&quot;,&quot;404&quot;,&quot;130&quot;],[&quot;42&quot;,&quot;2162&quot;,&quot;1294&quot;,&quot;214&quot;],[&quot;43&quot;,&quot;2285&quot;,&quot;1195&quot;,&quot;170&quot;],[&quot;44&quot;,&quot;3768&quot;,&quot;1204&quot;,&quot;210&quot;],[&quot;45&quot;,&quot;2916&quot;,&quot;1188&quot;,&quot;213&quot;],[&quot;46&quot;,&quot;2079&quot;,&quot;1145&quot;,&quot;248&quot;],[&quot;47&quot;,&quot;2510&quot;,&quot;1155&quot;,&quot;289&quot;],[&quot;48&quot;,&quot;2382&quot;,&quot;1388&quot;,&quot;313&quot;],[&quot;49&quot;,&quot;3044&quot;,&quot;1350&quot;,&quot;409&quot;],[&quot;50&quot;,&quot;2282&quot;,&quot;1243&quot;,&quot;355&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;52&quot;,&quot;1721&quot;,&quot;1228&quot;,&quot;286&quot;],[&quot;53&quot;,&quot;1721&quot;,&quot;1228&quot;,&quot;286&quot;],[&quot;02&quot;,&quot;1721&quot;,&quot;1228&quot;,&quot;286&quot;],[&quot;03&quot;,&quot;3939&quot;,&quot;1112&quot;,&quot;247&quot;],[&quot;04&quot;,&quot;1575&quot;,&quot;292&quot;,&quot;92&quot;],[&quot;05&quot;,&quot;348&quot;,&quot;108&quot;,&quot;73&quot;],[&quot;06&quot;,&quot;1591&quot;,&quot;921&quot;,&quot;735&quot;],[&quot;07&quot;,&quot;2031&quot;,&quot;1283&quot;,&quot;737&quot;],[&quot;08&quot;,&quot;1999&quot;,&quot;1740&quot;,&quot;959&quot;],[&quot;09&quot;,&quot;3065&quot;,&quot;2421&quot;,&quot;901&quot;],[&quot;10&quot;,&quot;2650&quot;,&quot;2449&quot;,&quot;1029&quot;],[&quot;11&quot;,&quot;2694&quot;,&quot;2436&quot;,&quot;733&quot;],[&quot;12&quot;,&quot;2643&quot;,&quot;2336&quot;,&quot;573&quot;],[&quot;13&quot;,&quot;2649&quot;,&quot;2248&quot;,&quot;480&quot;],[&quot;14&quot;,&quot;3091&quot;,&quot;2040&quot;,&quot;2174&quot;],[&quot;15&quot;,&quot;3497&quot;,&quot;1474&quot;,&quot;1491&quot;],[&quot;16&quot;,&quot;3227&quot;,&quot;2008&quot;,&quot;1071&quot;],[&quot;17&quot;,&quot;2732&quot;,&quot;1920&quot;,&quot;798&quot;],[&quot;18&quot;,&quot;2359&quot;,&quot;1352&quot;,&quot;787&quot;],[&quot;19&quot;,&quot;1773&quot;,&quot;884&quot;,&quot;563&quot;],[&quot;22&quot;,&quot;2293&quot;,&quot;2375&quot;,&quot;2582&quot;],[&quot;24&quot;,&quot;1774&quot;,&quot;1041&quot;,&quot;2587&quot;],[&quot;25&quot;,&quot;1561&quot;,&quot;1022&quot;,&quot;2408&quot;],[&quot;26&quot;,&quot;1524&quot;,&quot;927&quot;,&quot;1499&quot;],[&quot;28&quot;,&quot;1323&quot;,&quot;835&quot;,&quot;2194&quot;],[&quot;29&quot;,&quot;1369&quot;,&quot;1041&quot;,&quot;363&quot;],[&quot;30&quot;,&quot;1117&quot;,&quot;994&quot;,&quot;253&quot;],[&quot;31&quot;,&quot;1795&quot;,&quot;1035&quot;,&quot;238&quot;],[&quot;33&quot;,&quot;847&quot;,&quot;999&quot;,&quot;275&quot;],[&quot;34&quot;,&quot;789&quot;,&quot;1077&quot;,&quot;289&quot;],[&quot;35&quot;,&quot;1857&quot;,&quot;1116&quot;,&quot;228&quot;],[&quot;36&quot;,&quot;2774&quot;,&quot;905&quot;,&quot;290&quot;],[&quot;37&quot;,&quot;1113&quot;,&quot;938&quot;,&quot;378&quot;],[&quot;38&quot;,&quot;1548&quot;,&quot;1098&quot;,&quot;465&quot;],[&quot;39&quot;,&quot;1773&quot;,&quot;902&quot;,&quot;299&quot;],[&quot;41&quot;,&quot;513&quot;,&quot;382&quot;,&quot;177&quot;],[&quot;42&quot;,&quot;962&quot;,&quot;1240&quot;,&quot;236&quot;],[&quot;43&quot;,&quot;1162&quot;,&quot;1329&quot;,&quot;622&quot;],[&quot;44&quot;,&quot;2509&quot;,&quot;2037&quot;,&quot;476&quot;],[&quot;45&quot;,&quot;2960&quot;,&quot;1963&quot;,&quot;665&quot;],[&quot;46&quot;,&quot;1471&quot;,&quot;1938&quot;,&quot;450&quot;],[&quot;47&quot;,&quot;1547&quot;,&quot;1714&quot;,&quot;338&quot;],[&quot;48&quot;,&quot;1992&quot;,&quot;1711&quot;,&quot;420&quot;],[&quot;49&quot;,&quot;2217&quot;,&quot;1595&quot;,&quot;670&quot;],[&quot;50&quot;,&quot;1765&quot;,&quot;1480&quot;,&quot;339&quot;],[&quot;51&quot;,&quot;2463&quot;,&quot;1443&quot;,&quot;203&quot;],[&quot;52&quot;,&quot;4130&quot;,&quot;1305&quot;,&quot;576&quot;],[&quot;52&quot;,&quot;3338&quot;,&quot;1357&quot;,&quot;260&quot;],[&quot;01&quot;,&quot;990&quot;,&quot;611&quot;,&quot;531&quot;],[&quot;02&quot;,&quot;318&quot;,&quot;513&quot;,&quot;396&quot;],[&quot;03&quot;,&quot;1367&quot;,&quot;1401&quot;,&quot;1022&quot;],[&quot;04&quot;,&quot;1143&quot;,&quot;1270&quot;,&quot;493&quot;],[&quot;05&quot;,&quot;620&quot;,&quot;985&quot;,&quot;211&quot;],[&quot;06&quot;,&quot;453&quot;,&quot;131&quot;,&quot;28&quot;],[&quot;08&quot;,&quot;449&quot;,&quot;547&quot;,&quot;908&quot;],[&quot;09&quot;,&quot;1083&quot;,&quot;1000&quot;,&quot;775&quot;],[&quot;10&quot;,&quot;537&quot;,&quot;1303&quot;,&quot;810&quot;],[&quot;11&quot;,&quot;761&quot;,&quot;1489&quot;,&quot;951&quot;],[&quot;12&quot;,&quot;1518&quot;,&quot;1910&quot;,&quot;1035&quot;],[&quot;13&quot;,&quot;3513&quot;,&quot;2129&quot;,&quot;767&quot;],[&quot;14&quot;,&quot;413&quot;,&quot;565&quot;,&quot;499&quot;],[&quot;15&quot;,&quot;1110&quot;,&quot;2152&quot;,&quot;597&quot;],[&quot;16&quot;,&quot;1266&quot;,&quot;1881&quot;,&quot;595&quot;],[&quot;17&quot;,&quot;909&quot;,&quot;1314&quot;,&quot;628&quot;],[&quot;18&quot;,&quot;747&quot;,&quot;406&quot;,&quot;517&quot;],[&quot;19&quot;,&quot;1044&quot;,&quot;1456&quot;,&quot;805&quot;],[&quot;20&quot;,&quot;1161&quot;,&quot;1836&quot;,&quot;987&quot;],[&quot;21&quot;,&quot;1502&quot;,&quot;1606&quot;,&quot;862&quot;],[&quot;22&quot;,&quot;2098&quot;,&quot;1889&quot;,&quot;712&quot;],[&quot;23&quot;,&quot;1280&quot;,&quot;1780&quot;,&quot;777&quot;],[&quot;24&quot;,&quot;1312&quot;,&quot;1604&quot;,&quot;673&quot;],[&quot;25&quot;,&quot;1927&quot;,&quot;1994&quot;,&quot;615&quot;],[&quot;26&quot;,&quot;4747&quot;,&quot;1859&quot;,&quot;595&quot;]]],&quot;dataType&quot;:&quot;cross-table&quot;,&quot;download&quot;:false,&quot;srcType&quot;:&quot;local&quot;,&quot;url&quot;:&quot;&quot;},&quot;function_type&quot;:[&quot;折线图&quot;],&quot;gif&quot;:&quot;//web.docer.wpscdn.cn/docer/ds-page/v2/images/5948734748594536789.gif?imageView2/2/w/500/quality/90&quot;,&quot;isFree&quot;:&quot;0&quot;,&quot;label&quot;:&quot;&lt;d-smoothline-chart&gt;&quot;,&quot;position&quot;:{&quot;left&quot;:0,&quot;top&quot;:0},&quot;projectId&quot;:&quot;5948734748594536789&quot;,&quot;props&quot;:{&quot;animation&quot;:{&quot;duration&quot;:&quot;1.8&quot;,&quot;easeStyle&quot;:&quot;&quot;,&quot;endPause&quot;:&quot;1&quot;,&quot;moveOptions&quot;:[&quot;依次绘制&quot;,&quot;同时绘制&quot;,&quot;穿针引线&quot;],&quot;moveStyle&quot;:&quot;依次绘制&quot;,&quot;startDelay&quot;:&quot;0&quot;,&quot;transition&quot;:true},&quot;axis&quot;:{&quot;grid&quot;:{&quot;color&quot;:&quot;#e9e9e9&quot;,&quot;gridLineWidth&quot;:&quot;1&quot;,&quot;lineStyle&quot;:&quot;dashline&quot;,&quot;show&quot;:&quot;x&quot;},&quot;x&quot;:{&quot;axisColor&quot;:&quot;#bfbfbf&quot;,&quot;axisLineWidth&quot;:&quot;1&quot;,&quot;axisShow&quot;:true,&quot;labelAngle&quot;:&quot;0&quot;,&quot;labelDirection&quot;:&quot;自动&quot;,&quot;labelDirectionOptions&quot;:[&quot;自动&quot;,&quot;横排&quot;,&quot;竖排&quot;],&quot;labelShow&quot;:true,&quot;name&quot;:&quot;&quot;},&quot;y&quot;:{&quot;axisColor&quot;:&quot;#bfbfbf&quot;,&quot;axisLineWidth&quot;:&quot;1&quot;,&quot;axisShow&quot;:false,&quot;labelShow&quot;:true,&quot;labelSuffix&quot;:&quot;&quot;,&quot;name&quot;:&quot;&quot;,&quot;range&quot;:[],&quot;stepOfLabel&quot;:null}},&quot;backgroundColor&quot;:&quot;&quot;,&quot;colors&quot;:{&quot;colorControlers&quot;:[&quot;multiple&quot;],&quot;list&quot;:[0,1,2],&quot;type&quot;:&quot;multiple&quot;},&quot;display&quot;:{&quot;endPointBorderColor&quot;:&quot;#FFFFFF&quot;,&quot;endPointBorderWidth&quot;:&quot;0&quot;,&quot;endPointFillColor&quot;:null,&quot;endPointRadius&quot;:&quot;0&quot;,&quot;lineWidth&quot;:&quot;2&quot;},&quot;font&quot;:{&quot;color&quot;:&quot;#545454&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;},&quot;label&quot;:{&quot;display&quot;:false,&quot;positionChoice&quot;:&quot;上面&quot;,&quot;positionOptions&quot;:[&quot;上面&quot;,&quot;下面&quot;],&quot;suffix&quot;:&quot;&quot;,&quot;textLabel&quot;:{&quot;color&quot;:&quot;#545454&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;}},&quot;legend&quot;:{&quot;color&quot;:[&quot;#545454&quot;],&quot;fontFamily&quot;:[&quot;黑体&quot;],&quot;fontSize&quot;:&quot;14&quot;,&quot;lineHeight&quot;:&quot;15&quot;,&quot;show&quot;:true,&quot;style&quot;:&quot;&quot;,&quot;styleOptions&quot;:[],&quot;xPosition&quot;:&quot;center&quot;,&quot;yPosition&quot;:&quot;bottom&quot;},&quot;logoDisplay&quot;:{&quot;bottomLineHeight&quot;:&quot;15&quot;,&quot;imgHeight&quot;:&quot;32&quot;,&quot;imgUrl&quot;:&quot;https://ss1.dydata.io/newchartLogo.png&quot;,&quot;show&quot;:true,&quot;topLineHeight&quot;:&quot;11&quot;},&quot;map&quot;:[[{&quot;allowType&quot;:[&quot;string&quot;],&quot;configurable&quot;:false,&quot;function&quot;:&quot;objCol&quot;,&quot;index&quot;:0,&quot;isLegend&quot;:false,&quot;name&quot;:&quot;X轴对象&quot;},{&quot;allowType&quot;:[&quot;number&quot;],&quot;configurable&quot;:true,&quot;function&quot;:&quot;vCol&quot;,&quot;index&quot;:1,&quot;isLegend&quot;:false,&quot;name&quot;:&quot;数值列&quot;},{&quot;allowType&quot;:[&quot;number&quot;],&quot;configurable&quot;:true,&quot;function&quot;:&quot;vCol&quot;,&quot;index&quot;:2,&quot;isLegend&quot;:false,&quot;name&quot;:&quot;数值列&quot;},{&quot;allowType&quot;:[&quot;number&quot;],&quot;configurable&quot;:true,&quot;function&quot;:&quot;vCol&quot;,&quot;index&quot;:3,&quot;isLegend&quot;:false,&quot;name&quot;:&quot;数值列&quot;}]],&quot;numberFormat&quot;:{&quot;decimalPlaces&quot;:null,&quot;style&quot;:&quot;1000.00&quot;},&quot;paddings&quot;:{&quot;bottom&quot;:&quot;33&quot;,&quot;chartBottom&quot;:&quot;5&quot;,&quot;left&quot;:&quot;24&quot;,&quot;right&quot;:&quot;24&quot;,&quot;top&quot;:&quot;24&quot;},&quot;publishDisplay&quot;:{&quot;color&quot;:&quot;#878787&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;,&quot;show&quot;:true,&quot;text&quot;:&quot;镝数出品&quot;},&quot;shadow&quot;:{&quot;display&quot;:false,&quot;shadowAngle&quot;:&quot;45&quot;,&quot;shadowBlur&quot;:&quot;5&quot;,&quot;shadowColor&quot;:&quot;#c6c6c6&quot;,&quot;shadowOpacity&quot;:&quot;100&quot;,&quot;shadowRadius&quot;:&quot;3&quot;},&quot;size&quot;:{&quot;height&quot;:635,&quot;ratio&quot;:null,&quot;rotate&quot;:0,&quot;width&quot;:1735.0000000000002},&quot;sourceDisplay&quot;:{&quot;color&quot;:&quot;#878787&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;,&quot;show&quot;:false,&quot;text&quot;:&quot;数据来源：示例数据&quot;,&quot;topLineHeight&quot;:&quot;15&quot;,&quot;xPosition&quot;:&quot;left&quot;,&quot;yPosition&quot;:&quot;bottom&quot;},&quot;titleDisplay&quot;:{&quot;color&quot;:&quot;#4c4c4c&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;36&quot;,&quot;lineHeight&quot;:&quot;10&quot;,&quot;show&quot;:false,&quot;text&quot;:&quot;2010-2016年一线城市房价变迁&quot;,&quot;totalHeight&quot;:&quot;39&quot;,&quot;xPosition&quot;:&quot;left&quot;,&quot;yPosition&quot;:&quot;top&quot;},&quot;tooltip&quot;:true,&quot;unitDisplay&quot;:{&quot;bottomLineHeight&quot;:&quot;15&quot;,&quot;color&quot;:&quot;#878787&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;,&quot;show&quot;:false,&quot;text&quot;:&quot;单位：元&quot;,&quot;xPosition&quot;:&quot;left&quot;,&quot;yPosition&quot;:&quot;top&quot;},&quot;watermarkDisplay&quot;:{&quot;imgHeight&quot;:&quot;80&quot;,&quot;imgUrl&quot;:&quot;https://ss1.dydata.io/newchartWatermark.png&quot;,&quot;imgWidth&quot;:&quot;80&quot;,&quot;show&quot;:false}},&quot;templateId&quot;:&quot;5948734748594536789&quot;,&quot;templateSwitch&quot;:&quot;cross&quot;,&quot;theme&quot;:{&quot;axis&quot;:{&quot;color&quot;:&quot;#a1a1a1&quot;},&quot;backgroundColor&quot;:&quot;#FFFFFF&quot;,&quot;colors&quot;:[&quot;#5AAEF3&quot;,&quot;#62D9AD&quot;,&quot;#5B6E96&quot;,&quot;#a8dffa&quot;,&quot;#ffdc4c&quot;,&quot;#FF974C&quot;,&quot;#E65A56&quot;,&quot;#6D61E4&quot;,&quot;#4A6FE2&quot;,&quot;#6D9AE7&quot;,&quot;#23C2DB&quot;,&quot;#D4EC59&quot;,&quot;#FFE88E&quot;,&quot;#FEB64D&quot;,&quot;#FB6E6C&quot;],&quot;fonts&quot;:{&quot;accessoryColor&quot;:&quot;#878787&quot;,&quot;color&quot;:&quot;#545454&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;},&quot;grid&quot;:{&quot;color&quot;:&quot;#ccc&quot;},&quot;name&quot;:&quot;默认主题&quot;,&quot;price&quot;:&quot;0.0&quot;,&quot;shapeColor&quot;:1,&quot;themeId&quot;:&quot;18&quot;,&quot;titleFont&quot;:{&quot;color&quot;:&quot;#4c4c4c&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;36&quot;}},&quot;thumb&quot;:&quot;//web.docer.wpscdn.cn/docer/ds-page/v2/images/smoothline.4DBEA3F2.jpg?imageView2/2/w/500/quality/90&quot;,&quot;title&quot;:&quot;曲线折线图&quot;,&quot;type&quot;:&quot;chart&quot;},&quot;dschart_id&quot;:&quot;5948734748594536789&quot;,&quot;id&quot;:&quot;48&quot;}"/>
+    <wpswe:property key="dschart" value="{&quot;dschart_data&quot;:{&quot;blockId&quot;:&quot;161243067189875081&quot;,&quot;chart_type&quot;:&quot;线形图&quot;,&quot;classifty_type&quot;:[&quot;趋势类&quot;],&quot;dataSrc&quot;:{&quot;data&quot;:[[[&quot;第周&quot;,&quot;新房成交量&quot;,&quot;二手房成交量&quot;,&quot;涨价房源&quot;],[&quot;40&quot;,&quot;4665&quot;,&quot;1177&quot;,&quot;180&quot;],[&quot;41&quot;,&quot;662&quot;,&quot;404&quot;,&quot;130&quot;],[&quot;42&quot;,&quot;2162&quot;,&quot;1294&quot;,&quot;214&quot;],[&quot;43&quot;,&quot;2285&quot;,&quot;1195&quot;,&quot;170&quot;],[&quot;44&quot;,&quot;3768&quot;,&quot;1204&quot;,&quot;210&quot;],[&quot;45&quot;,&quot;2916&quot;,&quot;1188&quot;,&quot;213&quot;],[&quot;46&quot;,&quot;2079&quot;,&quot;1145&quot;,&quot;248&quot;],[&quot;47&quot;,&quot;2510&quot;,&quot;1155&quot;,&quot;289&quot;],[&quot;48&quot;,&quot;2382&quot;,&quot;1388&quot;,&quot;313&quot;],[&quot;49&quot;,&quot;3044&quot;,&quot;1350&quot;,&quot;409&quot;],[&quot;50&quot;,&quot;2282&quot;,&quot;1243&quot;,&quot;355&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;52&quot;,&quot;1721&quot;,&quot;1228&quot;,&quot;286&quot;],[&quot;53&quot;,&quot;1721&quot;,&quot;1228&quot;,&quot;286&quot;],[&quot;02&quot;,&quot;1721&quot;,&quot;1228&quot;,&quot;286&quot;],[&quot;03&quot;,&quot;3939&quot;,&quot;1112&quot;,&quot;247&quot;],[&quot;04&quot;,&quot;1575&quot;,&quot;292&quot;,&quot;92&quot;],[&quot;05&quot;,&quot;348&quot;,&quot;108&quot;,&quot;73&quot;],[&quot;06&quot;,&quot;1591&quot;,&quot;921&quot;,&quot;735&quot;],[&quot;07&quot;,&quot;2031&quot;,&quot;1283&quot;,&quot;737&quot;],[&quot;08&quot;,&quot;1999&quot;,&quot;1740&quot;,&quot;959&quot;],[&quot;09&quot;,&quot;3065&quot;,&quot;2421&quot;,&quot;901&quot;],[&quot;10&quot;,&quot;2650&quot;,&quot;2449&quot;,&quot;1029&quot;],[&quot;11&quot;,&quot;2694&quot;,&quot;2436&quot;,&quot;733&quot;],[&quot;12&quot;,&quot;2643&quot;,&quot;2336&quot;,&quot;573&quot;],[&quot;13&quot;,&quot;2649&quot;,&quot;2248&quot;,&quot;480&quot;],[&quot;14&quot;,&quot;3091&quot;,&quot;2040&quot;,&quot;2174&quot;],[&quot;15&quot;,&quot;3497&quot;,&quot;1474&quot;,&quot;1491&quot;],[&quot;16&quot;,&quot;3227&quot;,&quot;2008&quot;,&quot;1071&quot;],[&quot;17&quot;,&quot;2732&quot;,&quot;1920&quot;,&quot;798&quot;],[&quot;18&quot;,&quot;2359&quot;,&quot;1352&quot;,&quot;787&quot;],[&quot;19&quot;,&quot;1773&quot;,&quot;884&quot;,&quot;563&quot;],[&quot;22&quot;,&quot;2293&quot;,&quot;2375&quot;,&quot;2582&quot;],[&quot;24&quot;,&quot;1774&quot;,&quot;1041&quot;,&quot;2587&quot;],[&quot;25&quot;,&quot;1561&quot;,&quot;1022&quot;,&quot;2408&quot;],[&quot;26&quot;,&quot;1524&quot;,&quot;927&quot;,&quot;1499&quot;],[&quot;28&quot;,&quot;1323&quot;,&quot;835&quot;,&quot;2194&quot;],[&quot;29&quot;,&quot;1369&quot;,&quot;1041&quot;,&quot;363&quot;],[&quot;30&quot;,&quot;1117&quot;,&quot;994&quot;,&quot;253&quot;],[&quot;31&quot;,&quot;1795&quot;,&quot;1035&quot;,&quot;238&quot;],[&quot;33&quot;,&quot;847&quot;,&quot;999&quot;,&quot;275&quot;],[&quot;34&quot;,&quot;789&quot;,&quot;1077&quot;,&quot;289&quot;],[&quot;35&quot;,&quot;1857&quot;,&quot;1116&quot;,&quot;228&quot;],[&quot;36&quot;,&quot;2774&quot;,&quot;905&quot;,&quot;290&quot;],[&quot;37&quot;,&quot;1113&quot;,&quot;938&quot;,&quot;378&quot;],[&quot;38&quot;,&quot;1548&quot;,&quot;1098&quot;,&quot;465&quot;],[&quot;39&quot;,&quot;1773&quot;,&quot;902&quot;,&quot;299&quot;],[&quot;41&quot;,&quot;513&quot;,&quot;382&quot;,&quot;177&quot;],[&quot;42&quot;,&quot;962&quot;,&quot;1240&quot;,&quot;236&quot;],[&quot;43&quot;,&quot;1162&quot;,&quot;1329&quot;,&quot;622&quot;],[&quot;44&quot;,&quot;2509&quot;,&quot;2037&quot;,&quot;476&quot;],[&quot;45&quot;,&quot;2960&quot;,&quot;1963&quot;,&quot;665&quot;],[&quot;46&quot;,&quot;1471&quot;,&quot;1938&quot;,&quot;450&quot;],[&quot;47&quot;,&quot;1547&quot;,&quot;1714&quot;,&quot;338&quot;],[&quot;48&quot;,&quot;1992&quot;,&quot;1711&quot;,&quot;420&quot;],[&quot;49&quot;,&quot;2217&quot;,&quot;1595&quot;,&quot;670&quot;],[&quot;50&quot;,&quot;1765&quot;,&quot;1480&quot;,&quot;339&quot;],[&quot;51&quot;,&quot;2463&quot;,&quot;1443&quot;,&quot;203&quot;],[&quot;52&quot;,&quot;4130&quot;,&quot;1305&quot;,&quot;576&quot;],[&quot;52&quot;,&quot;3338&quot;,&quot;1357&quot;,&quot;260&quot;],[&quot;01&quot;,&quot;990&quot;,&quot;611&quot;,&quot;531&quot;],[&quot;02&quot;,&quot;318&quot;,&quot;513&quot;,&quot;396&quot;],[&quot;03&quot;,&quot;1367&quot;,&quot;1401&quot;,&quot;1022&quot;],[&quot;04&quot;,&quot;1143&quot;,&quot;1270&quot;,&quot;493&quot;],[&quot;05&quot;,&quot;620&quot;,&quot;985&quot;,&quot;211&quot;],[&quot;06&quot;,&quot;453&quot;,&quot;131&quot;,&quot;28&quot;],[&quot;08&quot;,&quot;449&quot;,&quot;547&quot;,&quot;908&quot;],[&quot;09&quot;,&quot;1083&quot;,&quot;1000&quot;,&quot;775&quot;],[&quot;10&quot;,&quot;537&quot;,&quot;1303&quot;,&quot;810&quot;],[&quot;11&quot;,&quot;761&quot;,&quot;1489&quot;,&quot;951&quot;],[&quot;12&quot;,&quot;1518&quot;,&quot;1910&quot;,&quot;1035&quot;],[&quot;13&quot;,&quot;3513&quot;,&quot;2129&quot;,&quot;767&quot;],[&quot;14&quot;,&quot;413&quot;,&quot;565&quot;,&quot;499&quot;],[&quot;15&quot;,&quot;1110&quot;,&quot;2152&quot;,&quot;597&quot;],[&quot;16&quot;,&quot;1266&quot;,&quot;1881&quot;,&quot;595&quot;],[&quot;17&quot;,&quot;909&quot;,&quot;1314&quot;,&quot;628&quot;],[&quot;18&quot;,&quot;747&quot;,&quot;406&quot;,&quot;517&quot;],[&quot;19&quot;,&quot;1044&quot;,&quot;1456&quot;,&quot;805&quot;],[&quot;20&quot;,&quot;1161&quot;,&quot;1836&quot;,&quot;987&quot;],[&quot;21&quot;,&quot;1502&quot;,&quot;1606&quot;,&quot;862&quot;],[&quot;22&quot;,&quot;2098&quot;,&quot;1889&quot;,&quot;712&quot;],[&quot;23&quot;,&quot;1280&quot;,&quot;1780&quot;,&quot;777&quot;],[&quot;24&quot;,&quot;1312&quot;,&quot;1604&quot;,&quot;673&quot;],[&quot;25&quot;,&quot;1927&quot;,&quot;1994&quot;,&quot;615&quot;],[&quot;26&quot;,&quot;4747&quot;,&quot;1859&quot;,&quot;595&quot;],[&quot;27&quot;,&quot;1307&quot;,&quot;1530&quot;,&quot;1038&quot;],[&quot;28&quot;,&quot;1090&quot;,&quot;1590&quot;,&quot;275&quot;]]],&quot;dataType&quot;:&quot;cross-table&quot;,&quot;download&quot;:false,&quot;srcType&quot;:&quot;local&quot;,&quot;url&quot;:&quot;&quot;},&quot;function_type&quot;:[&quot;折线图&quot;],&quot;gif&quot;:&quot;//web.docer.wpscdn.cn/docer/ds-page/v2/images/5948734748594536789.gif?imageView2/2/w/500/quality/90&quot;,&quot;isFree&quot;:&quot;0&quot;,&quot;label&quot;:&quot;&lt;d-smoothline-chart&gt;&quot;,&quot;position&quot;:{&quot;left&quot;:0,&quot;top&quot;:0},&quot;projectId&quot;:&quot;5948734748594536789&quot;,&quot;props&quot;:{&quot;animation&quot;:{&quot;duration&quot;:&quot;1.8&quot;,&quot;easeStyle&quot;:&quot;&quot;,&quot;endPause&quot;:&quot;1&quot;,&quot;moveOptions&quot;:[&quot;依次绘制&quot;,&quot;同时绘制&quot;,&quot;穿针引线&quot;],&quot;moveStyle&quot;:&quot;依次绘制&quot;,&quot;startDelay&quot;:&quot;0&quot;,&quot;transition&quot;:true},&quot;axis&quot;:{&quot;grid&quot;:{&quot;color&quot;:&quot;#e9e9e9&quot;,&quot;gridLineWidth&quot;:&quot;1&quot;,&quot;lineStyle&quot;:&quot;dashline&quot;,&quot;show&quot;:&quot;x&quot;},&quot;x&quot;:{&quot;axisColor&quot;:&quot;#bfbfbf&quot;,&quot;axisLineWidth&quot;:&quot;1&quot;,&quot;axisShow&quot;:true,&quot;labelAngle&quot;:&quot;0&quot;,&quot;labelDirection&quot;:&quot;自动&quot;,&quot;labelDirectionOptions&quot;:[&quot;自动&quot;,&quot;横排&quot;,&quot;竖排&quot;],&quot;labelShow&quot;:true,&quot;name&quot;:&quot;&quot;},&quot;y&quot;:{&quot;axisColor&quot;:&quot;#bfbfbf&quot;,&quot;axisLineWidth&quot;:&quot;1&quot;,&quot;axisShow&quot;:false,&quot;labelShow&quot;:true,&quot;labelSuffix&quot;:&quot;&quot;,&quot;name&quot;:&quot;&quot;,&quot;range&quot;:[],&quot;stepOfLabel&quot;:null}},&quot;backgroundColor&quot;:&quot;&quot;,&quot;colors&quot;:{&quot;colorControlers&quot;:[&quot;multiple&quot;],&quot;list&quot;:[0,1,2],&quot;type&quot;:&quot;multiple&quot;},&quot;display&quot;:{&quot;endPointBorderColor&quot;:&quot;#FFFFFF&quot;,&quot;endPointBorderWidth&quot;:&quot;0&quot;,&quot;endPointFillColor&quot;:null,&quot;endPointRadius&quot;:&quot;0&quot;,&quot;lineWidth&quot;:&quot;2&quot;},&quot;font&quot;:{&quot;color&quot;:&quot;#545454&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;},&quot;label&quot;:{&quot;display&quot;:false,&quot;positionChoice&quot;:&quot;上面&quot;,&quot;positionOptions&quot;:[&quot;上面&quot;,&quot;下面&quot;],&quot;suffix&quot;:&quot;&quot;,&quot;textLabel&quot;:{&quot;color&quot;:&quot;#545454&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;}},&quot;legend&quot;:{&quot;color&quot;:[&quot;#545454&quot;],&quot;fontFamily&quot;:[&quot;黑体&quot;],&quot;fontSize&quot;:&quot;14&quot;,&quot;lineHeight&quot;:&quot;15&quot;,&quot;show&quot;:true,&quot;style&quot;:&quot;&quot;,&quot;styleOptions&quot;:[],&quot;xPosition&quot;:&quot;center&quot;,&quot;yPosition&quot;:&quot;bottom&quot;},&quot;logoDisplay&quot;:{&quot;bottomLineHeight&quot;:&quot;15&quot;,&quot;imgHeight&quot;:&quot;32&quot;,&quot;imgUrl&quot;:&quot;https://ss1.dydata.io/newchartLogo.png&quot;,&quot;show&quot;:true,&quot;topLineHeight&quot;:&quot;11&quot;},&quot;map&quot;:[[{&quot;allowType&quot;:[&quot;string&quot;],&quot;configurable&quot;:false,&quot;function&quot;:&quot;objCol&quot;,&quot;index&quot;:0,&quot;isLegend&quot;:false,&quot;name&quot;:&quot;X轴对象&quot;},{&quot;allowType&quot;:[&quot;number&quot;],&quot;configurable&quot;:true,&quot;function&quot;:&quot;vCol&quot;,&quot;index&quot;:1,&quot;isLegend&quot;:false,&quot;name&quot;:&quot;数值列&quot;},{&quot;allowType&quot;:[&quot;number&quot;],&quot;configurable&quot;:true,&quot;function&quot;:&quot;vCol&quot;,&quot;index&quot;:2,&quot;isLegend&quot;:false,&quot;name&quot;:&quot;数值列&quot;},{&quot;allowType&quot;:[&quot;number&quot;],&quot;configurable&quot;:true,&quot;function&quot;:&quot;vCol&quot;,&quot;index&quot;:3,&quot;isLegend&quot;:false,&quot;name&quot;:&quot;数值列&quot;}]],&quot;numberFormat&quot;:{&quot;decimalPlaces&quot;:null,&quot;style&quot;:&quot;1000.00&quot;},&quot;paddings&quot;:{&quot;bottom&quot;:&quot;33&quot;,&quot;chartBottom&quot;:&quot;5&quot;,&quot;left&quot;:&quot;24&quot;,&quot;right&quot;:&quot;24&quot;,&quot;top&quot;:&quot;24&quot;},&quot;publishDisplay&quot;:{&quot;color&quot;:&quot;#878787&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;,&quot;show&quot;:true,&quot;text&quot;:&quot;镝数出品&quot;},&quot;shadow&quot;:{&quot;display&quot;:false,&quot;shadowAngle&quot;:&quot;45&quot;,&quot;shadowBlur&quot;:&quot;5&quot;,&quot;shadowColor&quot;:&quot;#c6c6c6&quot;,&quot;shadowOpacity&quot;:&quot;100&quot;,&quot;shadowRadius&quot;:&quot;3&quot;},&quot;size&quot;:{&quot;height&quot;:635,&quot;ratio&quot;:null,&quot;rotate&quot;:0,&quot;width&quot;:1735.0000000000002},&quot;sourceDisplay&quot;:{&quot;color&quot;:&quot;#878787&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;,&quot;show&quot;:false,&quot;text&quot;:&quot;数据来源：示例数据&quot;,&quot;topLineHeight&quot;:&quot;15&quot;,&quot;xPosition&quot;:&quot;left&quot;,&quot;yPosition&quot;:&quot;bottom&quot;},&quot;titleDisplay&quot;:{&quot;color&quot;:&quot;#4c4c4c&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;36&quot;,&quot;lineHeight&quot;:&quot;10&quot;,&quot;show&quot;:false,&quot;text&quot;:&quot;2010-2016年一线城市房价变迁&quot;,&quot;totalHeight&quot;:&quot;39&quot;,&quot;xPosition&quot;:&quot;left&quot;,&quot;yPosition&quot;:&quot;top&quot;},&quot;tooltip&quot;:true,&quot;unitDisplay&quot;:{&quot;bottomLineHeight&quot;:&quot;15&quot;,&quot;color&quot;:&quot;#878787&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;,&quot;show&quot;:false,&quot;text&quot;:&quot;单位：元&quot;,&quot;xPosition&quot;:&quot;left&quot;,&quot;yPosition&quot;:&quot;top&quot;},&quot;watermarkDisplay&quot;:{&quot;imgHeight&quot;:&quot;80&quot;,&quot;imgUrl&quot;:&quot;https://ss1.dydata.io/newchartWatermark.png&quot;,&quot;imgWidth&quot;:&quot;80&quot;,&quot;show&quot;:false}},&quot;templateId&quot;:&quot;5948734748594536789&quot;,&quot;templateSwitch&quot;:&quot;cross&quot;,&quot;theme&quot;:{&quot;axis&quot;:{&quot;color&quot;:&quot;#a1a1a1&quot;},&quot;backgroundColor&quot;:&quot;#FFFFFF&quot;,&quot;colors&quot;:[&quot;#5AAEF3&quot;,&quot;#62D9AD&quot;,&quot;#5B6E96&quot;,&quot;#a8dffa&quot;,&quot;#ffdc4c&quot;,&quot;#FF974C&quot;,&quot;#E65A56&quot;,&quot;#6D61E4&quot;,&quot;#4A6FE2&quot;,&quot;#6D9AE7&quot;,&quot;#23C2DB&quot;,&quot;#D4EC59&quot;,&quot;#FFE88E&quot;,&quot;#FEB64D&quot;,&quot;#FB6E6C&quot;],&quot;fonts&quot;:{&quot;accessoryColor&quot;:&quot;#878787&quot;,&quot;color&quot;:&quot;#545454&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;},&quot;grid&quot;:{&quot;color&quot;:&quot;#ccc&quot;},&quot;name&quot;:&quot;默认主题&quot;,&quot;price&quot;:&quot;0.0&quot;,&quot;shapeColor&quot;:1,&quot;themeId&quot;:&quot;18&quot;,&quot;titleFont&quot;:{&quot;color&quot;:&quot;#4c4c4c&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;36&quot;}},&quot;thumb&quot;:&quot;//web.docer.wpscdn.cn/docer/ds-page/v2/images/smoothline.4DBEA3F2.jpg?imageView2/2/w/500/quality/90&quot;,&quot;title&quot;:&quot;曲线折线图&quot;,&quot;type&quot;:&quot;chart&quot;},&quot;dschart_id&quot;:&quot;5948734748594536789&quot;,&quot;id&quot;:&quot;48&quot;}"/>
     <wpswe:property key="isUseCommonErrorPage" value="false"/>
     <wpswe:property key="loadingImage" value="res:/icons/DsWebShapeDefaultPage.svg"/>
   </wpswe:properties>
@@ -3299,8 +3317,8 @@
     <wpswe:linkPath>E:\03.SRC\Python\GetData\hz杭州成交周报.xlsx</wpswe:linkPath>
     <wpswe:dataRange>
       <wpswe:key>data_source</wpswe:key>
-      <wpswe:context>Sheet1!$B$1:$E$96</wpswe:context>
-      <wpswe:count>96</wpswe:count>
+      <wpswe:context>Sheet1!$B$1:$E$98</wpswe:context>
+      <wpswe:count>98</wpswe:count>
       <wpswe:cells wpswe:idx="0">
         <wpswe:count>4</wpswe:count>
         <wpswe:formatCode>General</wpswe:formatCode>
@@ -4835,6 +4853,38 @@
         </wpswe:cell>
         <wpswe:cell wpswe:idx="3">
           <wpswe:value>595</wpswe:value>
+        </wpswe:cell>
+      </wpswe:cells>
+      <wpswe:cells wpswe:idx="96">
+        <wpswe:count>4</wpswe:count>
+        <wpswe:formatCode>General</wpswe:formatCode>
+        <wpswe:cell wpswe:idx="0">
+          <wpswe:value>27</wpswe:value>
+        </wpswe:cell>
+        <wpswe:cell wpswe:idx="1">
+          <wpswe:value>1307</wpswe:value>
+        </wpswe:cell>
+        <wpswe:cell wpswe:idx="2">
+          <wpswe:value>1530</wpswe:value>
+        </wpswe:cell>
+        <wpswe:cell wpswe:idx="3">
+          <wpswe:value>1038</wpswe:value>
+        </wpswe:cell>
+      </wpswe:cells>
+      <wpswe:cells wpswe:idx="97">
+        <wpswe:count>4</wpswe:count>
+        <wpswe:formatCode>General</wpswe:formatCode>
+        <wpswe:cell wpswe:idx="0">
+          <wpswe:value>28</wpswe:value>
+        </wpswe:cell>
+        <wpswe:cell wpswe:idx="1">
+          <wpswe:value>1090</wpswe:value>
+        </wpswe:cell>
+        <wpswe:cell wpswe:idx="2">
+          <wpswe:value>1590</wpswe:value>
+        </wpswe:cell>
+        <wpswe:cell wpswe:idx="3">
+          <wpswe:value>275</wpswe:value>
         </wpswe:cell>
       </wpswe:cells>
     </wpswe:dataRange>
@@ -4970,10 +5020,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M96"/>
+  <dimension ref="A1:M98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P51" sqref="P51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6688,17 +6738,51 @@
       <c r="A96" s="2">
         <v>2024</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="C96" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="D96" s="5" t="s">
+      <c r="D96" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="E96" s="5" t="s">
+      <c r="E96" s="4" t="s">
         <v>264</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="2">
+        <v>2024</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="2">
+        <v>2024</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -6724,21 +6808,21 @@
   <sheetData>
     <row r="1" spans="2:8">
       <c r="B1" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="C1" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="D1" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="H1" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="2:8">
       <c r="B2" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -6747,12 +6831,12 @@
         <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -6763,7 +6847,7 @@
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -6777,10 +6861,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>4</v>

--- a/hz杭州成交周报.xlsx
+++ b/hz杭州成交周报.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775"/>
+    <workbookView windowHeight="17775" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="325">
   <si>
     <t>第年</t>
   </si>
@@ -937,6 +937,42 @@
   </si>
   <si>
     <t>1590</t>
+  </si>
+  <si>
+    <t>1579</t>
+  </si>
+  <si>
+    <t>580</t>
+  </si>
+  <si>
+    <t>1450</t>
+  </si>
+  <si>
+    <t>1598</t>
+  </si>
+  <si>
+    <t>508</t>
+  </si>
+  <si>
+    <t>2137</t>
+  </si>
+  <si>
+    <t>1381</t>
+  </si>
+  <si>
+    <t>431</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>822</t>
+  </si>
+  <si>
+    <t>1317</t>
+  </si>
+  <si>
+    <t>477</t>
   </si>
   <si>
     <t>姓名</t>
@@ -2687,7 +2723,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3435985" y="698500"/>
+          <a:off x="3512185" y="698500"/>
           <a:ext cx="16521430" cy="6047740"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3309,7 +3345,7 @@
   <wpswe:properties>
     <wpswe:property key="DiscardFirstCodeChange" value="0"/>
     <wpswe:property key="autoSnapshot" value="0"/>
-    <wpswe:property key="dschart" value="{&quot;dschart_data&quot;:{&quot;blockId&quot;:&quot;161243067189875081&quot;,&quot;chart_type&quot;:&quot;线形图&quot;,&quot;classifty_type&quot;:[&quot;趋势类&quot;],&quot;dataSrc&quot;:{&quot;data&quot;:[[[&quot;第周&quot;,&quot;新房成交量&quot;,&quot;二手房成交量&quot;,&quot;涨价房源&quot;],[&quot;40&quot;,&quot;4665&quot;,&quot;1177&quot;,&quot;180&quot;],[&quot;41&quot;,&quot;662&quot;,&quot;404&quot;,&quot;130&quot;],[&quot;42&quot;,&quot;2162&quot;,&quot;1294&quot;,&quot;214&quot;],[&quot;43&quot;,&quot;2285&quot;,&quot;1195&quot;,&quot;170&quot;],[&quot;44&quot;,&quot;3768&quot;,&quot;1204&quot;,&quot;210&quot;],[&quot;45&quot;,&quot;2916&quot;,&quot;1188&quot;,&quot;213&quot;],[&quot;46&quot;,&quot;2079&quot;,&quot;1145&quot;,&quot;248&quot;],[&quot;47&quot;,&quot;2510&quot;,&quot;1155&quot;,&quot;289&quot;],[&quot;48&quot;,&quot;2382&quot;,&quot;1388&quot;,&quot;313&quot;],[&quot;49&quot;,&quot;3044&quot;,&quot;1350&quot;,&quot;409&quot;],[&quot;50&quot;,&quot;2282&quot;,&quot;1243&quot;,&quot;355&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;52&quot;,&quot;1721&quot;,&quot;1228&quot;,&quot;286&quot;],[&quot;53&quot;,&quot;1721&quot;,&quot;1228&quot;,&quot;286&quot;],[&quot;02&quot;,&quot;1721&quot;,&quot;1228&quot;,&quot;286&quot;],[&quot;03&quot;,&quot;3939&quot;,&quot;1112&quot;,&quot;247&quot;],[&quot;04&quot;,&quot;1575&quot;,&quot;292&quot;,&quot;92&quot;],[&quot;05&quot;,&quot;348&quot;,&quot;108&quot;,&quot;73&quot;],[&quot;06&quot;,&quot;1591&quot;,&quot;921&quot;,&quot;735&quot;],[&quot;07&quot;,&quot;2031&quot;,&quot;1283&quot;,&quot;737&quot;],[&quot;08&quot;,&quot;1999&quot;,&quot;1740&quot;,&quot;959&quot;],[&quot;09&quot;,&quot;3065&quot;,&quot;2421&quot;,&quot;901&quot;],[&quot;10&quot;,&quot;2650&quot;,&quot;2449&quot;,&quot;1029&quot;],[&quot;11&quot;,&quot;2694&quot;,&quot;2436&quot;,&quot;733&quot;],[&quot;12&quot;,&quot;2643&quot;,&quot;2336&quot;,&quot;573&quot;],[&quot;13&quot;,&quot;2649&quot;,&quot;2248&quot;,&quot;480&quot;],[&quot;14&quot;,&quot;3091&quot;,&quot;2040&quot;,&quot;2174&quot;],[&quot;15&quot;,&quot;3497&quot;,&quot;1474&quot;,&quot;1491&quot;],[&quot;16&quot;,&quot;3227&quot;,&quot;2008&quot;,&quot;1071&quot;],[&quot;17&quot;,&quot;2732&quot;,&quot;1920&quot;,&quot;798&quot;],[&quot;18&quot;,&quot;2359&quot;,&quot;1352&quot;,&quot;787&quot;],[&quot;19&quot;,&quot;1773&quot;,&quot;884&quot;,&quot;563&quot;],[&quot;22&quot;,&quot;2293&quot;,&quot;2375&quot;,&quot;2582&quot;],[&quot;24&quot;,&quot;1774&quot;,&quot;1041&quot;,&quot;2587&quot;],[&quot;25&quot;,&quot;1561&quot;,&quot;1022&quot;,&quot;2408&quot;],[&quot;26&quot;,&quot;1524&quot;,&quot;927&quot;,&quot;1499&quot;],[&quot;28&quot;,&quot;1323&quot;,&quot;835&quot;,&quot;2194&quot;],[&quot;29&quot;,&quot;1369&quot;,&quot;1041&quot;,&quot;363&quot;],[&quot;30&quot;,&quot;1117&quot;,&quot;994&quot;,&quot;253&quot;],[&quot;31&quot;,&quot;1795&quot;,&quot;1035&quot;,&quot;238&quot;],[&quot;33&quot;,&quot;847&quot;,&quot;999&quot;,&quot;275&quot;],[&quot;34&quot;,&quot;789&quot;,&quot;1077&quot;,&quot;289&quot;],[&quot;35&quot;,&quot;1857&quot;,&quot;1116&quot;,&quot;228&quot;],[&quot;36&quot;,&quot;2774&quot;,&quot;905&quot;,&quot;290&quot;],[&quot;37&quot;,&quot;1113&quot;,&quot;938&quot;,&quot;378&quot;],[&quot;38&quot;,&quot;1548&quot;,&quot;1098&quot;,&quot;465&quot;],[&quot;39&quot;,&quot;1773&quot;,&quot;902&quot;,&quot;299&quot;],[&quot;41&quot;,&quot;513&quot;,&quot;382&quot;,&quot;177&quot;],[&quot;42&quot;,&quot;962&quot;,&quot;1240&quot;,&quot;236&quot;],[&quot;43&quot;,&quot;1162&quot;,&quot;1329&quot;,&quot;622&quot;],[&quot;44&quot;,&quot;2509&quot;,&quot;2037&quot;,&quot;476&quot;],[&quot;45&quot;,&quot;2960&quot;,&quot;1963&quot;,&quot;665&quot;],[&quot;46&quot;,&quot;1471&quot;,&quot;1938&quot;,&quot;450&quot;],[&quot;47&quot;,&quot;1547&quot;,&quot;1714&quot;,&quot;338&quot;],[&quot;48&quot;,&quot;1992&quot;,&quot;1711&quot;,&quot;420&quot;],[&quot;49&quot;,&quot;2217&quot;,&quot;1595&quot;,&quot;670&quot;],[&quot;50&quot;,&quot;1765&quot;,&quot;1480&quot;,&quot;339&quot;],[&quot;51&quot;,&quot;2463&quot;,&quot;1443&quot;,&quot;203&quot;],[&quot;52&quot;,&quot;4130&quot;,&quot;1305&quot;,&quot;576&quot;],[&quot;52&quot;,&quot;3338&quot;,&quot;1357&quot;,&quot;260&quot;],[&quot;01&quot;,&quot;990&quot;,&quot;611&quot;,&quot;531&quot;],[&quot;02&quot;,&quot;318&quot;,&quot;513&quot;,&quot;396&quot;],[&quot;03&quot;,&quot;1367&quot;,&quot;1401&quot;,&quot;1022&quot;],[&quot;04&quot;,&quot;1143&quot;,&quot;1270&quot;,&quot;493&quot;],[&quot;05&quot;,&quot;620&quot;,&quot;985&quot;,&quot;211&quot;],[&quot;06&quot;,&quot;453&quot;,&quot;131&quot;,&quot;28&quot;],[&quot;08&quot;,&quot;449&quot;,&quot;547&quot;,&quot;908&quot;],[&quot;09&quot;,&quot;1083&quot;,&quot;1000&quot;,&quot;775&quot;],[&quot;10&quot;,&quot;537&quot;,&quot;1303&quot;,&quot;810&quot;],[&quot;11&quot;,&quot;761&quot;,&quot;1489&quot;,&quot;951&quot;],[&quot;12&quot;,&quot;1518&quot;,&quot;1910&quot;,&quot;1035&quot;],[&quot;13&quot;,&quot;3513&quot;,&quot;2129&quot;,&quot;767&quot;],[&quot;14&quot;,&quot;413&quot;,&quot;565&quot;,&quot;499&quot;],[&quot;15&quot;,&quot;1110&quot;,&quot;2152&quot;,&quot;597&quot;],[&quot;16&quot;,&quot;1266&quot;,&quot;1881&quot;,&quot;595&quot;],[&quot;17&quot;,&quot;909&quot;,&quot;1314&quot;,&quot;628&quot;],[&quot;18&quot;,&quot;747&quot;,&quot;406&quot;,&quot;517&quot;],[&quot;19&quot;,&quot;1044&quot;,&quot;1456&quot;,&quot;805&quot;],[&quot;20&quot;,&quot;1161&quot;,&quot;1836&quot;,&quot;987&quot;],[&quot;21&quot;,&quot;1502&quot;,&quot;1606&quot;,&quot;862&quot;],[&quot;22&quot;,&quot;2098&quot;,&quot;1889&quot;,&quot;712&quot;],[&quot;23&quot;,&quot;1280&quot;,&quot;1780&quot;,&quot;777&quot;],[&quot;24&quot;,&quot;1312&quot;,&quot;1604&quot;,&quot;673&quot;],[&quot;25&quot;,&quot;1927&quot;,&quot;1994&quot;,&quot;615&quot;],[&quot;26&quot;,&quot;4747&quot;,&quot;1859&quot;,&quot;595&quot;],[&quot;27&quot;,&quot;1307&quot;,&quot;1530&quot;,&quot;1038&quot;],[&quot;28&quot;,&quot;1090&quot;,&quot;1590&quot;,&quot;275&quot;]]],&quot;dataType&quot;:&quot;cross-table&quot;,&quot;download&quot;:false,&quot;srcType&quot;:&quot;local&quot;,&quot;url&quot;:&quot;&quot;},&quot;function_type&quot;:[&quot;折线图&quot;],&quot;gif&quot;:&quot;//web.docer.wpscdn.cn/docer/ds-page/v2/images/5948734748594536789.gif?imageView2/2/w/500/quality/90&quot;,&quot;isFree&quot;:&quot;0&quot;,&quot;label&quot;:&quot;&lt;d-smoothline-chart&gt;&quot;,&quot;position&quot;:{&quot;left&quot;:0,&quot;top&quot;:0},&quot;projectId&quot;:&quot;5948734748594536789&quot;,&quot;props&quot;:{&quot;animation&quot;:{&quot;duration&quot;:&quot;1.8&quot;,&quot;easeStyle&quot;:&quot;&quot;,&quot;endPause&quot;:&quot;1&quot;,&quot;moveOptions&quot;:[&quot;依次绘制&quot;,&quot;同时绘制&quot;,&quot;穿针引线&quot;],&quot;moveStyle&quot;:&quot;依次绘制&quot;,&quot;startDelay&quot;:&quot;0&quot;,&quot;transition&quot;:true},&quot;axis&quot;:{&quot;grid&quot;:{&quot;color&quot;:&quot;#e9e9e9&quot;,&quot;gridLineWidth&quot;:&quot;1&quot;,&quot;lineStyle&quot;:&quot;dashline&quot;,&quot;show&quot;:&quot;x&quot;},&quot;x&quot;:{&quot;axisColor&quot;:&quot;#bfbfbf&quot;,&quot;axisLineWidth&quot;:&quot;1&quot;,&quot;axisShow&quot;:true,&quot;labelAngle&quot;:&quot;0&quot;,&quot;labelDirection&quot;:&quot;自动&quot;,&quot;labelDirectionOptions&quot;:[&quot;自动&quot;,&quot;横排&quot;,&quot;竖排&quot;],&quot;labelShow&quot;:true,&quot;name&quot;:&quot;&quot;},&quot;y&quot;:{&quot;axisColor&quot;:&quot;#bfbfbf&quot;,&quot;axisLineWidth&quot;:&quot;1&quot;,&quot;axisShow&quot;:false,&quot;labelShow&quot;:true,&quot;labelSuffix&quot;:&quot;&quot;,&quot;name&quot;:&quot;&quot;,&quot;range&quot;:[],&quot;stepOfLabel&quot;:null}},&quot;backgroundColor&quot;:&quot;&quot;,&quot;colors&quot;:{&quot;colorControlers&quot;:[&quot;multiple&quot;],&quot;list&quot;:[0,1,2],&quot;type&quot;:&quot;multiple&quot;},&quot;display&quot;:{&quot;endPointBorderColor&quot;:&quot;#FFFFFF&quot;,&quot;endPointBorderWidth&quot;:&quot;0&quot;,&quot;endPointFillColor&quot;:null,&quot;endPointRadius&quot;:&quot;0&quot;,&quot;lineWidth&quot;:&quot;2&quot;},&quot;font&quot;:{&quot;color&quot;:&quot;#545454&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;},&quot;label&quot;:{&quot;display&quot;:false,&quot;positionChoice&quot;:&quot;上面&quot;,&quot;positionOptions&quot;:[&quot;上面&quot;,&quot;下面&quot;],&quot;suffix&quot;:&quot;&quot;,&quot;textLabel&quot;:{&quot;color&quot;:&quot;#545454&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;}},&quot;legend&quot;:{&quot;color&quot;:[&quot;#545454&quot;],&quot;fontFamily&quot;:[&quot;黑体&quot;],&quot;fontSize&quot;:&quot;14&quot;,&quot;lineHeight&quot;:&quot;15&quot;,&quot;show&quot;:true,&quot;style&quot;:&quot;&quot;,&quot;styleOptions&quot;:[],&quot;xPosition&quot;:&quot;center&quot;,&quot;yPosition&quot;:&quot;bottom&quot;},&quot;logoDisplay&quot;:{&quot;bottomLineHeight&quot;:&quot;15&quot;,&quot;imgHeight&quot;:&quot;32&quot;,&quot;imgUrl&quot;:&quot;https://ss1.dydata.io/newchartLogo.png&quot;,&quot;show&quot;:true,&quot;topLineHeight&quot;:&quot;11&quot;},&quot;map&quot;:[[{&quot;allowType&quot;:[&quot;string&quot;],&quot;configurable&quot;:false,&quot;function&quot;:&quot;objCol&quot;,&quot;index&quot;:0,&quot;isLegend&quot;:false,&quot;name&quot;:&quot;X轴对象&quot;},{&quot;allowType&quot;:[&quot;number&quot;],&quot;configurable&quot;:true,&quot;function&quot;:&quot;vCol&quot;,&quot;index&quot;:1,&quot;isLegend&quot;:false,&quot;name&quot;:&quot;数值列&quot;},{&quot;allowType&quot;:[&quot;number&quot;],&quot;configurable&quot;:true,&quot;function&quot;:&quot;vCol&quot;,&quot;index&quot;:2,&quot;isLegend&quot;:false,&quot;name&quot;:&quot;数值列&quot;},{&quot;allowType&quot;:[&quot;number&quot;],&quot;configurable&quot;:true,&quot;function&quot;:&quot;vCol&quot;,&quot;index&quot;:3,&quot;isLegend&quot;:false,&quot;name&quot;:&quot;数值列&quot;}]],&quot;numberFormat&quot;:{&quot;decimalPlaces&quot;:null,&quot;style&quot;:&quot;1000.00&quot;},&quot;paddings&quot;:{&quot;bottom&quot;:&quot;33&quot;,&quot;chartBottom&quot;:&quot;5&quot;,&quot;left&quot;:&quot;24&quot;,&quot;right&quot;:&quot;24&quot;,&quot;top&quot;:&quot;24&quot;},&quot;publishDisplay&quot;:{&quot;color&quot;:&quot;#878787&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;,&quot;show&quot;:true,&quot;text&quot;:&quot;镝数出品&quot;},&quot;shadow&quot;:{&quot;display&quot;:false,&quot;shadowAngle&quot;:&quot;45&quot;,&quot;shadowBlur&quot;:&quot;5&quot;,&quot;shadowColor&quot;:&quot;#c6c6c6&quot;,&quot;shadowOpacity&quot;:&quot;100&quot;,&quot;shadowRadius&quot;:&quot;3&quot;},&quot;size&quot;:{&quot;height&quot;:635,&quot;ratio&quot;:null,&quot;rotate&quot;:0,&quot;width&quot;:1735.0000000000002},&quot;sourceDisplay&quot;:{&quot;color&quot;:&quot;#878787&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;,&quot;show&quot;:false,&quot;text&quot;:&quot;数据来源：示例数据&quot;,&quot;topLineHeight&quot;:&quot;15&quot;,&quot;xPosition&quot;:&quot;left&quot;,&quot;yPosition&quot;:&quot;bottom&quot;},&quot;titleDisplay&quot;:{&quot;color&quot;:&quot;#4c4c4c&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;36&quot;,&quot;lineHeight&quot;:&quot;10&quot;,&quot;show&quot;:false,&quot;text&quot;:&quot;2010-2016年一线城市房价变迁&quot;,&quot;totalHeight&quot;:&quot;39&quot;,&quot;xPosition&quot;:&quot;left&quot;,&quot;yPosition&quot;:&quot;top&quot;},&quot;tooltip&quot;:true,&quot;unitDisplay&quot;:{&quot;bottomLineHeight&quot;:&quot;15&quot;,&quot;color&quot;:&quot;#878787&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;,&quot;show&quot;:false,&quot;text&quot;:&quot;单位：元&quot;,&quot;xPosition&quot;:&quot;left&quot;,&quot;yPosition&quot;:&quot;top&quot;},&quot;watermarkDisplay&quot;:{&quot;imgHeight&quot;:&quot;80&quot;,&quot;imgUrl&quot;:&quot;https://ss1.dydata.io/newchartWatermark.png&quot;,&quot;imgWidth&quot;:&quot;80&quot;,&quot;show&quot;:false}},&quot;templateId&quot;:&quot;5948734748594536789&quot;,&quot;templateSwitch&quot;:&quot;cross&quot;,&quot;theme&quot;:{&quot;axis&quot;:{&quot;color&quot;:&quot;#a1a1a1&quot;},&quot;backgroundColor&quot;:&quot;#FFFFFF&quot;,&quot;colors&quot;:[&quot;#5AAEF3&quot;,&quot;#62D9AD&quot;,&quot;#5B6E96&quot;,&quot;#a8dffa&quot;,&quot;#ffdc4c&quot;,&quot;#FF974C&quot;,&quot;#E65A56&quot;,&quot;#6D61E4&quot;,&quot;#4A6FE2&quot;,&quot;#6D9AE7&quot;,&quot;#23C2DB&quot;,&quot;#D4EC59&quot;,&quot;#FFE88E&quot;,&quot;#FEB64D&quot;,&quot;#FB6E6C&quot;],&quot;fonts&quot;:{&quot;accessoryColor&quot;:&quot;#878787&quot;,&quot;color&quot;:&quot;#545454&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;},&quot;grid&quot;:{&quot;color&quot;:&quot;#ccc&quot;},&quot;name&quot;:&quot;默认主题&quot;,&quot;price&quot;:&quot;0.0&quot;,&quot;shapeColor&quot;:1,&quot;themeId&quot;:&quot;18&quot;,&quot;titleFont&quot;:{&quot;color&quot;:&quot;#4c4c4c&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;36&quot;}},&quot;thumb&quot;:&quot;//web.docer.wpscdn.cn/docer/ds-page/v2/images/smoothline.4DBEA3F2.jpg?imageView2/2/w/500/quality/90&quot;,&quot;title&quot;:&quot;曲线折线图&quot;,&quot;type&quot;:&quot;chart&quot;},&quot;dschart_id&quot;:&quot;5948734748594536789&quot;,&quot;id&quot;:&quot;48&quot;}"/>
+    <wpswe:property key="dschart" value="{&quot;dschart_data&quot;:{&quot;blockId&quot;:&quot;161243067189875081&quot;,&quot;chart_type&quot;:&quot;线形图&quot;,&quot;classifty_type&quot;:[&quot;趋势类&quot;],&quot;dataSrc&quot;:{&quot;data&quot;:[[[&quot;第周&quot;,&quot;新房成交量&quot;,&quot;二手房成交量&quot;,&quot;涨价房源&quot;],[&quot;40&quot;,&quot;4665&quot;,&quot;1177&quot;,&quot;180&quot;],[&quot;41&quot;,&quot;662&quot;,&quot;404&quot;,&quot;130&quot;],[&quot;42&quot;,&quot;2162&quot;,&quot;1294&quot;,&quot;214&quot;],[&quot;43&quot;,&quot;2285&quot;,&quot;1195&quot;,&quot;170&quot;],[&quot;44&quot;,&quot;3768&quot;,&quot;1204&quot;,&quot;210&quot;],[&quot;45&quot;,&quot;2916&quot;,&quot;1188&quot;,&quot;213&quot;],[&quot;46&quot;,&quot;2079&quot;,&quot;1145&quot;,&quot;248&quot;],[&quot;47&quot;,&quot;2510&quot;,&quot;1155&quot;,&quot;289&quot;],[&quot;48&quot;,&quot;2382&quot;,&quot;1388&quot;,&quot;313&quot;],[&quot;49&quot;,&quot;3044&quot;,&quot;1350&quot;,&quot;409&quot;],[&quot;50&quot;,&quot;2282&quot;,&quot;1243&quot;,&quot;355&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;51&quot;,&quot;2266&quot;,&quot;2115&quot;,&quot;375&quot;],[&quot;52&quot;,&quot;1721&quot;,&quot;1228&quot;,&quot;286&quot;],[&quot;53&quot;,&quot;1721&quot;,&quot;1228&quot;,&quot;286&quot;],[&quot;02&quot;,&quot;1721&quot;,&quot;1228&quot;,&quot;286&quot;],[&quot;03&quot;,&quot;3939&quot;,&quot;1112&quot;,&quot;247&quot;],[&quot;04&quot;,&quot;1575&quot;,&quot;292&quot;,&quot;92&quot;],[&quot;05&quot;,&quot;348&quot;,&quot;108&quot;,&quot;73&quot;],[&quot;06&quot;,&quot;1591&quot;,&quot;921&quot;,&quot;735&quot;],[&quot;07&quot;,&quot;2031&quot;,&quot;1283&quot;,&quot;737&quot;],[&quot;08&quot;,&quot;1999&quot;,&quot;1740&quot;,&quot;959&quot;],[&quot;09&quot;,&quot;3065&quot;,&quot;2421&quot;,&quot;901&quot;],[&quot;10&quot;,&quot;2650&quot;,&quot;2449&quot;,&quot;1029&quot;],[&quot;11&quot;,&quot;2694&quot;,&quot;2436&quot;,&quot;733&quot;],[&quot;12&quot;,&quot;2643&quot;,&quot;2336&quot;,&quot;573&quot;],[&quot;13&quot;,&quot;2649&quot;,&quot;2248&quot;,&quot;480&quot;],[&quot;14&quot;,&quot;3091&quot;,&quot;2040&quot;,&quot;2174&quot;],[&quot;15&quot;,&quot;3497&quot;,&quot;1474&quot;,&quot;1491&quot;],[&quot;16&quot;,&quot;3227&quot;,&quot;2008&quot;,&quot;1071&quot;],[&quot;17&quot;,&quot;2732&quot;,&quot;1920&quot;,&quot;798&quot;],[&quot;18&quot;,&quot;2359&quot;,&quot;1352&quot;,&quot;787&quot;],[&quot;19&quot;,&quot;1773&quot;,&quot;884&quot;,&quot;563&quot;],[&quot;22&quot;,&quot;2293&quot;,&quot;2375&quot;,&quot;2582&quot;],[&quot;24&quot;,&quot;1774&quot;,&quot;1041&quot;,&quot;2587&quot;],[&quot;25&quot;,&quot;1561&quot;,&quot;1022&quot;,&quot;2408&quot;],[&quot;26&quot;,&quot;1524&quot;,&quot;927&quot;,&quot;1499&quot;],[&quot;28&quot;,&quot;1323&quot;,&quot;835&quot;,&quot;2194&quot;],[&quot;29&quot;,&quot;1369&quot;,&quot;1041&quot;,&quot;363&quot;],[&quot;30&quot;,&quot;1117&quot;,&quot;994&quot;,&quot;253&quot;],[&quot;31&quot;,&quot;1795&quot;,&quot;1035&quot;,&quot;238&quot;],[&quot;33&quot;,&quot;847&quot;,&quot;999&quot;,&quot;275&quot;],[&quot;34&quot;,&quot;789&quot;,&quot;1077&quot;,&quot;289&quot;],[&quot;35&quot;,&quot;1857&quot;,&quot;1116&quot;,&quot;228&quot;],[&quot;36&quot;,&quot;2774&quot;,&quot;905&quot;,&quot;290&quot;],[&quot;37&quot;,&quot;1113&quot;,&quot;938&quot;,&quot;378&quot;],[&quot;38&quot;,&quot;1548&quot;,&quot;1098&quot;,&quot;465&quot;],[&quot;39&quot;,&quot;1773&quot;,&quot;902&quot;,&quot;299&quot;],[&quot;41&quot;,&quot;513&quot;,&quot;382&quot;,&quot;177&quot;],[&quot;42&quot;,&quot;962&quot;,&quot;1240&quot;,&quot;236&quot;],[&quot;43&quot;,&quot;1162&quot;,&quot;1329&quot;,&quot;622&quot;],[&quot;44&quot;,&quot;2509&quot;,&quot;2037&quot;,&quot;476&quot;],[&quot;45&quot;,&quot;2960&quot;,&quot;1963&quot;,&quot;665&quot;],[&quot;46&quot;,&quot;1471&quot;,&quot;1938&quot;,&quot;450&quot;],[&quot;47&quot;,&quot;1547&quot;,&quot;1714&quot;,&quot;338&quot;],[&quot;48&quot;,&quot;1992&quot;,&quot;1711&quot;,&quot;420&quot;],[&quot;49&quot;,&quot;2217&quot;,&quot;1595&quot;,&quot;670&quot;],[&quot;50&quot;,&quot;1765&quot;,&quot;1480&quot;,&quot;339&quot;],[&quot;51&quot;,&quot;2463&quot;,&quot;1443&quot;,&quot;203&quot;],[&quot;52&quot;,&quot;4130&quot;,&quot;1305&quot;,&quot;576&quot;],[&quot;52&quot;,&quot;3338&quot;,&quot;1357&quot;,&quot;260&quot;],[&quot;01&quot;,&quot;990&quot;,&quot;611&quot;,&quot;531&quot;],[&quot;02&quot;,&quot;318&quot;,&quot;513&quot;,&quot;396&quot;],[&quot;03&quot;,&quot;1367&quot;,&quot;1401&quot;,&quot;1022&quot;],[&quot;04&quot;,&quot;1143&quot;,&quot;1270&quot;,&quot;493&quot;],[&quot;05&quot;,&quot;620&quot;,&quot;985&quot;,&quot;211&quot;],[&quot;06&quot;,&quot;453&quot;,&quot;131&quot;,&quot;28&quot;],[&quot;08&quot;,&quot;449&quot;,&quot;547&quot;,&quot;908&quot;],[&quot;09&quot;,&quot;1083&quot;,&quot;1000&quot;,&quot;775&quot;],[&quot;10&quot;,&quot;537&quot;,&quot;1303&quot;,&quot;810&quot;],[&quot;11&quot;,&quot;761&quot;,&quot;1489&quot;,&quot;951&quot;],[&quot;12&quot;,&quot;1518&quot;,&quot;1910&quot;,&quot;1035&quot;],[&quot;13&quot;,&quot;3513&quot;,&quot;2129&quot;,&quot;767&quot;],[&quot;14&quot;,&quot;413&quot;,&quot;565&quot;,&quot;499&quot;],[&quot;15&quot;,&quot;1110&quot;,&quot;2152&quot;,&quot;597&quot;],[&quot;16&quot;,&quot;1266&quot;,&quot;1881&quot;,&quot;595&quot;],[&quot;17&quot;,&quot;909&quot;,&quot;1314&quot;,&quot;628&quot;],[&quot;18&quot;,&quot;747&quot;,&quot;406&quot;,&quot;517&quot;],[&quot;19&quot;,&quot;1044&quot;,&quot;1456&quot;,&quot;805&quot;],[&quot;20&quot;,&quot;1161&quot;,&quot;1836&quot;,&quot;987&quot;],[&quot;21&quot;,&quot;1502&quot;,&quot;1606&quot;,&quot;862&quot;],[&quot;22&quot;,&quot;2098&quot;,&quot;1889&quot;,&quot;712&quot;],[&quot;23&quot;,&quot;1280&quot;,&quot;1780&quot;,&quot;777&quot;],[&quot;24&quot;,&quot;1312&quot;,&quot;1604&quot;,&quot;673&quot;],[&quot;25&quot;,&quot;1927&quot;,&quot;1994&quot;,&quot;615&quot;],[&quot;26&quot;,&quot;4747&quot;,&quot;1859&quot;,&quot;595&quot;],[&quot;27&quot;,&quot;1307&quot;,&quot;1530&quot;,&quot;1038&quot;],[&quot;28&quot;,&quot;1090&quot;,&quot;1590&quot;,&quot;275&quot;],[&quot;29&quot;,&quot;985&quot;,&quot;1579&quot;,&quot;580&quot;],[&quot;30&quot;,&quot;1450&quot;,&quot;1598&quot;,&quot;508&quot;],[&quot;31&quot;,&quot;2137&quot;,&quot;1381&quot;,&quot;431&quot;],[&quot;32&quot;,&quot;822&quot;,&quot;1317&quot;,&quot;477&quot;]]],&quot;dataType&quot;:&quot;cross-table&quot;,&quot;download&quot;:false,&quot;srcType&quot;:&quot;local&quot;,&quot;url&quot;:&quot;&quot;},&quot;function_type&quot;:[&quot;折线图&quot;],&quot;gif&quot;:&quot;//web.docer.wpscdn.cn/docer/ds-page/v2/images/5948734748594536789.gif?imageView2/2/w/500/quality/90&quot;,&quot;isFree&quot;:&quot;0&quot;,&quot;label&quot;:&quot;&lt;d-smoothline-chart&gt;&quot;,&quot;position&quot;:{&quot;left&quot;:0,&quot;top&quot;:0},&quot;projectId&quot;:&quot;5948734748594536789&quot;,&quot;props&quot;:{&quot;animation&quot;:{&quot;duration&quot;:&quot;1.8&quot;,&quot;easeStyle&quot;:&quot;&quot;,&quot;endPause&quot;:&quot;1&quot;,&quot;moveOptions&quot;:[&quot;依次绘制&quot;,&quot;同时绘制&quot;,&quot;穿针引线&quot;],&quot;moveStyle&quot;:&quot;依次绘制&quot;,&quot;startDelay&quot;:&quot;0&quot;,&quot;transition&quot;:true},&quot;axis&quot;:{&quot;grid&quot;:{&quot;color&quot;:&quot;#e9e9e9&quot;,&quot;gridLineWidth&quot;:&quot;1&quot;,&quot;lineStyle&quot;:&quot;dashline&quot;,&quot;show&quot;:&quot;x&quot;},&quot;x&quot;:{&quot;axisColor&quot;:&quot;#bfbfbf&quot;,&quot;axisLineWidth&quot;:&quot;1&quot;,&quot;axisShow&quot;:true,&quot;labelAngle&quot;:&quot;0&quot;,&quot;labelDirection&quot;:&quot;自动&quot;,&quot;labelDirectionOptions&quot;:[&quot;自动&quot;,&quot;横排&quot;,&quot;竖排&quot;],&quot;labelShow&quot;:true,&quot;name&quot;:&quot;&quot;},&quot;y&quot;:{&quot;axisColor&quot;:&quot;#bfbfbf&quot;,&quot;axisLineWidth&quot;:&quot;1&quot;,&quot;axisShow&quot;:false,&quot;labelShow&quot;:true,&quot;labelSuffix&quot;:&quot;&quot;,&quot;name&quot;:&quot;&quot;,&quot;range&quot;:[],&quot;stepOfLabel&quot;:null}},&quot;backgroundColor&quot;:&quot;&quot;,&quot;colors&quot;:{&quot;colorControlers&quot;:[&quot;multiple&quot;],&quot;list&quot;:[0,1,2],&quot;type&quot;:&quot;multiple&quot;},&quot;display&quot;:{&quot;endPointBorderColor&quot;:&quot;#FFFFFF&quot;,&quot;endPointBorderWidth&quot;:&quot;0&quot;,&quot;endPointFillColor&quot;:null,&quot;endPointRadius&quot;:&quot;0&quot;,&quot;lineWidth&quot;:&quot;2&quot;},&quot;font&quot;:{&quot;color&quot;:&quot;#545454&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;},&quot;label&quot;:{&quot;display&quot;:false,&quot;positionChoice&quot;:&quot;上面&quot;,&quot;positionOptions&quot;:[&quot;上面&quot;,&quot;下面&quot;],&quot;suffix&quot;:&quot;&quot;,&quot;textLabel&quot;:{&quot;color&quot;:&quot;#545454&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;}},&quot;legend&quot;:{&quot;color&quot;:[&quot;#545454&quot;],&quot;fontFamily&quot;:[&quot;黑体&quot;],&quot;fontSize&quot;:&quot;14&quot;,&quot;lineHeight&quot;:&quot;15&quot;,&quot;show&quot;:true,&quot;style&quot;:&quot;&quot;,&quot;styleOptions&quot;:[],&quot;xPosition&quot;:&quot;center&quot;,&quot;yPosition&quot;:&quot;bottom&quot;},&quot;logoDisplay&quot;:{&quot;bottomLineHeight&quot;:&quot;15&quot;,&quot;imgHeight&quot;:&quot;32&quot;,&quot;imgUrl&quot;:&quot;https://ss1.dydata.io/newchartLogo.png&quot;,&quot;show&quot;:true,&quot;topLineHeight&quot;:&quot;11&quot;},&quot;map&quot;:[[{&quot;allowType&quot;:[&quot;string&quot;],&quot;configurable&quot;:false,&quot;function&quot;:&quot;objCol&quot;,&quot;index&quot;:0,&quot;isLegend&quot;:false,&quot;name&quot;:&quot;X轴对象&quot;},{&quot;allowType&quot;:[&quot;number&quot;],&quot;configurable&quot;:true,&quot;function&quot;:&quot;vCol&quot;,&quot;index&quot;:1,&quot;isLegend&quot;:false,&quot;name&quot;:&quot;数值列&quot;},{&quot;allowType&quot;:[&quot;number&quot;],&quot;configurable&quot;:true,&quot;function&quot;:&quot;vCol&quot;,&quot;index&quot;:2,&quot;isLegend&quot;:false,&quot;name&quot;:&quot;数值列&quot;},{&quot;allowType&quot;:[&quot;number&quot;],&quot;configurable&quot;:true,&quot;function&quot;:&quot;vCol&quot;,&quot;index&quot;:3,&quot;isLegend&quot;:false,&quot;name&quot;:&quot;数值列&quot;}]],&quot;numberFormat&quot;:{&quot;decimalPlaces&quot;:null,&quot;style&quot;:&quot;1000.00&quot;},&quot;paddings&quot;:{&quot;bottom&quot;:&quot;33&quot;,&quot;chartBottom&quot;:&quot;5&quot;,&quot;left&quot;:&quot;24&quot;,&quot;right&quot;:&quot;24&quot;,&quot;top&quot;:&quot;24&quot;},&quot;publishDisplay&quot;:{&quot;color&quot;:&quot;#878787&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;,&quot;show&quot;:true,&quot;text&quot;:&quot;镝数出品&quot;},&quot;shadow&quot;:{&quot;display&quot;:false,&quot;shadowAngle&quot;:&quot;45&quot;,&quot;shadowBlur&quot;:&quot;5&quot;,&quot;shadowColor&quot;:&quot;#c6c6c6&quot;,&quot;shadowOpacity&quot;:&quot;100&quot;,&quot;shadowRadius&quot;:&quot;3&quot;},&quot;size&quot;:{&quot;height&quot;:635,&quot;ratio&quot;:null,&quot;rotate&quot;:0,&quot;width&quot;:1735.0000000000002},&quot;sourceDisplay&quot;:{&quot;color&quot;:&quot;#878787&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;,&quot;show&quot;:false,&quot;text&quot;:&quot;数据来源：示例数据&quot;,&quot;topLineHeight&quot;:&quot;15&quot;,&quot;xPosition&quot;:&quot;left&quot;,&quot;yPosition&quot;:&quot;bottom&quot;},&quot;titleDisplay&quot;:{&quot;color&quot;:&quot;#4c4c4c&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;36&quot;,&quot;lineHeight&quot;:&quot;10&quot;,&quot;show&quot;:false,&quot;text&quot;:&quot;2010-2016年一线城市房价变迁&quot;,&quot;totalHeight&quot;:&quot;39&quot;,&quot;xPosition&quot;:&quot;left&quot;,&quot;yPosition&quot;:&quot;top&quot;},&quot;tooltip&quot;:true,&quot;unitDisplay&quot;:{&quot;bottomLineHeight&quot;:&quot;15&quot;,&quot;color&quot;:&quot;#878787&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;,&quot;show&quot;:false,&quot;text&quot;:&quot;单位：元&quot;,&quot;xPosition&quot;:&quot;left&quot;,&quot;yPosition&quot;:&quot;top&quot;},&quot;watermarkDisplay&quot;:{&quot;imgHeight&quot;:&quot;80&quot;,&quot;imgUrl&quot;:&quot;https://ss1.dydata.io/newchartWatermark.png&quot;,&quot;imgWidth&quot;:&quot;80&quot;,&quot;show&quot;:false}},&quot;templateId&quot;:&quot;5948734748594536789&quot;,&quot;templateSwitch&quot;:&quot;cross&quot;,&quot;theme&quot;:{&quot;axis&quot;:{&quot;color&quot;:&quot;#a1a1a1&quot;},&quot;backgroundColor&quot;:&quot;#FFFFFF&quot;,&quot;colors&quot;:[&quot;#5AAEF3&quot;,&quot;#62D9AD&quot;,&quot;#5B6E96&quot;,&quot;#a8dffa&quot;,&quot;#ffdc4c&quot;,&quot;#FF974C&quot;,&quot;#E65A56&quot;,&quot;#6D61E4&quot;,&quot;#4A6FE2&quot;,&quot;#6D9AE7&quot;,&quot;#23C2DB&quot;,&quot;#D4EC59&quot;,&quot;#FFE88E&quot;,&quot;#FEB64D&quot;,&quot;#FB6E6C&quot;],&quot;fonts&quot;:{&quot;accessoryColor&quot;:&quot;#878787&quot;,&quot;color&quot;:&quot;#545454&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;14&quot;},&quot;grid&quot;:{&quot;color&quot;:&quot;#ccc&quot;},&quot;name&quot;:&quot;默认主题&quot;,&quot;price&quot;:&quot;0.0&quot;,&quot;shapeColor&quot;:1,&quot;themeId&quot;:&quot;18&quot;,&quot;titleFont&quot;:{&quot;color&quot;:&quot;#4c4c4c&quot;,&quot;fontFamily&quot;:&quot;黑体&quot;,&quot;fontSize&quot;:&quot;36&quot;}},&quot;thumb&quot;:&quot;//web.docer.wpscdn.cn/docer/ds-page/v2/images/smoothline.4DBEA3F2.jpg?imageView2/2/w/500/quality/90&quot;,&quot;title&quot;:&quot;曲线折线图&quot;,&quot;type&quot;:&quot;chart&quot;},&quot;dschart_id&quot;:&quot;5948734748594536789&quot;,&quot;id&quot;:&quot;48&quot;}"/>
     <wpswe:property key="isUseCommonErrorPage" value="false"/>
     <wpswe:property key="loadingImage" value="res:/icons/DsWebShapeDefaultPage.svg"/>
   </wpswe:properties>
@@ -3317,8 +3353,8 @@
     <wpswe:linkPath>E:\03.SRC\Python\GetData\hz杭州成交周报.xlsx</wpswe:linkPath>
     <wpswe:dataRange>
       <wpswe:key>data_source</wpswe:key>
-      <wpswe:context>Sheet1!$B$1:$E$98</wpswe:context>
-      <wpswe:count>98</wpswe:count>
+      <wpswe:context>Sheet1!$B$1:$E$102</wpswe:context>
+      <wpswe:count>102</wpswe:count>
       <wpswe:cells wpswe:idx="0">
         <wpswe:count>4</wpswe:count>
         <wpswe:formatCode>General</wpswe:formatCode>
@@ -4885,6 +4921,70 @@
         </wpswe:cell>
         <wpswe:cell wpswe:idx="3">
           <wpswe:value>275</wpswe:value>
+        </wpswe:cell>
+      </wpswe:cells>
+      <wpswe:cells wpswe:idx="98">
+        <wpswe:count>4</wpswe:count>
+        <wpswe:formatCode>General</wpswe:formatCode>
+        <wpswe:cell wpswe:idx="0">
+          <wpswe:value>29</wpswe:value>
+        </wpswe:cell>
+        <wpswe:cell wpswe:idx="1">
+          <wpswe:value>985</wpswe:value>
+        </wpswe:cell>
+        <wpswe:cell wpswe:idx="2">
+          <wpswe:value>1579</wpswe:value>
+        </wpswe:cell>
+        <wpswe:cell wpswe:idx="3">
+          <wpswe:value>580</wpswe:value>
+        </wpswe:cell>
+      </wpswe:cells>
+      <wpswe:cells wpswe:idx="99">
+        <wpswe:count>4</wpswe:count>
+        <wpswe:formatCode>General</wpswe:formatCode>
+        <wpswe:cell wpswe:idx="0">
+          <wpswe:value>30</wpswe:value>
+        </wpswe:cell>
+        <wpswe:cell wpswe:idx="1">
+          <wpswe:value>1450</wpswe:value>
+        </wpswe:cell>
+        <wpswe:cell wpswe:idx="2">
+          <wpswe:value>1598</wpswe:value>
+        </wpswe:cell>
+        <wpswe:cell wpswe:idx="3">
+          <wpswe:value>508</wpswe:value>
+        </wpswe:cell>
+      </wpswe:cells>
+      <wpswe:cells wpswe:idx="100">
+        <wpswe:count>4</wpswe:count>
+        <wpswe:formatCode>General</wpswe:formatCode>
+        <wpswe:cell wpswe:idx="0">
+          <wpswe:value>31</wpswe:value>
+        </wpswe:cell>
+        <wpswe:cell wpswe:idx="1">
+          <wpswe:value>2137</wpswe:value>
+        </wpswe:cell>
+        <wpswe:cell wpswe:idx="2">
+          <wpswe:value>1381</wpswe:value>
+        </wpswe:cell>
+        <wpswe:cell wpswe:idx="3">
+          <wpswe:value>431</wpswe:value>
+        </wpswe:cell>
+      </wpswe:cells>
+      <wpswe:cells wpswe:idx="101">
+        <wpswe:count>4</wpswe:count>
+        <wpswe:formatCode>General</wpswe:formatCode>
+        <wpswe:cell wpswe:idx="0">
+          <wpswe:value>32</wpswe:value>
+        </wpswe:cell>
+        <wpswe:cell wpswe:idx="1">
+          <wpswe:value>822</wpswe:value>
+        </wpswe:cell>
+        <wpswe:cell wpswe:idx="2">
+          <wpswe:value>1317</wpswe:value>
+        </wpswe:cell>
+        <wpswe:cell wpswe:idx="3">
+          <wpswe:value>477</wpswe:value>
         </wpswe:cell>
       </wpswe:cells>
     </wpswe:dataRange>
@@ -5020,13 +5120,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M98"/>
+  <dimension ref="A1:M102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P51" sqref="P51"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="P45" sqref="P45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="5.875" customWidth="1"/>
+    <col min="2" max="2" width="6.125" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
@@ -6755,16 +6861,16 @@
       <c r="A97" s="2">
         <v>2024</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B97" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="C97" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="D97" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="E97" s="5" t="s">
+      <c r="E97" s="4" t="s">
         <v>300</v>
       </c>
     </row>
@@ -6772,17 +6878,85 @@
       <c r="A98" s="2">
         <v>2024</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="C98" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="D98" s="5" t="s">
+      <c r="D98" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="E98" s="5" t="s">
+      <c r="E98" s="4" t="s">
         <v>161</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="2">
+        <v>2024</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="2">
+        <v>2024</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="2">
+        <v>2024</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="2">
+        <v>2024</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -6800,29 +6974,29 @@
   <sheetPr/>
   <dimension ref="B1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <sheetData>
     <row r="1" spans="2:8">
       <c r="B1" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="C1" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="D1" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="H1" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="2:8">
       <c r="B2" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -6831,12 +7005,12 @@
         <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -6847,7 +7021,7 @@
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -6861,10 +7035,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>4</v>
